--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -308,7 +308,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>3300.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="3">
@@ -346,7 +346,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>69461.52122937466</v>
+        <v>66515.68921150395</v>
       </c>
     </row>
     <row r="7">
@@ -357,7 +357,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>68441.52122937466</v>
+        <v>65495.68921150396</v>
       </c>
     </row>
     <row r="8">
@@ -368,7 +368,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>67377.67559249341</v>
+        <v>64520.21853515883</v>
       </c>
     </row>
     <row r="9">
@@ -401,7 +401,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>21405.342938878108</v>
+        <v>18683.04663529311</v>
       </c>
     </row>
     <row r="12">
@@ -423,7 +423,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>48056.178290496566</v>
+        <v>47832.642576210856</v>
       </c>
     </row>
     <row r="14">
@@ -434,7 +434,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>47036.178290496566</v>
+        <v>46812.642576210856</v>
       </c>
     </row>
     <row r="15">
@@ -445,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>31736.178290496573</v>
+        <v>31512.642576210856</v>
       </c>
     </row>
     <row r="16">
@@ -456,7 +456,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>30776.754296383748</v>
+        <v>30567.947742152846</v>
       </c>
     </row>
     <row r="17">
@@ -467,7 +467,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>28728.861902496574</v>
+        <v>28505.32618821086</v>
       </c>
     </row>
     <row r="18">
@@ -489,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>347.3076061128228</v>
+        <v>332.57844605800744</v>
       </c>
     </row>
     <row r="20">
@@ -505,7 +505,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>681184.8271640467</v>
+        <v>652296.0836059949</v>
       </c>
     </row>
     <row r="22">
@@ -516,7 +516,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>671182.0441640469</v>
+        <v>642293.3006059951</v>
       </c>
     </row>
     <row r="23">
@@ -527,7 +527,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>660749.2823491252</v>
+        <v>632727.2010978151</v>
       </c>
     </row>
     <row r="24">
@@ -571,7 +571,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>471270.12083249795</v>
+        <v>469077.98431999807</v>
       </c>
     </row>
     <row r="28">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="n">
-        <v>461267.337832498</v>
+        <v>459075.201319998</v>
       </c>
     </row>
     <row r="29">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>311225.59283249814</v>
+        <v>309033.45631999813</v>
       </c>
     </row>
     <row r="30">
@@ -604,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="n">
-        <v>301816.85752063163</v>
+        <v>299769.16472558316</v>
       </c>
     </row>
     <row r="31">
@@ -615,7 +615,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>281733.893576118</v>
+        <v>279541.75706361793</v>
       </c>
     </row>
     <row r="32">
@@ -637,7 +637,7 @@
         <v>25</v>
       </c>
       <c r="C33" t="n">
-        <v>3405.9241354863125</v>
+        <v>3261.4804180347573</v>
       </c>
     </row>
   </sheetData>
@@ -725,10 +725,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>6691.0</v>
+        <v>6601.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-11.998882066204677</v>
+        <v>-13.182576672996126</v>
       </c>
     </row>
     <row r="8">
@@ -739,10 +739,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>6745.0</v>
+        <v>6600.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.288665302129807</v>
+        <v>-13.195728835293808</v>
       </c>
     </row>
     <row r="9">
@@ -753,10 +753,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>7832.0</v>
+        <v>7516.0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.007735115451349</v>
+        <v>-1.1483481706164018</v>
       </c>
     </row>
     <row r="10">
@@ -795,10 +795,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>7387.833333333332</v>
+        <v>7296.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.834016971769412</v>
+        <v>-4.041823876106608</v>
       </c>
     </row>
   </sheetData>
@@ -897,10 +897,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>6752.0</v>
+        <v>6659.0</v>
       </c>
       <c r="D8" t="n">
-        <v>33.20509975093097</v>
+        <v>31.370373110404227</v>
       </c>
     </row>
     <row r="9">
@@ -981,10 +981,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>5804.857142857143</v>
+        <v>5791.5714285714275</v>
       </c>
       <c r="D14" t="n">
-        <v>14.51963488658024</v>
+        <v>14.257531080790697</v>
       </c>
     </row>
   </sheetData>
@@ -1083,10 +1083,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>302.0</v>
+        <v>300.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-60.28046986099807</v>
+        <v>-60.54351310695172</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1097,10 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>548.0</v>
+        <v>533.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-27.92615060869848</v>
+        <v>-29.898974953350898</v>
       </c>
     </row>
     <row r="10">
@@ -1111,10 +1111,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>497.33333333333326</v>
+        <v>491.66666666666663</v>
       </c>
       <c r="D10" t="n">
-        <v>-34.589912839524416</v>
+        <v>-35.3352020363931</v>
       </c>
     </row>
   </sheetData>
@@ -1637,10 +1637,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>1932.0</v>
+        <v>1863.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.712584153288417</v>
+        <v>-8.115706147813832</v>
       </c>
     </row>
     <row r="6">
@@ -1651,10 +1651,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2778.0</v>
+        <v>2661.0</v>
       </c>
       <c r="D6" t="n">
-        <v>37.01265073611013</v>
+        <v>31.24213952800182</v>
       </c>
     </row>
     <row r="7">
@@ -1665,10 +1665,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>3211.0</v>
+        <v>3066.0</v>
       </c>
       <c r="D7" t="n">
-        <v>58.36847426697251</v>
+        <v>51.21698601760751</v>
       </c>
     </row>
     <row r="8">
@@ -1679,10 +1679,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2815.0</v>
+        <v>2695.0</v>
       </c>
       <c r="D8" t="n">
-        <v>38.83751325491362</v>
+        <v>32.919040220956376</v>
       </c>
     </row>
     <row r="9">
@@ -1693,10 +1693,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2684.0</v>
+        <v>2571.25</v>
       </c>
       <c r="D9" t="n">
-        <v>32.37651352617693</v>
+        <v>26.815614904687934</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="70">
   <si>
     <t>Description</t>
   </si>
@@ -64,6 +64,9 @@
     <t>Maximum Passengers Mass</t>
   </si>
   <si>
+    <t>Actual Passengers Mass</t>
+  </si>
+  <si>
     <t>Maximum Fuel Mass</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Operating Item Mass</t>
   </si>
   <si>
+    <t>Furnishings and Equipments Mass</t>
+  </si>
+  <si>
     <t>Trapped Fuel Oil Mass</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>Maximum Passengers Weight</t>
   </si>
   <si>
+    <t>Actual Passengers Weight</t>
+  </si>
+  <si>
     <t>Fuel Weight</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
   </si>
   <si>
     <t>Operating Item Weight</t>
+  </si>
+  <si>
+    <t>Furnishings and Equipments Weight</t>
   </si>
   <si>
     <t>Trapped Fuel Oil Weight</t>
@@ -330,7 +342,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>102.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="5">
@@ -346,7 +358,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>66515.68921150395</v>
+        <v>71275.47129088675</v>
       </c>
     </row>
     <row r="7">
@@ -357,7 +369,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>65495.68921150396</v>
+        <v>70225.47129088675</v>
       </c>
     </row>
     <row r="8">
@@ -368,7 +380,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>64520.21853515883</v>
+        <v>69137.20715216015</v>
       </c>
     </row>
     <row r="9">
@@ -379,7 +391,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>16320.0</v>
+        <v>16800.0</v>
       </c>
     </row>
     <row r="10">
@@ -390,7 +402,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>18543.709786528234</v>
+        <v>15750.0</v>
       </c>
     </row>
     <row r="11">
@@ -401,7 +413,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>18683.04663529311</v>
+        <v>18543.709786528234</v>
       </c>
     </row>
     <row r="12">
@@ -412,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>612.1163879999999</v>
+        <v>20019.982801868446</v>
       </c>
     </row>
     <row r="13">
@@ -423,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>47832.642576210856</v>
+        <v>612.1163879999999</v>
       </c>
     </row>
     <row r="14">
@@ -434,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>46812.642576210856</v>
+        <v>51255.48848901832</v>
       </c>
     </row>
     <row r="15">
@@ -445,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>31512.642576210856</v>
+        <v>50205.48848901832</v>
       </c>
     </row>
     <row r="16">
@@ -456,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>30567.947742152846</v>
+        <v>34455.48848901832</v>
       </c>
     </row>
     <row r="17">
@@ -467,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>28505.32618821086</v>
+        <v>33486.9947445664</v>
       </c>
     </row>
     <row r="18">
@@ -478,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>2395.2</v>
+        <v>31448.172101018325</v>
       </c>
     </row>
     <row r="19">
@@ -489,45 +501,45 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>332.57844605800744</v>
+        <v>2395.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2564.6197223312765</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>652296.0836059949</v>
+        <v>356.3773564519064</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="n">
-        <v>642293.3006059951</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
       <c r="C23" t="n">
-        <v>632727.2010978151</v>
+        <v>698973.6005347744</v>
       </c>
     </row>
     <row r="24">
@@ -535,10 +547,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>160044.52799999993</v>
+        <v>688676.6180347744</v>
       </c>
     </row>
     <row r="25">
@@ -546,10 +558,10 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>181851.67157805705</v>
+        <v>678004.3925187311</v>
       </c>
     </row>
     <row r="26">
@@ -557,10 +569,10 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C26" t="n">
-        <v>6002.811176380199</v>
+        <v>164751.71999999994</v>
       </c>
     </row>
     <row r="27">
@@ -568,10 +580,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>469077.98431999807</v>
+        <v>154454.73749999996</v>
       </c>
     </row>
     <row r="28">
@@ -579,10 +591,10 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>459075.201319998</v>
+        <v>181851.67157805705</v>
       </c>
     </row>
     <row r="29">
@@ -590,10 +602,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>309033.45631999813</v>
+        <v>6002.811176380199</v>
       </c>
     </row>
     <row r="30">
@@ -601,10 +613,10 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C30" t="n">
-        <v>299769.16472558316</v>
+        <v>502644.6361908313</v>
       </c>
     </row>
     <row r="31">
@@ -612,10 +624,10 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>279541.75706361793</v>
+        <v>492347.65369083127</v>
       </c>
     </row>
     <row r="32">
@@ -623,10 +635,10 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>23488.88807999999</v>
+        <v>337892.91619083134</v>
       </c>
     </row>
     <row r="33">
@@ -634,10 +646,54 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C33" t="n">
-        <v>3261.4804180347573</v>
+        <v>328395.23701180203</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="n">
+        <v>308401.2169344513</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="n">
+        <v>23488.88807999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="n">
+        <v>25150.328000000005</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3494.8680026490865</v>
       </c>
     </row>
   </sheetData>
@@ -668,12 +724,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -684,7 +740,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -700,15 +756,15 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
         <v>8772.0</v>
@@ -719,52 +775,52 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>6601.0</v>
+        <v>6746.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-13.182576672996126</v>
+        <v>-11.275513139832125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>6600.0</v>
+        <v>6832.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-13.195728835293808</v>
+        <v>-10.144427182231409</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>7516.0</v>
+        <v>8026.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.1483481706164018</v>
+        <v>5.559254601201804</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>6396.0</v>
@@ -775,10 +831,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>7891.0</v>
@@ -789,16 +845,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>7296.0</v>
+        <v>7443.833333333332</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.041823876106608</v>
+        <v>-2.0974958830991777</v>
       </c>
     </row>
   </sheetData>
@@ -829,12 +885,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -845,7 +901,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -856,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -872,15 +928,15 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -891,24 +947,24 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>6659.0</v>
+        <v>6933.0</v>
       </c>
       <c r="D8" t="n">
-        <v>31.370373110404227</v>
+        <v>36.775911814751844</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
         <v>6240.0</v>
@@ -919,10 +975,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>6627.0</v>
@@ -933,10 +989,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>6920.0</v>
@@ -947,10 +1003,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
         <v>7752.0</v>
@@ -961,10 +1017,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n">
         <v>6343.0</v>
@@ -975,16 +1031,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>5791.5714285714275</v>
+        <v>5830.714285714284</v>
       </c>
       <c r="D14" t="n">
-        <v>14.257531080790697</v>
+        <v>15.029750895697491</v>
       </c>
     </row>
   </sheetData>
@@ -1015,12 +1071,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1031,7 +1087,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1042,7 +1098,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1058,15 +1114,15 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
         <v>642.0</v>
@@ -1077,44 +1133,44 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-60.54351310695172</v>
+        <v>-60.14894823802124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>533.0</v>
+        <v>557.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-29.898974953350898</v>
+        <v>-26.742456001907033</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>491.66666666666663</v>
+        <v>500.66666666666663</v>
       </c>
       <c r="D10" t="n">
-        <v>-35.3352020363931</v>
+        <v>-34.151507429601644</v>
       </c>
     </row>
   </sheetData>
@@ -1145,12 +1201,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1161,7 +1217,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1172,7 +1228,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1188,15 +1244,15 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
         <v>502.0</v>
@@ -1207,10 +1263,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
         <v>422.0</v>
@@ -1221,7 +1277,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1261,12 +1317,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1277,7 +1333,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1296,7 +1352,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -1306,12 +1362,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1320,10 +1376,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
         <v>158.0</v>
@@ -1334,10 +1390,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>363.0</v>
@@ -1348,10 +1404,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>581.0</v>
@@ -1362,7 +1418,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1378,12 +1434,12 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1392,10 +1448,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
         <v>158.0</v>
@@ -1406,10 +1462,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
         <v>363.0</v>
@@ -1420,10 +1476,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
         <v>581.0</v>
@@ -1434,7 +1490,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1478,7 +1534,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1489,7 +1545,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1505,7 +1561,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -1515,12 +1571,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1531,7 +1587,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1547,12 +1603,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1563,7 +1619,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1605,12 +1661,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1626,77 +1682,77 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>1863.0</v>
+        <v>1974.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.115706147813832</v>
+        <v>-2.641118591403383</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2661.0</v>
+        <v>2851.0</v>
       </c>
       <c r="D6" t="n">
-        <v>31.24213952800182</v>
+        <v>40.61305516510079</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>3066.0</v>
+        <v>3301.0</v>
       </c>
       <c r="D7" t="n">
-        <v>51.21698601760751</v>
+        <v>62.80732904244044</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2695.0</v>
+        <v>2888.0</v>
       </c>
       <c r="D8" t="n">
-        <v>32.919040220956376</v>
+        <v>42.43791768390427</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2571.25</v>
+        <v>2753.5</v>
       </c>
       <c r="D9" t="n">
-        <v>26.815614904687934</v>
+        <v>35.8042958250105</v>
       </c>
     </row>
   </sheetData>
@@ -1727,12 +1783,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1748,12 +1804,12 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1767,7 +1823,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -358,7 +358,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>71275.47129088675</v>
+        <v>55106.72117531574</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>70225.47129088675</v>
+        <v>54686.72117531574</v>
       </c>
     </row>
     <row r="8">
@@ -380,7 +380,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>69137.20715216015</v>
+        <v>53453.519540056266</v>
       </c>
     </row>
     <row r="9">
@@ -391,7 +391,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>16800.0</v>
+        <v>7560.0</v>
       </c>
     </row>
     <row r="10">
@@ -402,7 +402,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>15750.0</v>
+        <v>7140.0</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>18543.709786528234</v>
+        <v>14372.170291875165</v>
       </c>
     </row>
     <row r="12">
@@ -424,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>20019.982801868446</v>
+        <v>15478.475137969412</v>
       </c>
     </row>
     <row r="13">
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>612.1163879999999</v>
+        <v>229.54364550000003</v>
       </c>
     </row>
     <row r="14">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>51255.48848901832</v>
+        <v>39628.24603734633</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>50205.48848901832</v>
+        <v>39208.24603734633</v>
       </c>
     </row>
     <row r="16">
@@ -468,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>34455.48848901832</v>
+        <v>32068.246037346336</v>
       </c>
     </row>
     <row r="17">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>33486.9947445664</v>
+        <v>31563.168785940274</v>
       </c>
     </row>
     <row r="18">
@@ -490,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>31448.172101018325</v>
+        <v>30760.862391846338</v>
       </c>
     </row>
     <row r="19">
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>2395.2</v>
+        <v>1077.8400000000001</v>
       </c>
     </row>
     <row r="20">
@@ -523,7 +523,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>356.3773564519064</v>
+        <v>275.5336059060588</v>
       </c>
     </row>
     <row r="22">
@@ -539,7 +539,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>698973.6005347744</v>
+        <v>540412.32721391</v>
       </c>
     </row>
     <row r="24">
@@ -550,7 +550,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>688676.6180347744</v>
+        <v>536293.5342139099</v>
       </c>
     </row>
     <row r="25">
@@ -561,7 +561,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>678004.3925187311</v>
+        <v>524199.9573974926</v>
       </c>
     </row>
     <row r="26">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="n">
-        <v>164751.71999999994</v>
+        <v>74138.27399999998</v>
       </c>
     </row>
     <row r="27">
@@ -583,7 +583,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>154454.73749999996</v>
+        <v>70019.48099999997</v>
       </c>
     </row>
     <row r="28">
@@ -594,7 +594,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>181851.67157805705</v>
+        <v>140942.84379281756</v>
       </c>
     </row>
     <row r="29">
@@ -605,7 +605,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>6002.811176380199</v>
+        <v>2251.0541911425744</v>
       </c>
     </row>
     <row r="30">
@@ -616,7 +616,7 @@
         <v>27</v>
       </c>
       <c r="C30" t="n">
-        <v>502644.6361908313</v>
+        <v>388620.3390021423</v>
       </c>
     </row>
     <row r="31">
@@ -627,7 +627,7 @@
         <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>492347.65369083127</v>
+        <v>384501.54600214225</v>
       </c>
     </row>
     <row r="32">
@@ -638,7 +638,7 @@
         <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>337892.91619083134</v>
+        <v>314482.06500214234</v>
       </c>
     </row>
     <row r="33">
@@ -649,7 +649,7 @@
         <v>27</v>
       </c>
       <c r="C33" t="n">
-        <v>328395.23701180203</v>
+        <v>309528.94917464105</v>
       </c>
     </row>
     <row r="34">
@@ -660,7 +660,7 @@
         <v>27</v>
       </c>
       <c r="C34" t="n">
-        <v>308401.2169344513</v>
+        <v>301661.0111749998</v>
       </c>
     </row>
     <row r="35">
@@ -671,7 +671,7 @@
         <v>27</v>
       </c>
       <c r="C35" t="n">
-        <v>23488.88807999999</v>
+        <v>10569.999635999997</v>
       </c>
     </row>
     <row r="36">
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="C37" t="n">
-        <v>3494.8680026490865</v>
+        <v>2702.0616363586505</v>
       </c>
     </row>
   </sheetData>
@@ -767,10 +767,10 @@
         <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>8772.0</v>
+        <v>9258.0</v>
       </c>
       <c r="D6" t="n">
-        <v>15.37076767527314</v>
+        <v>21.76271855194696</v>
       </c>
     </row>
     <row r="7">
@@ -781,10 +781,10 @@
         <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>6746.0</v>
+        <v>6390.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-11.275513139832125</v>
+        <v>-15.957682917807187</v>
       </c>
     </row>
     <row r="8">
@@ -795,10 +795,10 @@
         <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>6832.0</v>
+        <v>6016.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.144427182231409</v>
+        <v>-20.876591617140537</v>
       </c>
     </row>
     <row r="9">
@@ -809,10 +809,10 @@
         <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>8026.0</v>
+        <v>6546.0</v>
       </c>
       <c r="D9" t="n">
-        <v>5.559254601201804</v>
+        <v>-13.905945599368676</v>
       </c>
     </row>
     <row r="10">
@@ -851,10 +851,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>7443.833333333332</v>
+        <v>7082.833333333332</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.0974958830991777</v>
+        <v>-6.845426472562652</v>
       </c>
     </row>
   </sheetData>
@@ -953,10 +953,10 @@
         <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>6933.0</v>
+        <v>6335.0</v>
       </c>
       <c r="D8" t="n">
-        <v>36.775911814751844</v>
+        <v>24.97842223373041</v>
       </c>
     </row>
     <row r="9">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>6240.0</v>
+        <v>6115.0</v>
       </c>
       <c r="D9" t="n">
-        <v>23.104239106310615</v>
+        <v>20.638208675495097</v>
       </c>
     </row>
     <row r="10">
@@ -981,10 +981,10 @@
         <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>6627.0</v>
+        <v>7434.0</v>
       </c>
       <c r="D10" t="n">
-        <v>30.739069320115455</v>
+        <v>46.65976178146043</v>
       </c>
     </row>
     <row r="11">
@@ -995,10 +995,10 @@
         <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>6920.0</v>
+        <v>5911.0</v>
       </c>
       <c r="D11" t="n">
-        <v>36.519444649947026</v>
+        <v>16.613647012404172</v>
       </c>
     </row>
     <row r="12">
@@ -1009,10 +1009,10 @@
         <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>7752.0</v>
+        <v>7919.0</v>
       </c>
       <c r="D12" t="n">
-        <v>52.93334319745511</v>
+        <v>56.22795985302464</v>
       </c>
     </row>
     <row r="13">
@@ -1023,10 +1023,10 @@
         <v>47</v>
       </c>
       <c r="C13" t="n">
-        <v>6343.0</v>
+        <v>6736.0</v>
       </c>
       <c r="D13" t="n">
-        <v>25.1362481813026</v>
+        <v>32.889447855786585</v>
       </c>
     </row>
     <row r="14">
@@ -1037,10 +1037,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>5830.714285714284</v>
+        <v>5778.5714285714275</v>
       </c>
       <c r="D14" t="n">
-        <v>15.029750895697491</v>
+        <v>14.001063915985885</v>
       </c>
     </row>
   </sheetData>
@@ -1139,10 +1139,10 @@
         <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>303.0</v>
+        <v>269.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-60.14894823802124</v>
+        <v>-64.62068341923337</v>
       </c>
     </row>
     <row r="9">
@@ -1153,10 +1153,10 @@
         <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>557.0</v>
+        <v>472.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-26.742456001907033</v>
+        <v>-37.92179395493738</v>
       </c>
     </row>
     <row r="10">
@@ -1167,10 +1167,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>500.66666666666663</v>
+        <v>461.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-34.151507429601644</v>
+        <v>-39.36853180768248</v>
       </c>
     </row>
   </sheetData>
@@ -1269,10 +1269,10 @@
         <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>422.0</v>
+        <v>441.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-44.49787510377876</v>
+        <v>-41.99896426721904</v>
       </c>
     </row>
     <row r="9">
@@ -1283,10 +1283,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>462.0</v>
+        <v>471.5</v>
       </c>
       <c r="D9" t="n">
-        <v>-39.23701018470565</v>
+        <v>-37.98755476642579</v>
       </c>
     </row>
   </sheetData>
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>734.6666666666665</v>
+        <v>1108.6666666666665</v>
       </c>
       <c r="D3" t="n">
-        <v>-67.7918158843413</v>
+        <v>-51.39545355323014</v>
       </c>
     </row>
     <row r="4">
@@ -1382,10 +1382,10 @@
         <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>158.0</v>
+        <v>705.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-58.439167139322485</v>
+        <v>85.4454883973269</v>
       </c>
     </row>
     <row r="10">
@@ -1396,10 +1396,10 @@
         <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>363.0</v>
+        <v>377.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.515301718823176</v>
+        <v>-0.8326962754720038</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1424,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>367.33333333333326</v>
+        <v>554.3333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -1454,10 +1454,10 @@
         <v>47</v>
       </c>
       <c r="C16" t="n">
-        <v>158.0</v>
+        <v>705.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-58.439167139322485</v>
+        <v>85.4454883973269</v>
       </c>
     </row>
     <row r="17">
@@ -1468,10 +1468,10 @@
         <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>363.0</v>
+        <v>377.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.515301718823176</v>
+        <v>-0.8326962754720038</v>
       </c>
     </row>
     <row r="18">
@@ -1496,7 +1496,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>367.33333333333326</v>
+        <v>554.3333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -1551,7 +1551,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>6915.897051264685</v>
+        <v>6915.896865902219</v>
       </c>
     </row>
     <row r="4">
@@ -1593,7 +1593,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>3457.9485256323424</v>
+        <v>3457.9484329511106</v>
       </c>
     </row>
     <row r="10">
@@ -1625,7 +1625,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>3457.9485256323424</v>
+        <v>3457.9484329511106</v>
       </c>
     </row>
     <row r="14">
@@ -1693,10 +1693,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>1974.0</v>
+        <v>1591.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.641118591403383</v>
+        <v>-21.530911691450246</v>
       </c>
     </row>
     <row r="6">
@@ -1707,10 +1707,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2851.0</v>
+        <v>2204.0</v>
       </c>
       <c r="D6" t="n">
-        <v>40.61305516510079</v>
+        <v>8.702621390347996</v>
       </c>
     </row>
     <row r="7">
@@ -1721,10 +1721,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>3301.0</v>
+        <v>2514.0</v>
       </c>
       <c r="D7" t="n">
-        <v>62.80732904244044</v>
+        <v>23.9920100614042</v>
       </c>
     </row>
     <row r="8">
@@ -1735,10 +1735,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2888.0</v>
+        <v>2233.0</v>
       </c>
       <c r="D8" t="n">
-        <v>42.43791768390427</v>
+        <v>10.132919040220996</v>
       </c>
     </row>
     <row r="9">
@@ -1749,10 +1749,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2753.5</v>
+        <v>2135.5</v>
       </c>
       <c r="D9" t="n">
-        <v>35.8042958250105</v>
+        <v>5.324159700130713</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="70">
   <si>
     <t>Description</t>
   </si>
@@ -37,12 +37,6 @@
     <t>nmi</t>
   </si>
   <si>
-    <t>Material density</t>
-  </si>
-  <si>
-    <t>kg/m³</t>
-  </si>
-  <si>
     <t>Single passenger Mass</t>
   </si>
   <si>
@@ -61,91 +55,43 @@
     <t>Maximum Landing Mass</t>
   </si>
   <si>
+    <t>Maximum Fuel Mass</t>
+  </si>
+  <si>
+    <t>Design Mission Fuel Mass</t>
+  </si>
+  <si>
+    <t>Maximum Zero Fuel Mass</t>
+  </si>
+  <si>
+    <t>Zero Fuel Mass</t>
+  </si>
+  <si>
     <t>Maximum Passengers Mass</t>
   </si>
   <si>
     <t>Actual Passengers Mass</t>
   </si>
   <si>
-    <t>Maximum Fuel Mass</t>
-  </si>
-  <si>
-    <t>Fuel Mass</t>
+    <t>Operating Empty Mass</t>
+  </si>
+  <si>
+    <t>Empty Mass</t>
+  </si>
+  <si>
+    <t>Trapped Fuel Oil Mass</t>
   </si>
   <si>
     <t>Crew Mass</t>
   </si>
   <si>
-    <t>Maximum Zero Fuel Mass</t>
-  </si>
-  <si>
-    <t>Zero Fuel Mass</t>
-  </si>
-  <si>
-    <t>Operating Empty Mass</t>
-  </si>
-  <si>
-    <t>Empty Mass</t>
+    <t>Operating Item Mass</t>
   </si>
   <si>
     <t>Manufacturer Empty Mass</t>
   </si>
   <si>
-    <t>Operating Item Mass</t>
-  </si>
-  <si>
-    <t>Furnishings and Equipments Mass</t>
-  </si>
-  <si>
-    <t>Trapped Fuel Oil Mass</t>
-  </si>
-  <si>
-    <t>Maximum Take-Off Weight</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Take-Off Weight</t>
-  </si>
-  <si>
-    <t>Maximum Landing Weight</t>
-  </si>
-  <si>
-    <t>Maximum Passengers Weight</t>
-  </si>
-  <si>
-    <t>Actual Passengers Weight</t>
-  </si>
-  <si>
-    <t>Fuel Weight</t>
-  </si>
-  <si>
-    <t>Crew Weight</t>
-  </si>
-  <si>
-    <t>Maximum Zero Fuel Weight</t>
-  </si>
-  <si>
-    <t>Zero Fuel Weight</t>
-  </si>
-  <si>
-    <t>Operating Empty Weight</t>
-  </si>
-  <si>
-    <t>Empty Weight</t>
-  </si>
-  <si>
-    <t>Manufacturer Empty Weight</t>
-  </si>
-  <si>
-    <t>Operating Item Weight</t>
-  </si>
-  <si>
-    <t>Furnishings and Equipments Weight</t>
-  </si>
-  <si>
-    <t>Trapped Fuel Oil Weight</t>
+    <t>Structural Mass</t>
   </si>
   <si>
     <t>Percent Error</t>
@@ -154,7 +100,16 @@
     <t>Reference Mass</t>
   </si>
   <si>
-    <t>Mass Correction Factor</t>
+    <t xml:space="preserve">Estimated Mass </t>
+  </si>
+  <si>
+    <t>Calibration Factor</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Estimated Mass (calibrated)</t>
   </si>
   <si>
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
@@ -163,7 +118,13 @@
     <t>JENKINSON</t>
   </si>
   <si>
-    <t>Kg</t>
+    <t>ROSKAM</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>TORENBEEK_2013</t>
   </si>
   <si>
     <t>NICOLAI_1984</t>
@@ -172,31 +133,28 @@
     <t>RAYMER</t>
   </si>
   <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>SADRAY</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimated Mass </t>
-  </si>
-  <si>
-    <t>Composite Correction Factor</t>
-  </si>
-  <si>
-    <t>KROO</t>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>NICOLAI_2013</t>
+  </si>
+  <si>
+    <t>HOWE</t>
+  </si>
+  <si>
     <t>Total Reference Mass</t>
   </si>
   <si>
-    <t>Total mass estimated</t>
+    <t>Total Mass Estimated</t>
+  </si>
+  <si>
+    <t>Total Mass Estimated (calibrated)</t>
   </si>
   <si>
     <t>WEIGHT ESTIMATION METHODS COMPARISON FOR EACH NACELLE</t>
@@ -205,31 +163,73 @@
     <t>NACELLE 1</t>
   </si>
   <si>
-    <t>TORENBEEK_1976</t>
+    <t>KUNDU</t>
   </si>
   <si>
     <t>NACELLE 2</t>
   </si>
   <si>
-    <t>Total Dry Mass</t>
-  </si>
-  <si>
     <t>WEIGHT ESTIMATION METHODS COMPARISON FOR EACH ENGINE</t>
   </si>
   <si>
     <t>ENGINE 1</t>
   </si>
   <si>
-    <t>Dry Mass</t>
-  </si>
-  <si>
-    <t>Total Mass</t>
-  </si>
-  <si>
     <t>ENGINE 2</t>
   </si>
   <si>
-    <t>STANFORD</t>
+    <t>Overall Reference Mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated Overall Mass </t>
+  </si>
+  <si>
+    <t>Estimated Overall Mass (calibrated)</t>
+  </si>
+  <si>
+    <t>OVERALL WEIGHT:</t>
+  </si>
+  <si>
+    <t>FRONT GEAR WEIGHT:</t>
+  </si>
+  <si>
+    <t>MAIN GEAR WEIGHT:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall Estimated Mass </t>
+  </si>
+  <si>
+    <t>Overall Estimated Mass (calibrated)</t>
+  </si>
+  <si>
+    <t>Method: ALL</t>
+  </si>
+  <si>
+    <t>APU:</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Mass (calibrated)</t>
+  </si>
+  <si>
+    <t>AIR CONDITIONING AND ANTI-ICING SYSTEM:</t>
+  </si>
+  <si>
+    <t>INSTRUMENTS AND NAVIGATION SYSTEM:</t>
+  </si>
+  <si>
+    <t>HYDRAULIC AND PNEUMATIC SYSTEMS:</t>
+  </si>
+  <si>
+    <t>ELECTRICAL SYSTEMS:</t>
+  </si>
+  <si>
+    <t>CONTROL SURFACES:</t>
+  </si>
+  <si>
+    <t>FURNISHINGS AND EQUIPMENTS:</t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>3200.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="3">
@@ -331,369 +331,188 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2711.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>105.0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>231674.74431825435</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>55106.72117531574</v>
+        <v>229554.74431825435</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>54686.72117531574</v>
+        <v>224724.5019887067</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>53453.519540056266</v>
+        <v>13149.651482339104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>7560.0</v>
+        <v>64481.45269232038</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7140.0</v>
+        <v>167193.291625934</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>14372.170291875165</v>
+        <v>165073.291625934</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>15478.475137969412</v>
+        <v>15900.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>229.54364550000003</v>
+        <v>13780.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>39628.24603734633</v>
+        <v>151293.291625934</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>39208.24603734633</v>
+        <v>149752.4176231049</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>32068.246037346336</v>
+        <v>1158.3012603290836</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>31563.168785940274</v>
+        <v>382.5727425</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>30760.862391846338</v>
+        <v>2245.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>1077.8400000000001</v>
+        <v>148665.21888343405</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>2564.6197223312765</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>275.5336059060588</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="n">
-        <v>540412.32721391</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="n">
-        <v>536293.5342139099</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="n">
-        <v>524199.9573974926</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="n">
-        <v>74138.27399999998</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="n">
-        <v>70019.48099999997</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="n">
-        <v>140942.84379281756</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2251.0541911425744</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="n">
-        <v>388620.3390021423</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="n">
-        <v>384501.54600214225</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" t="n">
-        <v>314482.06500214234</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" t="n">
-        <v>309528.94917464105</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" t="n">
-        <v>301661.0111749998</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" t="n">
-        <v>10569.999635999997</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="n">
-        <v>25150.328000000005</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2702.0616363586505</v>
+        <v>126432.39304354903</v>
       </c>
     </row>
   </sheetData>
@@ -724,137 +543,176 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>7603.312499999998</v>
+        <v>23166.025206581675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>10800.375</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-53.37838535662337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10800.374999999998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9258.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.76271855194696</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6390.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-15.957682917807187</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6016.0</v>
+        <v>9233.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-20.876591617140537</v>
+        <v>-60.14422017732752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6546.0</v>
+        <v>26315.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-13.905945599368676</v>
+        <v>13.593073327588685</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6396.0</v>
+        <v>7573.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-15.87876994402109</v>
+        <v>-67.30988621281288</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>7891.0</v>
       </c>
       <c r="D11" t="n">
-        <v>3.783712691014632</v>
+        <v>-65.93718633372593</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>7082.833333333332</v>
+        <v>10219.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.845426472562652</v>
+        <v>-55.887987218900676</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12315.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-46.8402546825288</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6461.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-72.11001912333079</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6396.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-72.39060243194919</v>
       </c>
     </row>
   </sheetData>
@@ -885,37 +743,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5068.874999999998</v>
+        <v>24555.98671897657</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>11886.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-51.59632501831153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -923,124 +784,121 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11885.999999999998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-100.0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6335.0</v>
+        <v>14322.0</v>
       </c>
       <c r="D8" t="n">
-        <v>24.97842223373041</v>
+        <v>-41.67613721287716</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6115.0</v>
+        <v>12068.0</v>
       </c>
       <c r="D9" t="n">
-        <v>20.638208675495097</v>
+        <v>-50.855161561583685</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7434.0</v>
+        <v>1327.0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.65976178146043</v>
+        <v>-94.59602248858315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>5911.0</v>
+        <v>18805.0</v>
       </c>
       <c r="D11" t="n">
-        <v>16.613647012404172</v>
+        <v>-23.419896682597052</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>7919.0</v>
+        <v>14233.0</v>
       </c>
       <c r="D12" t="n">
-        <v>56.22795985302464</v>
+        <v>-42.03857428787045</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>6736.0</v>
+        <v>16646.0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.889447855786585</v>
+        <v>-32.21204999619838</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>5778.5714285714275</v>
+        <v>5801.0</v>
       </c>
       <c r="D14" t="n">
-        <v>14.001063915985885</v>
+        <v>-76.37643289847091</v>
       </c>
     </row>
   </sheetData>
@@ -1071,37 +929,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>760.3312499999997</v>
+        <v>2664.0928987568923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>808.2857142857142</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-69.6600026724716</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1109,68 +970,121 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>808.2857142857142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="n">
-        <v>642.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-15.563118048876692</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>269.0</v>
+        <v>1022.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-64.62068341923337</v>
+        <v>-61.63797439357759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>472.0</v>
+        <v>700.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-37.92179395493738</v>
+        <v>-73.7246399956011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>461.0</v>
+        <v>482.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-39.36853180768248</v>
+        <v>-81.90753782554246</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>783.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-70.60913302365093</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>472.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-82.28290011131959</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1138.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-57.283771878562916</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1061.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-60.17406147904679</v>
       </c>
     </row>
   </sheetData>
@@ -1201,37 +1115,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>760.3312499999997</v>
+        <v>2664.0928987568923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>568.1666666666665</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-78.67316612976288</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1239,54 +1156,107 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>568.1666666666665</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="n">
-        <v>502.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-33.97614526563255</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>441.0</v>
+        <v>502.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-41.99896426721904</v>
+        <v>-81.1568132539882</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>471.5</v>
+        <v>482.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-37.98755476642579</v>
+        <v>-81.90753782554246</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>933.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-64.97869873699402</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>382.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-85.66116068331374</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-86.37434902629028</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>747.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-71.96043725244859</v>
       </c>
     </row>
   </sheetData>
@@ -1317,191 +1287,213 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>760.3312499999997</v>
+        <v>4401.544789250517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1108.6666666666665</v>
+        <v>97373.33333333331</v>
       </c>
       <c r="D3" t="n">
-        <v>-51.39545355323014</v>
+        <v>2112.2536063052034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>97373.3333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="n">
-        <v>705.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>85.4454883973269</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>377.0</v>
+        <v>1410.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.8326962754720038</v>
+        <v>12.447192334220247</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>581.0</v>
+        <v>3029.0</v>
       </c>
       <c r="D11" t="n">
-        <v>52.828125899073655</v>
+        <v>141.56208906408023</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>554.3333333333333</v>
+        <v>141621.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11194.24384791816</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>48686.66666666666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="n">
-        <v>705.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>85.4454883973269</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>377.0</v>
+        <v>1410.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.8326962754720038</v>
+        <v>12.447192334220247</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>581.0</v>
+        <v>3029.0</v>
       </c>
       <c r="D18" t="n">
-        <v>52.828125899073655</v>
+        <v>141.56208906408023</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>554.3333333333333</v>
+        <v>141621.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11194.24384791816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>48686.66666666666</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1531,106 +1523,214 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>4353.999999999998</v>
+        <v>19227.80092146279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>6915.896865902219</v>
+        <v>6451.333333333332</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-66.44788782823255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6451.333333333331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2177.0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3457.9484329511106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3458.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-17.267576363460925</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2177.0</v>
+        <v>2954.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-29.32574337121561</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3457.9484329511106</v>
+        <v>3265.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-21.885088729525716</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3225.666666666666</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3458.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-17.267576363460925</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2954.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-29.32574337121561</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3265.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-21.885088729525716</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3225.666666666666</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1661,98 +1761,115 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2027.5499999999995</v>
+        <v>9498.070334698485</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4996.232329263368</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-47.3973959635668</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1591.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-21.530911691450246</v>
+        <v>4996.232329263368</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2204.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.702621390347996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2514.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>23.9920100614042</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2233.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10.132919040220996</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2135.5</v>
+        <v>4996.232329263369</v>
       </c>
       <c r="D9" t="n">
-        <v>5.324159700130713</v>
+        <v>-47.39739596356681</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.59451512125535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4990.637814142114</v>
       </c>
     </row>
   </sheetData>
@@ -1783,56 +1900,373 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2027.5499999999995</v>
+        <v>31505.79428095107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15781.492506551778</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-49.90923775537525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15781.492506551778</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4242.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>109.21802175038847</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4242.2743750414265</v>
-      </c>
-      <c r="D6" t="n">
-        <v>109.23155409442067</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15781.49250655178</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-49.909237755375266</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>322.1932175083158</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>322.19321750831574</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>706.4578234830049</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>706.4578234830047</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2292.6345773225576</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2292.634577322557</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2229.9227611289743</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2229.922761128974</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1542.6061340651304</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1542.6061340651302</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1854.6844619981066</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1854.6844619981064</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6832.993531045695</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6832.993531045694</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -347,7 +347,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>231674.74431825435</v>
+        <v>67704.39484783061</v>
       </c>
     </row>
     <row r="6">
@@ -358,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>229554.74431825435</v>
+        <v>67704.39484783061</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>224724.5019887067</v>
+        <v>65673.26300239567</v>
       </c>
     </row>
     <row r="8">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>64481.45269232038</v>
+        <v>18846.614647889844</v>
       </c>
     </row>
     <row r="10">
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>167193.291625934</v>
+        <v>48857.78019994077</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>165073.291625934</v>
+        <v>48857.78019994077</v>
       </c>
     </row>
     <row r="12">
@@ -424,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>15900.0</v>
+        <v>13780.0</v>
       </c>
     </row>
     <row r="13">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>151293.291625934</v>
+        <v>35077.780199940775</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>149752.4176231049</v>
+        <v>34356.65960238931</v>
       </c>
     </row>
     <row r="16">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>1158.3012603290836</v>
+        <v>338.54785505146185</v>
       </c>
     </row>
     <row r="17">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>2245.5</v>
+        <v>1946.1</v>
       </c>
     </row>
     <row r="19">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>148665.21888343405</v>
+        <v>32749.10745744078</v>
       </c>
     </row>
     <row r="20">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>126432.39304354903</v>
+        <v>18334.760616664655</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>23166.025206581675</v>
+        <v>6770.957101029237</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>10800.375</v>
+        <v>7282.5</v>
       </c>
       <c r="D3" t="n">
-        <v>-53.37838535662337</v>
+        <v>7.554957022146899</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>10800.374999999998</v>
+        <v>7282.499999999999</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
         <v>9233.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-60.14422017732752</v>
+        <v>36.361815061514925</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>26315.0</v>
+        <v>8179.0</v>
       </c>
       <c r="D9" t="n">
-        <v>13.593073327588685</v>
+        <v>20.79533037887259</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7573.0</v>
+        <v>6502.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-67.30988621281288</v>
+        <v>-3.972216881840133</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         <v>7891.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-65.93718633372593</v>
+        <v>16.541869668624965</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>10219.0</v>
+        <v>6940.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-55.887987218900676</v>
+        <v>2.4965879483281266</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>12315.0</v>
+        <v>6658.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-46.8402546825288</v>
+        <v>-1.6682589971226705</v>
       </c>
     </row>
     <row r="14">
@@ -698,7 +698,7 @@
         <v>6461.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-72.11001912333079</v>
+        <v>-4.57774427461844</v>
       </c>
     </row>
     <row r="15">
@@ -712,7 +712,7 @@
         <v>6396.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-72.39060243194919</v>
+        <v>-5.537726726584049</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>24555.98671897657</v>
+        <v>7177.2145270909905</v>
       </c>
     </row>
     <row r="3">
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>11886.0</v>
+        <v>5492.428571428571</v>
       </c>
       <c r="D3" t="n">
-        <v>-51.59632501831153</v>
+        <v>-23.474092202525853</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>11885.999999999998</v>
+        <v>5492.428571428571</v>
       </c>
     </row>
     <row r="6">
@@ -811,10 +811,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>14322.0</v>
+        <v>6054.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-41.67613721287716</v>
+        <v>-15.64972766038027</v>
       </c>
     </row>
     <row r="9">
@@ -825,10 +825,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>12068.0</v>
+        <v>4294.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-50.855161561583685</v>
+        <v>-40.1717757802565</v>
       </c>
     </row>
     <row r="10">
@@ -839,10 +839,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1327.0</v>
+        <v>894.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-94.59602248858315</v>
+        <v>-87.54391419365378</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>18805.0</v>
+        <v>7143.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-23.419896682597052</v>
+        <v>-0.4767103862068497</v>
       </c>
     </row>
     <row r="12">
@@ -867,10 +867,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>14233.0</v>
+        <v>5871.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-42.03857428787045</v>
+        <v>-18.199463345571946</v>
       </c>
     </row>
     <row r="13">
@@ -881,10 +881,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>16646.0</v>
+        <v>8390.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-32.21204999619838</v>
+        <v>16.897718026000913</v>
       </c>
     </row>
     <row r="14">
@@ -898,7 +898,7 @@
         <v>5801.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-76.37643289847091</v>
+        <v>-19.174772077612477</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2664.0928987568923</v>
+        <v>778.6600666183622</v>
       </c>
     </row>
     <row r="3">
@@ -951,10 +951,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>808.2857142857142</v>
+        <v>625.7142857142856</v>
       </c>
       <c r="D3" t="n">
-        <v>-69.6600026724716</v>
+        <v>-19.642176022754548</v>
       </c>
     </row>
     <row r="4">
@@ -976,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>808.2857142857142</v>
+        <v>625.7142857142856</v>
       </c>
     </row>
     <row r="6">
@@ -997,10 +997,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1022.0</v>
+        <v>409.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-61.63797439357759</v>
+        <v>-47.4738698523165</v>
       </c>
     </row>
     <row r="9">
@@ -1014,7 +1014,7 @@
         <v>700.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-73.7246399956011</v>
+        <v>-10.10197774235097</v>
       </c>
     </row>
     <row r="10">
@@ -1028,7 +1028,7 @@
         <v>482.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-81.90753782554246</v>
+        <v>-38.09879038830452</v>
       </c>
     </row>
     <row r="11">
@@ -1039,10 +1039,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>783.0</v>
+        <v>737.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-70.60913302365093</v>
+        <v>-5.3502251373038066</v>
       </c>
     </row>
     <row r="12">
@@ -1056,7 +1056,7 @@
         <v>472.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-82.28290011131959</v>
+        <v>-39.38304784912808</v>
       </c>
     </row>
     <row r="13">
@@ -1067,10 +1067,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1138.0</v>
+        <v>519.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-57.283771878562916</v>
+        <v>-33.34703778325736</v>
       </c>
     </row>
     <row r="14">
@@ -1084,7 +1084,7 @@
         <v>1061.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-60.17406147904679</v>
+        <v>36.25971659337946</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2664.0928987568923</v>
+        <v>778.6600666183622</v>
       </c>
     </row>
     <row r="3">
@@ -1137,10 +1137,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>568.1666666666665</v>
+        <v>465.66666666666663</v>
       </c>
       <c r="D3" t="n">
-        <v>-78.67316612976288</v>
+        <v>-40.19641090764966</v>
       </c>
     </row>
     <row r="4">
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>568.1666666666665</v>
+        <v>465.66666666666663</v>
       </c>
     </row>
     <row r="6">
@@ -1186,7 +1186,7 @@
         <v>502.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-81.1568132539882</v>
+        <v>-35.53027546665741</v>
       </c>
     </row>
     <row r="9">
@@ -1200,7 +1200,7 @@
         <v>482.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-81.90753782554246</v>
+        <v>-38.09879038830452</v>
       </c>
     </row>
     <row r="10">
@@ -1211,10 +1211,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>933.0</v>
+        <v>498.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-64.97869873699402</v>
+        <v>-36.043978450986835</v>
       </c>
     </row>
     <row r="11">
@@ -1228,7 +1228,7 @@
         <v>382.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-85.66116068331374</v>
+        <v>-50.9413649965401</v>
       </c>
     </row>
     <row r="12">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>363.0</v>
+        <v>183.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-86.37434902629028</v>
+        <v>-76.49808846692889</v>
       </c>
     </row>
     <row r="13">
@@ -1256,7 +1256,7 @@
         <v>747.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-71.96043725244859</v>
+        <v>-4.065967676480249</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1298,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>4401.544789250517</v>
+        <v>2572.9636983911096</v>
       </c>
     </row>
     <row r="3">
@@ -1309,10 +1309,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>97373.33333333331</v>
+        <v>2782.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2112.2536063052034</v>
+        <v>8.124339326652846</v>
       </c>
     </row>
     <row r="4">
@@ -1334,7 +1334,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>97373.3333333333</v>
+        <v>2781.9999999999995</v>
       </c>
     </row>
     <row r="6">
@@ -1368,7 +1368,7 @@
         <v>1410.0</v>
       </c>
       <c r="D10" t="n">
-        <v>12.447192334220247</v>
+        <v>9.601235406599937</v>
       </c>
     </row>
     <row r="11">
@@ -1379,10 +1379,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3029.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D11" t="n">
-        <v>141.56208906408023</v>
+        <v>6.802905991963343</v>
       </c>
     </row>
     <row r="12">
@@ -1393,10 +1393,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>141621.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D12" t="n">
-        <v>11194.24384791816</v>
+        <v>7.968876581395257</v>
       </c>
     </row>
     <row r="13">
@@ -1416,7 +1416,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>48686.66666666666</v>
+        <v>1391.0</v>
       </c>
     </row>
     <row r="15">
@@ -1440,7 +1440,7 @@
         <v>1410.0</v>
       </c>
       <c r="D17" t="n">
-        <v>12.447192334220247</v>
+        <v>9.601235406599937</v>
       </c>
     </row>
     <row r="18">
@@ -1451,10 +1451,10 @@
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3029.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D18" t="n">
-        <v>141.56208906408023</v>
+        <v>6.802905991963343</v>
       </c>
     </row>
     <row r="19">
@@ -1465,10 +1465,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>141621.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D19" t="n">
-        <v>11194.24384791816</v>
+        <v>7.968876581395257</v>
       </c>
     </row>
     <row r="20">
@@ -1488,7 +1488,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>48686.66666666666</v>
+        <v>1391.0</v>
       </c>
     </row>
     <row r="22">
@@ -1535,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>19227.80092146279</v>
+        <v>5619.894393854267</v>
       </c>
     </row>
     <row r="3">
@@ -1549,7 +1549,7 @@
         <v>6451.333333333332</v>
       </c>
       <c r="D3" t="n">
-        <v>-66.44788782823255</v>
+        <v>14.794565185927684</v>
       </c>
     </row>
     <row r="4">
@@ -1614,7 +1614,7 @@
         <v>3458.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-17.267576363460925</v>
+        <v>23.062810709808247</v>
       </c>
     </row>
     <row r="12">
@@ -1628,7 +1628,7 @@
         <v>2954.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-29.32574337121561</v>
+        <v>5.126530606354414</v>
       </c>
     </row>
     <row r="13">
@@ -1642,7 +1642,7 @@
         <v>3265.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-21.885088729525716</v>
+        <v>16.19435424162057</v>
       </c>
     </row>
     <row r="14">
@@ -1686,7 +1686,7 @@
         <v>3458.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-17.267576363460925</v>
+        <v>23.062810709808247</v>
       </c>
     </row>
     <row r="19">
@@ -1700,7 +1700,7 @@
         <v>2954.0</v>
       </c>
       <c r="D19" t="n">
-        <v>-29.32574337121561</v>
+        <v>5.126530606354414</v>
       </c>
     </row>
     <row r="20">
@@ -1714,7 +1714,7 @@
         <v>3265.0</v>
       </c>
       <c r="D20" t="n">
-        <v>-21.885088729525716</v>
+        <v>16.19435424162057</v>
       </c>
     </row>
     <row r="21">
@@ -1772,7 +1772,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>9498.070334698485</v>
+        <v>2776.092411421987</v>
       </c>
     </row>
     <row r="3">
@@ -1783,10 +1783,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4996.232329263368</v>
+        <v>1686.451092855138</v>
       </c>
       <c r="D3" t="n">
-        <v>-47.3973959635668</v>
+        <v>-39.25090224243314</v>
       </c>
     </row>
     <row r="4">
@@ -1808,7 +1808,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>4996.232329263368</v>
+        <v>1686.4510928551379</v>
       </c>
     </row>
     <row r="6">
@@ -1834,10 +1834,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>4996.232329263369</v>
+        <v>1686.451092855138</v>
       </c>
       <c r="D9" t="n">
-        <v>-47.39739596356681</v>
+        <v>-39.25090224243314</v>
       </c>
     </row>
     <row r="10">
@@ -1853,7 +1853,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>5.59451512125535</v>
+        <v>216.94217584712888</v>
       </c>
     </row>
     <row r="12">
@@ -1869,7 +1869,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>4990.637814142114</v>
+        <v>1469.5089170080093</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>31505.79428095107</v>
+        <v>9208.501657399762</v>
       </c>
     </row>
     <row r="3">
@@ -1922,10 +1922,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>15781.492506551778</v>
+        <v>7963.013507442807</v>
       </c>
       <c r="D3" t="n">
-        <v>-49.90923775537525</v>
+        <v>-13.525415928617502</v>
       </c>
     </row>
     <row r="4">
@@ -1936,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>15781.492506551778</v>
+        <v>7963.013507442807</v>
       </c>
     </row>
     <row r="5">
@@ -1962,10 +1962,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>15781.49250655178</v>
+        <v>7963.013507442808</v>
       </c>
       <c r="D8" t="n">
-        <v>-49.909237755375266</v>
+        <v>-13.525415928617482</v>
       </c>
     </row>
     <row r="9">
@@ -2072,7 +2072,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>2292.6345773225576</v>
+        <v>989.3371461547074</v>
       </c>
     </row>
     <row r="22">
@@ -2094,7 +2094,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>2292.634577322557</v>
+        <v>989.3371461547073</v>
       </c>
     </row>
     <row r="24">
@@ -2115,7 +2115,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>2229.9227611289743</v>
+        <v>491.2608278969228</v>
       </c>
     </row>
     <row r="27">
@@ -2137,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>2229.922761128974</v>
+        <v>491.26082789692276</v>
       </c>
     </row>
     <row r="29">
@@ -2201,7 +2201,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>1854.6844619981066</v>
+        <v>816.8041180658586</v>
       </c>
     </row>
     <row r="37">
@@ -2223,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>1854.6844619981064</v>
+        <v>816.8041180658585</v>
       </c>
     </row>
     <row r="39">
@@ -2244,7 +2244,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>6832.993531045695</v>
+        <v>3094.35424026887</v>
       </c>
     </row>
     <row r="42">
@@ -2266,7 +2266,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>6832.993531045694</v>
+        <v>3094.35424026887</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,22 +115,22 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
     <t>JENKINSON</t>
   </si>
   <si>
     <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>KROO</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
   </si>
   <si>
     <t>TORENBEEK_1976</t>
@@ -331,7 +331,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>106.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="4">
@@ -347,7 +347,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>67704.39484783061</v>
+        <v>67438.34854338123</v>
       </c>
     </row>
     <row r="6">
@@ -358,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>67704.39484783061</v>
+        <v>67438.34854338123</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>65673.26300239567</v>
+        <v>65415.198087079785</v>
       </c>
     </row>
     <row r="8">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>18846.614647889844</v>
+        <v>18772.130374844557</v>
       </c>
     </row>
     <row r="10">
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>48857.78019994077</v>
+        <v>48666.21816853667</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>48857.78019994077</v>
+        <v>48666.21816853667</v>
       </c>
     </row>
     <row r="12">
@@ -424,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>13780.0</v>
+        <v>13650.0</v>
       </c>
     </row>
     <row r="13">
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>13780.0</v>
+        <v>13650.0</v>
       </c>
     </row>
     <row r="14">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>35077.780199940775</v>
+        <v>35016.218168536674</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>34356.65960238931</v>
+        <v>34296.435556153665</v>
       </c>
     </row>
     <row r="16">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>338.54785505146185</v>
+        <v>337.2098698830023</v>
       </c>
     </row>
     <row r="17">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>32749.10745744078</v>
+        <v>32687.545426036682</v>
       </c>
     </row>
     <row r="20">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>18334.760616664655</v>
+        <v>18283.82117645248</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6770.957101029237</v>
+        <v>6744.197397660046</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>7282.5</v>
+        <v>7247.125</v>
       </c>
       <c r="D3" t="n">
-        <v>7.554957022146899</v>
+        <v>7.45718982831743</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>7282.499999999999</v>
+        <v>7247.124999999999</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>9233.0</v>
+        <v>6645.0</v>
       </c>
       <c r="D8" t="n">
-        <v>36.361815061514925</v>
+        <v>-1.4708554897053137</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>8179.0</v>
+        <v>6931.0</v>
       </c>
       <c r="D9" t="n">
-        <v>20.79533037887259</v>
+        <v>2.7698270279687693</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6502.0</v>
+        <v>6493.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.972216881840133</v>
+        <v>-3.724644799797833</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         <v>7891.0</v>
       </c>
       <c r="D11" t="n">
-        <v>16.541869668624965</v>
+        <v>17.004285828553105</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>6940.0</v>
+        <v>9233.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2.4965879483281266</v>
+        <v>36.902873026869955</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>6658.0</v>
+        <v>8148.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.6682589971226705</v>
+        <v>20.814969069959535</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>6461.0</v>
+        <v>6240.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.57774427461844</v>
+        <v>-7.4760177962018295</v>
       </c>
     </row>
     <row r="15">
@@ -712,7 +712,7 @@
         <v>6396.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.537726726584049</v>
+        <v>-5.162918241106875</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>7177.2145270909905</v>
+        <v>7148.849241519648</v>
       </c>
     </row>
     <row r="3">
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>5492.428571428571</v>
+        <v>5479.714285714284</v>
       </c>
       <c r="D3" t="n">
-        <v>-23.474092202525853</v>
+        <v>-23.34830263465663</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>5492.428571428571</v>
+        <v>5479.714285714284</v>
       </c>
     </row>
     <row r="6">
@@ -805,72 +805,72 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6054.0</v>
+        <v>8372.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-15.64972766038027</v>
+        <v>17.10975734914708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>4294.0</v>
+        <v>7124.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-40.1717757802565</v>
+        <v>-0.3475977836450319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>894.0</v>
+        <v>5858.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-87.54391419365378</v>
+        <v>-18.056741692390876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>7143.0</v>
+        <v>6037.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4767103862068497</v>
+        <v>-15.552842198184313</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>5871.0</v>
+        <v>886.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-18.199463345571946</v>
+        <v>-87.60639691694406</v>
       </c>
     </row>
     <row r="13">
@@ -881,10 +881,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>8390.0</v>
+        <v>4280.0</v>
       </c>
       <c r="D13" t="n">
-        <v>16.897718026000913</v>
+        <v>-40.13022438433475</v>
       </c>
     </row>
     <row r="14">
@@ -898,7 +898,7 @@
         <v>5801.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-19.174772077612477</v>
+        <v>-18.85407281624436</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>778.6600666183622</v>
+        <v>775.5827007309051</v>
       </c>
     </row>
     <row r="3">
@@ -951,10 +951,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>625.7142857142856</v>
+        <v>624.5714285714284</v>
       </c>
       <c r="D3" t="n">
-        <v>-19.642176022754548</v>
+        <v>-19.470685978060676</v>
       </c>
     </row>
     <row r="4">
@@ -976,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>625.7142857142856</v>
+        <v>624.5714285714284</v>
       </c>
     </row>
     <row r="6">
@@ -991,72 +991,72 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>409.0</v>
+        <v>525.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-47.4738698523165</v>
+        <v>-32.308959508090794</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>700.0</v>
+        <v>415.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-10.10197774235097</v>
+        <v>-46.49184418258606</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>482.0</v>
+        <v>738.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-38.09879038830452</v>
+        <v>-4.845737365659056</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>737.0</v>
+        <v>472.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.3502251373038066</v>
+        <v>-39.142531214893054</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>472.0</v>
+        <v>700.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-39.38304784912808</v>
+        <v>-9.745279344121055</v>
       </c>
     </row>
     <row r="13">
@@ -1067,10 +1067,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>519.0</v>
+        <v>482.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-33.34703778325736</v>
+        <v>-37.85317806266622</v>
       </c>
     </row>
     <row r="14">
@@ -1081,10 +1081,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1061.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D14" t="n">
-        <v>36.25971659337946</v>
+        <v>34.092727831591574</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>778.6600666183622</v>
+        <v>775.5827007309051</v>
       </c>
     </row>
     <row r="3">
@@ -1137,10 +1137,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>465.66666666666663</v>
+        <v>470.33333333333326</v>
       </c>
       <c r="D3" t="n">
-        <v>-40.19641090764966</v>
+        <v>-39.35742340693086</v>
       </c>
     </row>
     <row r="4">
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>465.66666666666663</v>
+        <v>470.33333333333326</v>
       </c>
     </row>
     <row r="6">
@@ -1183,52 +1183,52 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>502.0</v>
+        <v>194.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-35.53027546665741</v>
+        <v>-74.98654884679927</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>482.0</v>
+        <v>497.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-38.09879038830452</v>
+        <v>-35.91914833432595</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>498.0</v>
+        <v>382.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-36.043978450986835</v>
+        <v>-50.746709584934635</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>382.0</v>
+        <v>502.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-50.9413649965401</v>
+        <v>-35.27447175821253</v>
       </c>
     </row>
     <row r="12">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>183.0</v>
+        <v>482.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-76.49808846692889</v>
+        <v>-37.85317806266622</v>
       </c>
     </row>
     <row r="13">
@@ -1253,10 +1253,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>747.0</v>
+        <v>765.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.065967676480249</v>
+        <v>-1.3644838546465818</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1298,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2572.9636983911096</v>
+        <v>1281.3975055554085</v>
       </c>
     </row>
     <row r="3">
@@ -1312,7 +1312,7 @@
         <v>2782.0</v>
       </c>
       <c r="D3" t="n">
-        <v>8.124339326652846</v>
+        <v>117.10671262733348</v>
       </c>
     </row>
     <row r="4">
@@ -1359,44 +1359,44 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1410.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D10" t="n">
-        <v>9.601235406599937</v>
+        <v>116.79455344311013</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1374.0</v>
+        <v>1410.0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.802905991963343</v>
+        <v>120.07222487745521</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1389.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D12" t="n">
-        <v>7.968876581395257</v>
+        <v>114.45335956143508</v>
       </c>
     </row>
     <row r="13">
@@ -1431,44 +1431,44 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1410.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D17" t="n">
-        <v>9.601235406599937</v>
+        <v>116.79455344311013</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1374.0</v>
+        <v>1410.0</v>
       </c>
       <c r="D18" t="n">
-        <v>6.802905991963343</v>
+        <v>120.07222487745521</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>1389.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D19" t="n">
-        <v>7.968876581395257</v>
+        <v>114.45335956143508</v>
       </c>
     </row>
     <row r="20">
@@ -1535,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5619.894393854267</v>
+        <v>5597.683840057838</v>
       </c>
     </row>
     <row r="3">
@@ -1549,7 +1549,7 @@
         <v>6451.333333333332</v>
       </c>
       <c r="D3" t="n">
-        <v>14.794565185927684</v>
+        <v>15.250048371196929</v>
       </c>
     </row>
     <row r="4">
@@ -1605,44 +1605,44 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3458.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D11" t="n">
-        <v>23.062810709808247</v>
+        <v>16.655391525873153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2954.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D12" t="n">
-        <v>5.126530606354414</v>
+        <v>23.551100733987553</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D13" t="n">
-        <v>16.19435424162057</v>
+        <v>5.543652853730258</v>
       </c>
     </row>
     <row r="14">
@@ -1677,44 +1677,44 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3458.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D18" t="n">
-        <v>23.062810709808247</v>
+        <v>16.655391525873153</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>2954.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D19" t="n">
-        <v>5.126530606354414</v>
+        <v>23.551100733987553</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D20" t="n">
-        <v>16.19435424162057</v>
+        <v>5.543652853730258</v>
       </c>
     </row>
     <row r="21">
@@ -1772,7 +1772,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2776.092411421987</v>
+        <v>2765.1209330406186</v>
       </c>
     </row>
     <row r="3">
@@ -1783,10 +1783,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1686.451092855138</v>
+        <v>1680.077128833439</v>
       </c>
       <c r="D3" t="n">
-        <v>-39.25090224243314</v>
+        <v>-39.2403743084766</v>
       </c>
     </row>
     <row r="4">
@@ -1808,7 +1808,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1686.4510928551379</v>
+        <v>1680.0771288334388</v>
       </c>
     </row>
     <row r="6">
@@ -1834,10 +1834,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1686.451092855138</v>
+        <v>1680.077128833439</v>
       </c>
       <c r="D9" t="n">
-        <v>-39.25090224243314</v>
+        <v>-39.2403743084766</v>
       </c>
     </row>
     <row r="10">
@@ -1853,7 +1853,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>216.94217584712888</v>
+        <v>216.3153282268604</v>
       </c>
     </row>
     <row r="12">
@@ -1869,7 +1869,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1469.5089170080093</v>
+        <v>1463.7618006065786</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>9208.501657399762</v>
+        <v>9172.10846081766</v>
       </c>
     </row>
     <row r="3">
@@ -1922,10 +1922,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>7963.013507442807</v>
+        <v>7952.390916250886</v>
       </c>
       <c r="D3" t="n">
-        <v>-13.525415928617502</v>
+        <v>-13.2981151474308</v>
       </c>
     </row>
     <row r="4">
@@ -1936,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>7963.013507442807</v>
+        <v>7952.390916250884</v>
       </c>
     </row>
     <row r="5">
@@ -1962,10 +1962,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7963.013507442808</v>
+        <v>7952.390916250886</v>
       </c>
       <c r="D8" t="n">
-        <v>-13.525415928617482</v>
+        <v>-13.29811514743079</v>
       </c>
     </row>
     <row r="9">
@@ -2072,7 +2072,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>989.3371461547074</v>
+        <v>988.2918262859084</v>
       </c>
     </row>
     <row r="22">
@@ -2094,7 +2094,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>989.3371461547073</v>
+        <v>988.2918262859083</v>
       </c>
     </row>
     <row r="24">
@@ -2115,7 +2115,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>491.2608278969228</v>
+        <v>490.3269234142957</v>
       </c>
     </row>
     <row r="27">
@@ -2137,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>491.26082789692276</v>
+        <v>490.32692341429566</v>
       </c>
     </row>
     <row r="29">
@@ -2201,7 +2201,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>816.8041180658586</v>
+        <v>814.6505130614842</v>
       </c>
     </row>
     <row r="37">
@@ -2223,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>816.8041180658585</v>
+        <v>814.650513061484</v>
       </c>
     </row>
     <row r="39">
@@ -2244,7 +2244,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>3094.35424026887</v>
+        <v>3087.864478432748</v>
       </c>
     </row>
     <row r="42">
@@ -2266,7 +2266,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>3094.35424026887</v>
+        <v>3087.8644784327475</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,37 +115,37 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
     <t>RAYMER</t>
   </si>
   <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
     <t>KROO</t>
   </si>
   <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
     <t>TORENBEEK_1976</t>
   </si>
   <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>HOWE</t>
+  </si>
+  <si>
     <t>NICOLAI_2013</t>
-  </si>
-  <si>
-    <t>HOWE</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6645.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.4708554897053137</v>
+        <v>17.004285828553105</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6931.0</v>
+        <v>9233.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.7698270279687693</v>
+        <v>36.902873026869955</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6493.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.724644799797833</v>
+        <v>-5.162918241106875</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>7891.0</v>
+        <v>6931.0</v>
       </c>
       <c r="D11" t="n">
-        <v>17.004285828553105</v>
+        <v>2.7698270279687693</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>9233.0</v>
+        <v>8148.0</v>
       </c>
       <c r="D12" t="n">
-        <v>36.902873026869955</v>
+        <v>20.814969069959535</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>8148.0</v>
+        <v>6645.0</v>
       </c>
       <c r="D13" t="n">
-        <v>20.814969069959535</v>
+        <v>-1.4708554897053137</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>6240.0</v>
+        <v>6493.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.4760177962018295</v>
+        <v>-3.724644799797833</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>6396.0</v>
+        <v>6240.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.162918241106875</v>
+        <v>-7.4760177962018295</v>
       </c>
     </row>
   </sheetData>
@@ -811,38 +811,38 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8372.0</v>
+        <v>5858.0</v>
       </c>
       <c r="D8" t="n">
-        <v>17.10975734914708</v>
+        <v>-18.056741692390876</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>7124.0</v>
+        <v>886.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3475977836450319</v>
+        <v>-87.60639691694406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>5858.0</v>
+        <v>5801.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-18.056741692390876</v>
+        <v>-18.85407281624436</v>
       </c>
     </row>
     <row r="11">
@@ -867,10 +867,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>886.0</v>
+        <v>4280.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-87.60639691694406</v>
+        <v>-40.13022438433475</v>
       </c>
     </row>
     <row r="13">
@@ -881,24 +881,24 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>4280.0</v>
+        <v>8372.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-40.13022438433475</v>
+        <v>17.10975734914708</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>5801.0</v>
+        <v>7124.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-18.85407281624436</v>
+        <v>-0.3475977836450319</v>
       </c>
     </row>
   </sheetData>
@@ -991,30 +991,30 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>525.0</v>
+        <v>472.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-32.308959508090794</v>
+        <v>-39.142531214893054</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>415.0</v>
+        <v>700.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-46.49184418258606</v>
+        <v>-9.745279344121055</v>
       </c>
     </row>
     <row r="10">
@@ -1025,66 +1025,66 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>738.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.845737365659056</v>
+        <v>34.092727831591574</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>472.0</v>
+        <v>482.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-39.142531214893054</v>
+        <v>-37.85317806266622</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>700.0</v>
+        <v>525.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-9.745279344121055</v>
+        <v>-32.308959508090794</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>482.0</v>
+        <v>738.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-37.85317806266622</v>
+        <v>-4.845737365659056</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1040.0</v>
+        <v>415.0</v>
       </c>
       <c r="D14" t="n">
-        <v>34.092727831591574</v>
+        <v>-46.49184418258606</v>
       </c>
     </row>
   </sheetData>
@@ -1177,44 +1177,44 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>194.0</v>
+        <v>382.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-74.98654884679927</v>
+        <v>-50.746709584934635</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>497.0</v>
+        <v>502.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-35.91914833432595</v>
+        <v>-35.27447175821253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>382.0</v>
+        <v>765.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-50.746709584934635</v>
+        <v>-1.3644838546465818</v>
       </c>
     </row>
     <row r="11">
@@ -1225,10 +1225,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>502.0</v>
+        <v>482.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-35.27447175821253</v>
+        <v>-37.85317806266622</v>
       </c>
     </row>
     <row r="12">
@@ -1239,24 +1239,24 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>482.0</v>
+        <v>194.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-37.85317806266622</v>
+        <v>-74.98654884679927</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>765.0</v>
+        <v>497.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.3644838546465818</v>
+        <v>-35.91914833432595</v>
       </c>
     </row>
   </sheetData>
@@ -1359,35 +1359,35 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1389.0</v>
+        <v>1410.0</v>
       </c>
       <c r="D10" t="n">
-        <v>116.79455344311013</v>
+        <v>120.07222487745521</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1410.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D11" t="n">
-        <v>120.07222487745521</v>
+        <v>116.79455344311013</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1431,35 +1431,35 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1389.0</v>
+        <v>1410.0</v>
       </c>
       <c r="D17" t="n">
-        <v>116.79455344311013</v>
+        <v>120.07222487745521</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1410.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D18" t="n">
-        <v>120.07222487745521</v>
+        <v>116.79455344311013</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1605,35 +1605,35 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3265.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D11" t="n">
-        <v>16.655391525873153</v>
+        <v>23.551100733987553</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3458.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D12" t="n">
-        <v>23.551100733987553</v>
+        <v>16.655391525873153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1677,35 +1677,35 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3265.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D18" t="n">
-        <v>16.655391525873153</v>
+        <v>23.551100733987553</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>3458.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D19" t="n">
-        <v>23.551100733987553</v>
+        <v>16.655391525873153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,37 +115,37 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
     <t>TORENBEEK_2013</t>
   </si>
   <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
     <t>JENKINSON</t>
   </si>
   <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
     <t>NICOLAI_1984</t>
   </si>
   <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
-  </si>
-  <si>
-    <t>KROO</t>
-  </si>
-  <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>NICOLAI_2013</t>
+  </si>
+  <si>
     <t>HOWE</t>
-  </si>
-  <si>
-    <t>NICOLAI_2013</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7891.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D8" t="n">
-        <v>17.004285828553105</v>
+        <v>-5.162918241106875</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>9233.0</v>
+        <v>6493.0</v>
       </c>
       <c r="D9" t="n">
-        <v>36.902873026869955</v>
+        <v>-3.724644799797833</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6396.0</v>
+        <v>6240.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.162918241106875</v>
+        <v>-7.4760177962018295</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6931.0</v>
+        <v>6645.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.7698270279687693</v>
+        <v>-1.4708554897053137</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>8148.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D12" t="n">
-        <v>20.814969069959535</v>
+        <v>17.004285828553105</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>6645.0</v>
+        <v>8148.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.4708554897053137</v>
+        <v>20.814969069959535</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>6493.0</v>
+        <v>9233.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.724644799797833</v>
+        <v>36.902873026869955</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>6240.0</v>
+        <v>6931.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.4760177962018295</v>
+        <v>2.7698270279687693</v>
       </c>
     </row>
   </sheetData>
@@ -811,10 +811,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>5858.0</v>
+        <v>5801.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-18.056741692390876</v>
+        <v>-18.85407281624436</v>
       </c>
     </row>
     <row r="9">
@@ -825,52 +825,52 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>886.0</v>
+        <v>7124.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-87.60639691694406</v>
+        <v>-0.3475977836450319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>5801.0</v>
+        <v>8372.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-18.85407281624436</v>
+        <v>17.10975734914708</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6037.0</v>
+        <v>5858.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-15.552842198184313</v>
+        <v>-18.056741692390876</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>4280.0</v>
+        <v>6037.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-40.13022438433475</v>
+        <v>-15.552842198184313</v>
       </c>
     </row>
     <row r="13">
@@ -881,10 +881,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>8372.0</v>
+        <v>4280.0</v>
       </c>
       <c r="D13" t="n">
-        <v>17.10975734914708</v>
+        <v>-40.13022438433475</v>
       </c>
     </row>
     <row r="14">
@@ -895,10 +895,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>7124.0</v>
+        <v>886.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3475977836450319</v>
+        <v>-87.60639691694406</v>
       </c>
     </row>
   </sheetData>
@@ -991,100 +991,100 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>472.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-39.142531214893054</v>
+        <v>34.092727831591574</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>700.0</v>
+        <v>415.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.745279344121055</v>
+        <v>-46.49184418258606</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1040.0</v>
+        <v>738.0</v>
       </c>
       <c r="D10" t="n">
-        <v>34.092727831591574</v>
+        <v>-4.845737365659056</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>482.0</v>
+        <v>525.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-37.85317806266622</v>
+        <v>-32.308959508090794</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>525.0</v>
+        <v>472.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-32.308959508090794</v>
+        <v>-39.142531214893054</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>738.0</v>
+        <v>482.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.845737365659056</v>
+        <v>-37.85317806266622</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>415.0</v>
+        <v>700.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-46.49184418258606</v>
+        <v>-9.745279344121055</v>
       </c>
     </row>
   </sheetData>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>382.0</v>
+        <v>765.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-50.746709584934635</v>
+        <v>-1.3644838546465818</v>
       </c>
     </row>
     <row r="9">
@@ -1197,38 +1197,38 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>502.0</v>
+        <v>497.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-35.27447175821253</v>
+        <v>-35.91914833432595</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>765.0</v>
+        <v>194.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.3644838546465818</v>
+        <v>-74.98654884679927</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>482.0</v>
+        <v>382.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-37.85317806266622</v>
+        <v>-50.746709584934635</v>
       </c>
     </row>
     <row r="12">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>194.0</v>
+        <v>482.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-74.98654884679927</v>
+        <v>-37.85317806266622</v>
       </c>
     </row>
     <row r="13">
@@ -1253,10 +1253,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>497.0</v>
+        <v>502.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-35.91914833432595</v>
+        <v>-35.27447175821253</v>
       </c>
     </row>
   </sheetData>
@@ -1359,44 +1359,44 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1410.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D10" t="n">
-        <v>120.07222487745521</v>
+        <v>116.79455344311013</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1389.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D11" t="n">
-        <v>116.79455344311013</v>
+        <v>114.45335956143508</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1374.0</v>
+        <v>1410.0</v>
       </c>
       <c r="D12" t="n">
-        <v>114.45335956143508</v>
+        <v>120.07222487745521</v>
       </c>
     </row>
     <row r="13">
@@ -1431,44 +1431,44 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1410.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D17" t="n">
-        <v>120.07222487745521</v>
+        <v>116.79455344311013</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1389.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D18" t="n">
-        <v>116.79455344311013</v>
+        <v>114.45335956143508</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>1374.0</v>
+        <v>1410.0</v>
       </c>
       <c r="D19" t="n">
-        <v>114.45335956143508</v>
+        <v>120.07222487745521</v>
       </c>
     </row>
     <row r="20">
@@ -1605,44 +1605,44 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3458.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D11" t="n">
-        <v>23.551100733987553</v>
+        <v>5.543652853730258</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3265.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D12" t="n">
-        <v>16.655391525873153</v>
+        <v>23.551100733987553</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D13" t="n">
-        <v>5.543652853730258</v>
+        <v>16.655391525873153</v>
       </c>
     </row>
     <row r="14">
@@ -1677,44 +1677,44 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3458.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D18" t="n">
-        <v>23.551100733987553</v>
+        <v>5.543652853730258</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>3265.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D19" t="n">
-        <v>16.655391525873153</v>
+        <v>23.551100733987553</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.543652853730258</v>
+        <v>16.655391525873153</v>
       </c>
     </row>
     <row r="21">
@@ -1828,7 +1828,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,10 +115,22 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
     <t>SADRAEY</t>
   </si>
   <si>
-    <t>KROO</t>
+    <t>JENKINSON</t>
   </si>
   <si>
     <t>TORENBEEK_1976</t>
@@ -127,25 +139,13 @@
     <t>RAYMER</t>
   </si>
   <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>HOWE</t>
+  </si>
+  <si>
     <t>NICOLAI_2013</t>
-  </si>
-  <si>
-    <t>HOWE</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6396.0</v>
+        <v>6493.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.162918241106875</v>
+        <v>-3.724644799797833</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6493.0</v>
+        <v>6931.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.724644799797833</v>
+        <v>2.7698270279687693</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6240.0</v>
+        <v>8148.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.4760177962018295</v>
+        <v>20.814969069959535</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6645.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.4708554897053137</v>
+        <v>17.004285828553105</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>7891.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D12" t="n">
-        <v>17.004285828553105</v>
+        <v>-5.162918241106875</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>8148.0</v>
+        <v>9233.0</v>
       </c>
       <c r="D13" t="n">
-        <v>20.814969069959535</v>
+        <v>36.902873026869955</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>9233.0</v>
+        <v>6240.0</v>
       </c>
       <c r="D14" t="n">
-        <v>36.902873026869955</v>
+        <v>-7.4760177962018295</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>6931.0</v>
+        <v>6645.0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.7698270279687693</v>
+        <v>-1.4708554897053137</v>
       </c>
     </row>
   </sheetData>
@@ -811,43 +811,43 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>5801.0</v>
+        <v>7124.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-18.85407281624436</v>
+        <v>-0.3475977836450319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>7124.0</v>
+        <v>6037.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3475977836450319</v>
+        <v>-15.552842198184313</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>8372.0</v>
+        <v>4280.0</v>
       </c>
       <c r="D10" t="n">
-        <v>17.10975734914708</v>
+        <v>-40.13022438433475</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -861,16 +861,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>6037.0</v>
+        <v>5801.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-15.552842198184313</v>
+        <v>-18.85407281624436</v>
       </c>
     </row>
     <row r="13">
@@ -881,24 +881,24 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>4280.0</v>
+        <v>886.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-40.13022438433475</v>
+        <v>-87.60639691694406</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>886.0</v>
+        <v>8372.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-87.60639691694406</v>
+        <v>17.10975734914708</v>
       </c>
     </row>
   </sheetData>
@@ -997,57 +997,57 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1040.0</v>
+        <v>738.0</v>
       </c>
       <c r="D8" t="n">
-        <v>34.092727831591574</v>
+        <v>-4.845737365659056</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>415.0</v>
+        <v>482.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-46.49184418258606</v>
+        <v>-37.85317806266622</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>738.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.845737365659056</v>
+        <v>34.092727831591574</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>525.0</v>
+        <v>700.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-32.308959508090794</v>
+        <v>-9.745279344121055</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1061,30 +1061,30 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>482.0</v>
+        <v>525.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-37.85317806266622</v>
+        <v>-32.308959508090794</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>700.0</v>
+        <v>415.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-9.745279344121055</v>
+        <v>-46.49184418258606</v>
       </c>
     </row>
   </sheetData>
@@ -1183,80 +1183,80 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>765.0</v>
+        <v>497.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.3644838546465818</v>
+        <v>-35.91914833432595</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>497.0</v>
+        <v>482.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-35.91914833432595</v>
+        <v>-37.85317806266622</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>194.0</v>
+        <v>765.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-74.98654884679927</v>
+        <v>-1.3644838546465818</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>382.0</v>
+        <v>502.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-50.746709584934635</v>
+        <v>-35.27447175821253</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>482.0</v>
+        <v>382.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-37.85317806266622</v>
+        <v>-50.746709584934635</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>502.0</v>
+        <v>194.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-35.27447175821253</v>
+        <v>-74.98654884679927</v>
       </c>
     </row>
   </sheetData>
@@ -1359,35 +1359,35 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1389.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D10" t="n">
-        <v>116.79455344311013</v>
+        <v>114.45335956143508</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1374.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D11" t="n">
-        <v>114.45335956143508</v>
+        <v>116.79455344311013</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1431,35 +1431,35 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1389.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D17" t="n">
-        <v>116.79455344311013</v>
+        <v>114.45335956143508</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1374.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D18" t="n">
-        <v>114.45335956143508</v>
+        <v>116.79455344311013</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1605,44 +1605,44 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2954.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.543652853730258</v>
+        <v>23.551100733987553</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3458.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D12" t="n">
-        <v>23.551100733987553</v>
+        <v>16.655391525873153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D13" t="n">
-        <v>16.655391525873153</v>
+        <v>5.543652853730258</v>
       </c>
     </row>
     <row r="14">
@@ -1677,44 +1677,44 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>2954.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D18" t="n">
-        <v>5.543652853730258</v>
+        <v>23.551100733987553</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>3458.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D19" t="n">
-        <v>23.551100733987553</v>
+        <v>16.655391525873153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D20" t="n">
-        <v>16.655391525873153</v>
+        <v>5.543652853730258</v>
       </c>
     </row>
     <row r="21">
@@ -1828,7 +1828,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="70">
   <si>
     <t>Description</t>
   </si>
@@ -115,37 +115,37 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
     <t>KROO</t>
   </si>
   <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
     <t>NICOLAI_1984</t>
   </si>
   <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
     <t>RAYMER</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>NICOLAI_2013</t>
+  </si>
+  <si>
     <t>HOWE</t>
-  </si>
-  <si>
-    <t>NICOLAI_2013</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -347,7 +347,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>67438.34854338123</v>
+        <v>72491.90753760582</v>
       </c>
     </row>
     <row r="6">
@@ -358,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>67438.34854338123</v>
+        <v>72491.90753760582</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>65415.198087079785</v>
+        <v>70317.15031147763</v>
       </c>
     </row>
     <row r="8">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>18772.130374844557</v>
+        <v>20176.444354846713</v>
       </c>
     </row>
     <row r="10">
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>48666.21816853667</v>
+        <v>52315.46318275911</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>48666.21816853667</v>
+        <v>52315.46318275911</v>
       </c>
     </row>
     <row r="12">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>35016.218168536674</v>
+        <v>38665.46318275911</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>34296.435556153665</v>
+        <v>37920.454422623254</v>
       </c>
     </row>
     <row r="16">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>337.2098698830023</v>
+        <v>362.4360176358425</v>
       </c>
     </row>
     <row r="17">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>32687.545426036682</v>
+        <v>36336.790440259116</v>
       </c>
     </row>
     <row r="20">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>18283.82117645248</v>
+        <v>21655.691293506425</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6744.197397660046</v>
+        <v>7248.720352716849</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>7247.125</v>
+        <v>8319.0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.45718982831743</v>
+        <v>14.765083976263533</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>7247.124999999999</v>
+        <v>8318.999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6493.0</v>
+        <v>22194.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.724644799797833</v>
+        <v>206.17817932073487</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6931.0</v>
+        <v>11196.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.7698270279687693</v>
+        <v>54.454847962284745</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>8148.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D10" t="n">
-        <v>20.814969069959535</v>
+        <v>8.860593539691754</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>7891.0</v>
+        <v>6591.0</v>
       </c>
       <c r="D11" t="n">
-        <v>17.004285828553105</v>
+        <v>-9.073606384474926</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>6396.0</v>
+        <v>16915.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.162918241106875</v>
+        <v>133.35153209021493</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>9233.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D13" t="n">
-        <v>36.902873026869955</v>
+        <v>-11.763736373099928</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>6240.0</v>
+        <v>10951.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.4760177962018295</v>
+        <v>51.07494105349949</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>6645.0</v>
+        <v>6889.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.4708554897053137</v>
+        <v>-4.962535940319794</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>7148.849241519648</v>
+        <v>7683.643573879861</v>
       </c>
     </row>
     <row r="3">
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>5479.714285714284</v>
+        <v>7165.75</v>
       </c>
       <c r="D3" t="n">
-        <v>-23.34830263465663</v>
+        <v>-6.740208195502626</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>5479.714285714284</v>
+        <v>7165.749999999999</v>
       </c>
     </row>
     <row r="6">
@@ -805,100 +805,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7124.0</v>
+        <v>6350.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3475977836450319</v>
+        <v>-17.35691616947865</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6037.0</v>
+        <v>6115.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-15.552842198184313</v>
+        <v>-20.41536100415149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>4280.0</v>
+        <v>7483.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-40.13022438433475</v>
+        <v>-2.6113076686942915</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>5858.0</v>
+        <v>8715.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-18.056741692390876</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5801.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-18.85407281624436</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>886.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-87.60639691694406</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>8372.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>17.10975734914708</v>
+        <v>13.422752060313945</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>775.5827007309051</v>
+        <v>833.6028405624377</v>
       </c>
     </row>
     <row r="3">
@@ -951,10 +909,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>624.5714285714284</v>
+        <v>775.5</v>
       </c>
       <c r="D3" t="n">
-        <v>-19.470685978060676</v>
+        <v>-6.970086680994912</v>
       </c>
     </row>
     <row r="4">
@@ -976,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>624.5714285714284</v>
+        <v>775.4999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -991,100 +949,114 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>738.0</v>
+        <v>438.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.845737365659056</v>
+        <v>-47.456992864314344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>482.0</v>
+        <v>1521.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-37.85317806266622</v>
+        <v>82.46099053282624</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1040.0</v>
+        <v>700.0</v>
       </c>
       <c r="D10" t="n">
-        <v>34.092727831591574</v>
+        <v>-16.027157545707844</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>700.0</v>
+        <v>-425.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.745279344121055</v>
+        <v>-150.98351149010594</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>472.0</v>
+        <v>740.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-39.142531214893054</v>
+        <v>-11.22870940546258</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>525.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-32.308959508090794</v>
+        <v>24.759651646376916</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>415.0</v>
+        <v>1640.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-46.49184418258606</v>
+        <v>96.7363737500559</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-34.02133807162759</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>775.5827007309051</v>
+        <v>833.6028405624377</v>
       </c>
     </row>
     <row r="3">
@@ -1137,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>470.33333333333326</v>
+        <v>665.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-39.35742340693086</v>
+        <v>-20.225799668422457</v>
       </c>
     </row>
     <row r="4">
@@ -1162,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>470.33333333333326</v>
+        <v>664.9999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1177,86 +1149,100 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>497.0</v>
+        <v>1230.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-35.91914833432595</v>
+        <v>47.552280312541924</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>482.0</v>
+        <v>502.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-37.85317806266622</v>
+        <v>-39.779475839921915</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>765.0</v>
+        <v>-195.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.3644838546465818</v>
+        <v>-123.39243468369567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>502.0</v>
+        <v>511.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-35.27447175821253</v>
+        <v>-38.69982500836673</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>382.0</v>
+        <v>1640.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-50.746709584934635</v>
+        <v>96.7363737500559</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>765.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-8.229679317809289</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>194.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-74.98654884679927</v>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-75.7678368917614</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1281.3975055554085</v>
+        <v>1377.2568670162013</v>
       </c>
     </row>
     <row r="3">
@@ -1312,7 +1298,7 @@
         <v>2782.0</v>
       </c>
       <c r="D3" t="n">
-        <v>117.10671262733348</v>
+        <v>101.99572546166684</v>
       </c>
     </row>
     <row r="4">
@@ -1359,44 +1345,44 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1374.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D10" t="n">
-        <v>114.45335956143508</v>
+        <v>101.70529307423094</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1389.0</v>
+        <v>1410.0</v>
       </c>
       <c r="D11" t="n">
-        <v>116.79455344311013</v>
+        <v>104.75483314230786</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1410.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D12" t="n">
-        <v>120.07222487745521</v>
+        <v>99.5270501684617</v>
       </c>
     </row>
     <row r="13">
@@ -1431,44 +1417,44 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1374.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D17" t="n">
-        <v>114.45335956143508</v>
+        <v>101.70529307423094</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1389.0</v>
+        <v>1410.0</v>
       </c>
       <c r="D18" t="n">
-        <v>116.79455344311013</v>
+        <v>104.75483314230786</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>1410.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D19" t="n">
-        <v>120.07222487745521</v>
+        <v>99.5270501684617</v>
       </c>
     </row>
     <row r="20">
@@ -1535,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5597.683840057838</v>
+        <v>6016.437892754986</v>
       </c>
     </row>
     <row r="3">
@@ -1549,7 +1535,7 @@
         <v>6451.333333333332</v>
       </c>
       <c r="D3" t="n">
-        <v>15.250048371196929</v>
+        <v>7.2284539179245675</v>
       </c>
     </row>
     <row r="4">
@@ -1605,44 +1591,44 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3458.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D11" t="n">
-        <v>23.551100733987553</v>
+        <v>8.535982858951293</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D12" t="n">
-        <v>16.655391525873153</v>
+        <v>-1.802360378149428</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2954.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D13" t="n">
-        <v>5.543652853730258</v>
+        <v>14.951739272971997</v>
       </c>
     </row>
     <row r="14">
@@ -1677,44 +1663,44 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3458.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D18" t="n">
-        <v>23.551100733987553</v>
+        <v>8.535982858951293</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D19" t="n">
-        <v>16.655391525873153</v>
+        <v>-1.802360378149428</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>2954.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.543652853730258</v>
+        <v>14.951739272971997</v>
       </c>
     </row>
     <row r="21">
@@ -1772,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2765.1209330406186</v>
+        <v>2971.9753446139084</v>
       </c>
     </row>
     <row r="3">
@@ -1783,10 +1769,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1680.077128833439</v>
+        <v>1948.4412935064374</v>
       </c>
       <c r="D3" t="n">
-        <v>-39.2403743084766</v>
+        <v>-34.43952026595426</v>
       </c>
     </row>
     <row r="4">
@@ -1808,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1680.0771288334388</v>
+        <v>1948.4412935064372</v>
       </c>
     </row>
     <row r="6">
@@ -1828,16 +1814,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1680.077128833439</v>
+        <v>1948.4412935064374</v>
       </c>
       <c r="D9" t="n">
-        <v>-39.2403743084766</v>
+        <v>-34.439520265954265</v>
       </c>
     </row>
     <row r="10">
@@ -1847,13 +1833,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>216.3153282268604</v>
+        <v>228.0324010846868</v>
       </c>
     </row>
     <row r="12">
@@ -1863,13 +1849,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1463.7618006065786</v>
+        <v>1720.4088924217508</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>9172.10846081766</v>
+        <v>9858.259679694916</v>
       </c>
     </row>
     <row r="3">
@@ -1922,10 +1908,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>7952.390916250886</v>
+        <v>8229.76581341938</v>
       </c>
       <c r="D3" t="n">
-        <v>-13.2981151474308</v>
+        <v>-16.519080640873657</v>
       </c>
     </row>
     <row r="4">
@@ -1936,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>7952.390916250884</v>
+        <v>8229.765813419379</v>
       </c>
     </row>
     <row r="5">
@@ -1962,10 +1948,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7952.390916250886</v>
+        <v>8229.76581341938</v>
       </c>
       <c r="D8" t="n">
-        <v>-13.29811514743079</v>
+        <v>-16.519080640873636</v>
       </c>
     </row>
     <row r="9">
@@ -2072,7 +2058,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>988.2918262859084</v>
+        <v>1048.1048972634649</v>
       </c>
     </row>
     <row r="22">
@@ -2094,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>988.2918262859083</v>
+        <v>1048.1048972634646</v>
       </c>
     </row>
     <row r="24">
@@ -2115,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>490.3269234142957</v>
+        <v>545.0301875794823</v>
       </c>
     </row>
     <row r="27">
@@ -2137,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>490.32692341429566</v>
+        <v>545.0301875794822</v>
       </c>
     </row>
     <row r="29">
@@ -2201,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>814.6505130614842</v>
+        <v>854.7906463719585</v>
       </c>
     </row>
     <row r="37">
@@ -2223,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>814.650513061484</v>
+        <v>854.7906463719584</v>
       </c>
     </row>
     <row r="39">
@@ -2244,7 +2230,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>3087.864478432748</v>
+        <v>3210.5829071480257</v>
       </c>
     </row>
     <row r="42">
@@ -2266,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>3087.8644784327475</v>
+        <v>3210.5829071480252</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,28 +115,28 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
     <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>KROO</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>22194.0</v>
+        <v>16915.0</v>
       </c>
       <c r="D8" t="n">
-        <v>206.17817932073487</v>
+        <v>133.35153209021493</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>11196.0</v>
+        <v>6889.0</v>
       </c>
       <c r="D9" t="n">
-        <v>54.454847962284745</v>
+        <v>-4.962535940319794</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7891.0</v>
+        <v>11196.0</v>
       </c>
       <c r="D10" t="n">
-        <v>8.860593539691754</v>
+        <v>54.454847962284745</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6591.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.073606384474926</v>
+        <v>8.860593539691754</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>16915.0</v>
+        <v>6591.0</v>
       </c>
       <c r="D12" t="n">
-        <v>133.35153209021493</v>
+        <v>-9.073606384474926</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>6396.0</v>
+        <v>10951.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-11.763736373099928</v>
+        <v>51.07494105349949</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>10951.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D14" t="n">
-        <v>51.07494105349949</v>
+        <v>-11.763736373099928</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>6889.0</v>
+        <v>22194.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.962535940319794</v>
+        <v>206.17817932073487</v>
       </c>
     </row>
   </sheetData>
@@ -805,21 +805,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6350.0</v>
+        <v>8715.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-17.35691616947865</v>
+        <v>13.422752060313945</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -847,16 +847,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>8715.0</v>
+        <v>6350.0</v>
       </c>
       <c r="D11" t="n">
-        <v>13.422752060313945</v>
+        <v>-17.35691616947865</v>
       </c>
     </row>
   </sheetData>
@@ -949,63 +949,63 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>438.0</v>
+        <v>550.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-47.456992864314344</v>
+        <v>-34.02133807162759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1521.0</v>
+        <v>1640.0</v>
       </c>
       <c r="D9" t="n">
-        <v>82.46099053282624</v>
+        <v>96.7363737500559</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>700.0</v>
+        <v>-425.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-16.027157545707844</v>
+        <v>-150.98351149010594</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>-425.0</v>
+        <v>438.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-150.98351149010594</v>
+        <v>-47.456992864314344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1033,16 +1033,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1640.0</v>
+        <v>1521.0</v>
       </c>
       <c r="D14" t="n">
-        <v>96.7363737500559</v>
+        <v>82.46099053282624</v>
       </c>
     </row>
     <row r="15">
@@ -1053,10 +1053,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>550.0</v>
+        <v>700.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-34.02133807162759</v>
+        <v>-16.027157545707844</v>
       </c>
     </row>
   </sheetData>
@@ -1149,16 +1149,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1230.0</v>
+        <v>202.0</v>
       </c>
       <c r="D8" t="n">
-        <v>47.552280312541924</v>
+        <v>-75.7678368917614</v>
       </c>
     </row>
     <row r="9">
@@ -1169,15 +1169,15 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>502.0</v>
+        <v>1640.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-39.779475839921915</v>
+        <v>96.7363737500559</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1205,30 +1205,30 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1640.0</v>
+        <v>765.0</v>
       </c>
       <c r="D12" t="n">
-        <v>96.7363737500559</v>
+        <v>-8.229679317809289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>765.0</v>
+        <v>1230.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.229679317809289</v>
+        <v>47.552280312541924</v>
       </c>
     </row>
     <row r="14">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>202.0</v>
+        <v>502.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-75.7678368917614</v>
+        <v>-39.779475839921915</v>
       </c>
     </row>
   </sheetData>
@@ -1345,44 +1345,44 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1389.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D10" t="n">
-        <v>101.70529307423094</v>
+        <v>99.5270501684617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1410.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D11" t="n">
-        <v>104.75483314230786</v>
+        <v>101.70529307423094</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1374.0</v>
+        <v>1410.0</v>
       </c>
       <c r="D12" t="n">
-        <v>99.5270501684617</v>
+        <v>104.75483314230786</v>
       </c>
     </row>
     <row r="13">
@@ -1417,44 +1417,44 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1389.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D17" t="n">
-        <v>101.70529307423094</v>
+        <v>99.5270501684617</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1410.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D18" t="n">
-        <v>104.75483314230786</v>
+        <v>101.70529307423094</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>1374.0</v>
+        <v>1410.0</v>
       </c>
       <c r="D19" t="n">
-        <v>99.5270501684617</v>
+        <v>104.75483314230786</v>
       </c>
     </row>
     <row r="20">
@@ -1591,35 +1591,35 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.535982858951293</v>
+        <v>-1.802360378149428</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.802360378149428</v>
+        <v>8.535982858951293</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1663,35 +1663,35 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D18" t="n">
-        <v>8.535982858951293</v>
+        <v>-1.802360378149428</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.802360378149428</v>
+        <v>8.535982858951293</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,28 +115,28 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
     <t>ROSKAM</t>
   </si>
   <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
     <t>RAYMER</t>
   </si>
   <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
     <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>KROO</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
@@ -347,7 +347,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>72491.90753760582</v>
+        <v>72452.23604191939</v>
       </c>
     </row>
     <row r="6">
@@ -358,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>72491.90753760582</v>
+        <v>72452.23604191939</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>70317.15031147763</v>
+        <v>70278.6689606618</v>
       </c>
     </row>
     <row r="8">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>20176.444354846713</v>
+        <v>20165.508629524425</v>
       </c>
     </row>
     <row r="10">
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>52315.46318275911</v>
+        <v>52286.727412394976</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>52315.46318275911</v>
+        <v>52286.727412394976</v>
       </c>
     </row>
     <row r="12">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>38665.46318275911</v>
+        <v>38636.727412394976</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>37920.454422623254</v>
+        <v>37891.915094241966</v>
       </c>
     </row>
     <row r="16">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>362.4360176358425</v>
+        <v>362.2395756530004</v>
       </c>
     </row>
     <row r="17">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>36336.790440259116</v>
+        <v>36308.054669894984</v>
       </c>
     </row>
     <row r="20">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>21655.691293506425</v>
+        <v>21629.097839277187</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>7248.720352716849</v>
+        <v>7244.791513060008</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8319.0</v>
+        <v>8318.0</v>
       </c>
       <c r="D3" t="n">
-        <v>14.765083976263533</v>
+        <v>14.813517890823286</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>8318.999999999998</v>
+        <v>8317.999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>16915.0</v>
+        <v>22194.0</v>
       </c>
       <c r="D8" t="n">
-        <v>133.35153209021493</v>
+        <v>206.34421929176875</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6889.0</v>
+        <v>11196.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.962535940319794</v>
+        <v>54.538608596496495</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>11196.0</v>
+        <v>6589.0</v>
       </c>
       <c r="D10" t="n">
-        <v>54.454847962284745</v>
+        <v>-9.05190317592753</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>7891.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.860593539691754</v>
+        <v>-11.715885978635981</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>6591.0</v>
+        <v>16906.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-9.073606384474926</v>
+        <v>133.35385110149784</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>10951.0</v>
+        <v>10949.0</v>
       </c>
       <c r="D13" t="n">
-        <v>51.07494105349949</v>
+        <v>51.1292627298178</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>6396.0</v>
+        <v>6887.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-11.763736373099928</v>
+        <v>-4.938603304388054</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>22194.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D15" t="n">
-        <v>206.17817932073487</v>
+        <v>8.919628477577156</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>7683.643573879861</v>
+        <v>7679.479003843608</v>
       </c>
     </row>
     <row r="3">
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>7165.75</v>
+        <v>7163.25</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.740208195502626</v>
+        <v>-6.722187840935997</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>7165.749999999999</v>
+        <v>7163.249999999999</v>
       </c>
     </row>
     <row r="6">
@@ -805,58 +805,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8715.0</v>
+        <v>7480.0</v>
       </c>
       <c r="D8" t="n">
-        <v>13.422752060313945</v>
+        <v>-2.5975590758665748</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6115.0</v>
+        <v>6348.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-20.41536100415149</v>
+        <v>-17.33814238149746</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7483.0</v>
+        <v>8712.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.6113076686942915</v>
+        <v>13.445195899873049</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6350.0</v>
+        <v>6113.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-17.35691616947865</v>
+        <v>-20.398245806252987</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>833.6028405624377</v>
+        <v>833.1510240019009</v>
       </c>
     </row>
     <row r="3">
@@ -912,7 +912,7 @@
         <v>775.5</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.970086680994912</v>
+        <v>-6.91963669743618</v>
       </c>
     </row>
     <row r="4">
@@ -949,35 +949,35 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>550.0</v>
+        <v>700.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-34.02133807162759</v>
+        <v>-15.98161919820158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1640.0</v>
+        <v>438.0</v>
       </c>
       <c r="D9" t="n">
-        <v>96.7363737500559</v>
+        <v>-47.42849886973185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -986,77 +986,77 @@
         <v>-425.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-150.98351149010594</v>
+        <v>-151.01115977252047</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>438.0</v>
+        <v>740.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-47.456992864314344</v>
+        <v>-11.180568866670242</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>740.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-11.22870940546258</v>
+        <v>24.827308619814794</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1040.0</v>
+        <v>1640.0</v>
       </c>
       <c r="D13" t="n">
-        <v>24.759651646376916</v>
+        <v>96.84306359278487</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1521.0</v>
+        <v>550.0</v>
       </c>
       <c r="D14" t="n">
-        <v>82.46099053282624</v>
+        <v>-33.9855579414441</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>700.0</v>
+        <v>1521.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-16.027157545707844</v>
+        <v>82.55993885647914</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>833.6028405624377</v>
+        <v>833.1510240019009</v>
       </c>
     </row>
     <row r="3">
@@ -1109,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>665.0</v>
+        <v>661.4285714285713</v>
       </c>
       <c r="D3" t="n">
-        <v>-20.225799668422457</v>
+        <v>-20.61120344646394</v>
       </c>
     </row>
     <row r="4">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>664.9999999999999</v>
+        <v>661.4285714285713</v>
       </c>
     </row>
     <row r="6">
@@ -1149,30 +1149,30 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>202.0</v>
+        <v>502.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-75.7678368917614</v>
+        <v>-39.74681833928171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1640.0</v>
+        <v>-195.0</v>
       </c>
       <c r="D9" t="n">
-        <v>96.7363737500559</v>
+        <v>-123.40512036621527</v>
       </c>
     </row>
     <row r="10">
@@ -1183,66 +1183,66 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>-195.0</v>
+        <v>510.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-123.39243468369567</v>
+        <v>-38.786608272975435</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>511.0</v>
+        <v>749.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-38.69982500836673</v>
+        <v>-10.10033254207569</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>765.0</v>
+        <v>1640.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.229679317809289</v>
+        <v>96.84306359278487</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1230.0</v>
+        <v>194.0</v>
       </c>
       <c r="D13" t="n">
-        <v>47.552280312541924</v>
+        <v>-76.71490589207302</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>502.0</v>
+        <v>1230.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-39.779475839921915</v>
+        <v>47.632297694588644</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1377.2568670162013</v>
+        <v>1376.5103874814013</v>
       </c>
     </row>
     <row r="3">
@@ -1298,7 +1298,7 @@
         <v>2782.0</v>
       </c>
       <c r="D3" t="n">
-        <v>101.99572546166684</v>
+        <v>102.10526744300279</v>
       </c>
     </row>
     <row r="4">
@@ -1351,38 +1351,38 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1374.0</v>
+        <v>1410.0</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5270501684617</v>
+        <v>104.8658713836333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1389.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D11" t="n">
-        <v>101.70529307423094</v>
+        <v>99.63525339085969</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1410.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D12" t="n">
-        <v>104.75483314230786</v>
+        <v>101.81467755451537</v>
       </c>
     </row>
     <row r="13">
@@ -1423,38 +1423,38 @@
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1374.0</v>
+        <v>1410.0</v>
       </c>
       <c r="D17" t="n">
-        <v>99.5270501684617</v>
+        <v>104.8658713836333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1389.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D18" t="n">
-        <v>101.70529307423094</v>
+        <v>99.63525339085969</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>1410.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D19" t="n">
-        <v>104.75483314230786</v>
+        <v>101.81467755451537</v>
       </c>
     </row>
     <row r="20">
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6016.437892754986</v>
+        <v>6013.176955839806</v>
       </c>
     </row>
     <row r="3">
@@ -1535,7 +1535,7 @@
         <v>6451.333333333332</v>
       </c>
       <c r="D3" t="n">
-        <v>7.2284539179245675</v>
+        <v>7.28660374892181</v>
       </c>
     </row>
     <row r="4">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1600,7 +1600,7 @@
         <v>2954.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.802360378149428</v>
+        <v>-1.7491079443065762</v>
       </c>
     </row>
     <row r="12">
@@ -1614,12 +1614,12 @@
         <v>3265.0</v>
       </c>
       <c r="D12" t="n">
-        <v>8.535982858951293</v>
+        <v>8.594841760947538</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1628,7 +1628,7 @@
         <v>3458.0</v>
       </c>
       <c r="D13" t="n">
-        <v>14.951739272971997</v>
+        <v>15.014077430124528</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1672,7 +1672,7 @@
         <v>2954.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.802360378149428</v>
+        <v>-1.7491079443065762</v>
       </c>
     </row>
     <row r="19">
@@ -1686,12 +1686,12 @@
         <v>3265.0</v>
       </c>
       <c r="D19" t="n">
-        <v>8.535982858951293</v>
+        <v>8.594841760947538</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1700,7 +1700,7 @@
         <v>3458.0</v>
       </c>
       <c r="D20" t="n">
-        <v>14.951739272971997</v>
+        <v>15.014077430124528</v>
       </c>
     </row>
     <row r="21">
@@ -1758,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2971.9753446139084</v>
+        <v>2970.364520354603</v>
       </c>
     </row>
     <row r="3">
@@ -1769,10 +1769,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1948.4412935064374</v>
+        <v>1928.9192678486265</v>
       </c>
       <c r="D3" t="n">
-        <v>-34.43952026595426</v>
+        <v>-35.06119351242616</v>
       </c>
     </row>
     <row r="4">
@@ -1794,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1948.4412935064372</v>
+        <v>1928.9192678486263</v>
       </c>
     </row>
     <row r="6">
@@ -1814,16 +1814,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1948.4412935064374</v>
+        <v>1928.9192678486265</v>
       </c>
       <c r="D9" t="n">
-        <v>-34.439520265954265</v>
+        <v>-35.06119351242616</v>
       </c>
     </row>
     <row r="10">
@@ -1833,13 +1833,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>228.0324010846868</v>
+        <v>225.77338084405102</v>
       </c>
     </row>
     <row r="12">
@@ -1849,13 +1849,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1720.4088924217508</v>
+        <v>1703.1458870045758</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>9858.259679694916</v>
+        <v>9852.91645776161</v>
       </c>
     </row>
     <row r="3">
@@ -1908,10 +1908,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8229.76581341938</v>
+        <v>8227.623497284483</v>
       </c>
       <c r="D3" t="n">
-        <v>-16.519080640873657</v>
+        <v>-16.495552027103688</v>
       </c>
     </row>
     <row r="4">
@@ -1922,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>8229.765813419379</v>
+        <v>8227.623497284483</v>
       </c>
     </row>
     <row r="5">
@@ -1948,10 +1948,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8229.76581341938</v>
+        <v>8227.623497284483</v>
       </c>
       <c r="D8" t="n">
-        <v>-16.519080640873636</v>
+        <v>-16.495552027103678</v>
       </c>
     </row>
     <row r="9">
@@ -2058,7 +2058,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1048.1048972634649</v>
+        <v>1047.6498022882665</v>
       </c>
     </row>
     <row r="22">
@@ -2080,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>1048.1048972634646</v>
+        <v>1047.6498022882663</v>
       </c>
     </row>
     <row r="24">
@@ -2101,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>545.0301875794823</v>
+        <v>544.6042838518183</v>
       </c>
     </row>
     <row r="27">
@@ -2123,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>545.0301875794822</v>
+        <v>544.6042838518182</v>
       </c>
     </row>
     <row r="29">
@@ -2187,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>854.7906463719585</v>
+        <v>854.4817360564618</v>
       </c>
     </row>
     <row r="37">
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>854.7906463719584</v>
+        <v>854.4817360564617</v>
       </c>
     </row>
     <row r="39">
@@ -2230,7 +2230,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>3210.5829071480257</v>
+        <v>3209.6305000314887</v>
       </c>
     </row>
     <row r="42">
@@ -2252,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>3210.5829071480252</v>
+        <v>3209.6305000314883</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,25 +115,25 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
     <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
-    <t>KROO</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
   </si>
   <si>
     <t>TORENBEEK_2013</t>
@@ -347,7 +347,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>72452.23604191939</v>
+        <v>72607.85767434421</v>
       </c>
     </row>
     <row r="6">
@@ -358,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>72452.23604191939</v>
+        <v>72607.85767434421</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>70278.6689606618</v>
+        <v>70429.62194411388</v>
       </c>
     </row>
     <row r="8">
@@ -380,7 +380,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>13149.651482339104</v>
+        <v>12905.604041271381</v>
       </c>
     </row>
     <row r="9">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>20165.508629524425</v>
+        <v>20208.714613346274</v>
       </c>
     </row>
     <row r="10">
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>52286.727412394976</v>
+        <v>52399.14306099794</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>52286.727412394976</v>
+        <v>52399.14306099794</v>
       </c>
     </row>
     <row r="12">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>38636.727412394976</v>
+        <v>38749.14306099795</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>37891.915094241966</v>
+        <v>38003.55461973628</v>
       </c>
     </row>
     <row r="16">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>362.2395756530004</v>
+        <v>363.0156987616624</v>
       </c>
     </row>
     <row r="17">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>36308.054669894984</v>
+        <v>36420.47031849796</v>
       </c>
     </row>
     <row r="20">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>21629.097839277187</v>
+        <v>21733.049112279747</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>7244.791513060008</v>
+        <v>7260.313975233249</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8318.0</v>
+        <v>8320.666666666664</v>
       </c>
       <c r="D3" t="n">
-        <v>14.813517890823286</v>
+        <v>14.604777356055736</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>8317.999999999998</v>
+        <v>8320.666666666664</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>22194.0</v>
+        <v>10957.0</v>
       </c>
       <c r="D8" t="n">
-        <v>206.34421929176875</v>
+        <v>50.916338293041804</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>11196.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D9" t="n">
-        <v>54.538608596496495</v>
+        <v>-11.904636330903044</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6589.0</v>
+        <v>16941.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-9.05190317592753</v>
+        <v>133.33701624736892</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6396.0</v>
+        <v>6894.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-11.715885978635981</v>
+        <v>-5.045428840720071</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>16906.0</v>
+        <v>6590.0</v>
       </c>
       <c r="D12" t="n">
-        <v>133.35385110149784</v>
+        <v>-9.232575581715299</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>10949.0</v>
+        <v>11196.0</v>
       </c>
       <c r="D13" t="n">
-        <v>51.1292627298178</v>
+        <v>54.20820694796897</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>6887.0</v>
+        <v>22194.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.938603304388054</v>
+        <v>205.68925911068447</v>
       </c>
     </row>
     <row r="15">
@@ -712,7 +712,7 @@
         <v>7891.0</v>
       </c>
       <c r="D15" t="n">
-        <v>8.919628477577156</v>
+        <v>8.686759648662305</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>7679.479003843608</v>
+        <v>7695.932813747244</v>
       </c>
     </row>
     <row r="3">
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>7163.25</v>
+        <v>7260.25</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.722187840935997</v>
+        <v>-5.66120864476602</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>7163.249999999999</v>
+        <v>7260.249999999999</v>
       </c>
     </row>
     <row r="6">
@@ -805,44 +805,44 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7480.0</v>
+        <v>6357.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.5975590758665748</v>
+        <v>-17.397927530701782</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6348.0</v>
+        <v>8723.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-17.33814238149746</v>
+        <v>13.34558410408815</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>8712.0</v>
+        <v>7694.0</v>
       </c>
       <c r="D10" t="n">
-        <v>13.445195899873049</v>
+        <v>-0.025114742995044625</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6113.0</v>
+        <v>6267.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-20.398245806252987</v>
+        <v>-18.567376409455413</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>833.1510240019009</v>
+        <v>834.9361071518235</v>
       </c>
     </row>
     <row r="3">
@@ -909,10 +909,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>775.5</v>
+        <v>775.75</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.91963669743618</v>
+        <v>-7.088698960896815</v>
       </c>
     </row>
     <row r="4">
@@ -934,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>775.4999999999999</v>
+        <v>775.7499999999999</v>
       </c>
     </row>
     <row r="6">
@@ -949,114 +949,114 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>700.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-15.98161919820158</v>
+        <v>24.56042936599075</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>438.0</v>
+        <v>1640.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-47.42849886973185</v>
+        <v>96.42221553867772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>-425.0</v>
+        <v>439.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-151.01115977252047</v>
+        <v>-47.42112645031737</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>740.0</v>
+        <v>551.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-11.180568866670242</v>
+        <v>-34.00692636474913</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1040.0</v>
+        <v>740.0</v>
       </c>
       <c r="D12" t="n">
-        <v>24.827308619814794</v>
+        <v>-11.370463720352735</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1640.0</v>
+        <v>-425.0</v>
       </c>
       <c r="D13" t="n">
-        <v>96.84306359278487</v>
+        <v>-150.9020985389866</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>550.0</v>
+        <v>1521.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-33.9855579414441</v>
+        <v>82.16962794776147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>1521.0</v>
+        <v>700.0</v>
       </c>
       <c r="D15" t="n">
-        <v>82.55993885647914</v>
+        <v>-16.161249465198534</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>833.1510240019009</v>
+        <v>834.9361071518235</v>
       </c>
     </row>
     <row r="3">
@@ -1109,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>661.4285714285713</v>
+        <v>661.5714285714284</v>
       </c>
       <c r="D3" t="n">
-        <v>-20.61120344646394</v>
+        <v>-20.763825770068255</v>
       </c>
     </row>
     <row r="4">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>661.4285714285713</v>
+        <v>661.5714285714284</v>
       </c>
     </row>
     <row r="6">
@@ -1149,100 +1149,100 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>502.0</v>
+        <v>749.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-39.74681833928171</v>
+        <v>-10.292536927762429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>-195.0</v>
+        <v>1640.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-123.40512036621527</v>
+        <v>96.42221553867772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>510.0</v>
+        <v>194.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-38.786608272975435</v>
+        <v>-76.76468913749788</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>749.0</v>
+        <v>511.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-10.10033254207569</v>
+        <v>-38.797712109594926</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1640.0</v>
+        <v>-195.0</v>
       </c>
       <c r="D12" t="n">
-        <v>96.84306359278487</v>
+        <v>-123.35508050612326</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>194.0</v>
+        <v>1230.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-76.71490589207302</v>
+        <v>47.31666165400829</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1230.0</v>
+        <v>502.0</v>
       </c>
       <c r="D14" t="n">
-        <v>47.632297694588644</v>
+        <v>-39.87563890218523</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.5103874814013</v>
+        <v>1379.4596552943171</v>
       </c>
     </row>
     <row r="3">
@@ -1298,7 +1298,7 @@
         <v>2782.0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.10526744300279</v>
+        <v>101.67316886164687</v>
       </c>
     </row>
     <row r="4">
@@ -1345,44 +1345,44 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1410.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D10" t="n">
-        <v>104.8658713836333</v>
+        <v>99.20843566923278</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1374.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D11" t="n">
-        <v>99.63525339085969</v>
+        <v>101.38320025077462</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1389.0</v>
+        <v>1410.0</v>
       </c>
       <c r="D12" t="n">
-        <v>101.81467755451537</v>
+        <v>104.42787066493321</v>
       </c>
     </row>
     <row r="13">
@@ -1417,44 +1417,44 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1410.0</v>
+        <v>1374.0</v>
       </c>
       <c r="D17" t="n">
-        <v>104.8658713836333</v>
+        <v>99.20843566923278</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1374.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D18" t="n">
-        <v>99.63525339085969</v>
+        <v>101.38320025077462</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>1389.0</v>
+        <v>1410.0</v>
       </c>
       <c r="D19" t="n">
-        <v>101.81467755451537</v>
+        <v>104.42787066493321</v>
       </c>
     </row>
     <row r="20">
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6013.176955839806</v>
+        <v>6026.060599443597</v>
       </c>
     </row>
     <row r="3">
@@ -1535,7 +1535,7 @@
         <v>6451.333333333332</v>
       </c>
       <c r="D3" t="n">
-        <v>7.28660374892181</v>
+        <v>7.057226306834707</v>
       </c>
     </row>
     <row r="4">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1600,7 +1600,7 @@
         <v>2954.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.7491079443065762</v>
+        <v>-1.9591671456887836</v>
       </c>
     </row>
     <row r="12">
@@ -1614,7 +1614,7 @@
         <v>3265.0</v>
       </c>
       <c r="D12" t="n">
-        <v>8.594841760947538</v>
+        <v>8.362667322046757</v>
       </c>
     </row>
     <row r="13">
@@ -1628,7 +1628,7 @@
         <v>3458.0</v>
       </c>
       <c r="D13" t="n">
-        <v>15.014077430124528</v>
+        <v>14.768178744146304</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1672,7 +1672,7 @@
         <v>2954.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.7491079443065762</v>
+        <v>-1.9591671456887836</v>
       </c>
     </row>
     <row r="19">
@@ -1686,7 +1686,7 @@
         <v>3265.0</v>
       </c>
       <c r="D19" t="n">
-        <v>8.594841760947538</v>
+        <v>8.362667322046757</v>
       </c>
     </row>
     <row r="20">
@@ -1700,7 +1700,7 @@
         <v>3458.0</v>
       </c>
       <c r="D20" t="n">
-        <v>15.014077430124528</v>
+        <v>14.768178744146304</v>
       </c>
     </row>
     <row r="21">
@@ -1758,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2970.364520354603</v>
+        <v>2976.728729845632</v>
       </c>
     </row>
     <row r="3">
@@ -1769,10 +1769,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1928.9192678486265</v>
+        <v>1932.8110170416635</v>
       </c>
       <c r="D3" t="n">
-        <v>-35.06119351242616</v>
+        <v>-35.069292755410196</v>
       </c>
     </row>
     <row r="4">
@@ -1794,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1928.9192678486263</v>
+        <v>1932.8110170416633</v>
       </c>
     </row>
     <row r="6">
@@ -1814,16 +1814,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1928.9192678486265</v>
+        <v>1932.8110170416635</v>
       </c>
       <c r="D9" t="n">
-        <v>-35.06119351242616</v>
+        <v>-35.06929275541022</v>
       </c>
     </row>
     <row r="10">
@@ -1833,13 +1833,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>225.77338084405102</v>
+        <v>226.12722719328167</v>
       </c>
     </row>
     <row r="12">
@@ -1849,13 +1849,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1703.1458870045758</v>
+        <v>1706.683789848382</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>9852.91645776161</v>
+        <v>9874.027006317217</v>
       </c>
     </row>
     <row r="3">
@@ -1908,10 +1908,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8227.623497284483</v>
+        <v>8236.087872884898</v>
       </c>
       <c r="D3" t="n">
-        <v>-16.495552027103688</v>
+        <v>-16.588359869629663</v>
       </c>
     </row>
     <row r="4">
@@ -1922,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>8227.623497284483</v>
+        <v>8236.087872884897</v>
       </c>
     </row>
     <row r="5">
@@ -1948,10 +1948,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8227.623497284483</v>
+        <v>8236.087872884898</v>
       </c>
       <c r="D8" t="n">
-        <v>-16.495552027103678</v>
+        <v>-16.58835986962965</v>
       </c>
     </row>
     <row r="9">
@@ -2058,7 +2058,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1047.6498022882665</v>
+        <v>1049.4473666076028</v>
       </c>
     </row>
     <row r="22">
@@ -2080,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>1047.6498022882663</v>
+        <v>1049.4473666076026</v>
       </c>
     </row>
     <row r="24">
@@ -2101,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>544.6042838518183</v>
+        <v>546.2874086241745</v>
       </c>
     </row>
     <row r="27">
@@ -2123,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>544.6042838518182</v>
+        <v>546.2874086241744</v>
       </c>
     </row>
     <row r="29">
@@ -2187,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>854.4817360564618</v>
+        <v>855.7018854509024</v>
       </c>
     </row>
     <row r="37">
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>854.4817360564617</v>
+        <v>855.7018854509023</v>
       </c>
     </row>
     <row r="39">
@@ -2230,7 +2230,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>3209.6305000314887</v>
+        <v>3213.3940371457693</v>
       </c>
     </row>
     <row r="42">
@@ -2252,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>3209.6305000314883</v>
+        <v>3213.3940371457693</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,28 +115,28 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
     <t>TORENBEEK_2013</t>
   </si>
   <si>
     <t>KROO</t>
   </si>
   <si>
-    <t>SADRAEY</t>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>ROSKAM</t>
   </si>
   <si>
     <t>RAYMER</t>
-  </si>
-  <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7891.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D8" t="n">
-        <v>16.760431927715448</v>
+        <v>-5.360572473746293</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6850.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.3571104682360684</v>
+        <v>16.760431927715448</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6396.0</v>
+        <v>6850.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.360572473746293</v>
+        <v>1.3571104682360684</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6652.0</v>
+        <v>21030.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.572627907342142</v>
+        <v>211.173727466716</v>
       </c>
     </row>
     <row r="12">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>15195.0</v>
+        <v>10430.0</v>
       </c>
       <c r="D13" t="n">
-        <v>124.83522533793388</v>
+        <v>54.329147764044116</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>21030.0</v>
+        <v>15195.0</v>
       </c>
       <c r="D14" t="n">
-        <v>211.173727466716</v>
+        <v>124.83522533793388</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>10430.0</v>
+        <v>6652.0</v>
       </c>
       <c r="D15" t="n">
-        <v>54.329147764044116</v>
+        <v>-1.572627907342142</v>
       </c>
     </row>
   </sheetData>
@@ -805,16 +805,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6097.0</v>
+        <v>6272.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-14.891295617017581</v>
+        <v>-12.448451059526697</v>
       </c>
     </row>
     <row r="9">
@@ -825,38 +825,38 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>7503.0</v>
+        <v>6097.0</v>
       </c>
       <c r="D9" t="n">
-        <v>4.73521551345204</v>
+        <v>-14.891295617017581</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>8551.0</v>
+        <v>7503.0</v>
       </c>
       <c r="D10" t="n">
-        <v>19.364364634883167</v>
+        <v>4.73521551345204</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6272.0</v>
+        <v>8551.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-12.448451059526697</v>
+        <v>19.364364634883167</v>
       </c>
     </row>
   </sheetData>
@@ -949,35 +949,35 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1415.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D8" t="n">
-        <v>82.06323238661255</v>
+        <v>33.81325913927707</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>416.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-46.47469634428917</v>
+        <v>82.06323238661255</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -991,30 +991,30 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1040.0</v>
+        <v>700.0</v>
       </c>
       <c r="D11" t="n">
-        <v>33.81325913927707</v>
+        <v>-9.933383271640434</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>526.0</v>
+        <v>416.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-32.321370858404094</v>
+        <v>-46.47469634428917</v>
       </c>
     </row>
     <row r="13">
@@ -1033,16 +1033,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1523.0</v>
+        <v>526.0</v>
       </c>
       <c r="D14" t="n">
-        <v>95.95922468184517</v>
+        <v>-32.321370858404094</v>
       </c>
     </row>
     <row r="15">
@@ -1053,10 +1053,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>700.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-9.933383271640434</v>
+        <v>95.95922468184517</v>
       </c>
     </row>
   </sheetData>
@@ -1149,30 +1149,30 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1145.0</v>
+        <v>749.0</v>
       </c>
       <c r="D8" t="n">
-        <v>47.323251648531006</v>
+        <v>-3.6287201006552636</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-35.92403552753848</v>
+        <v>47.323251648531006</v>
       </c>
     </row>
     <row r="10">
@@ -1183,10 +1183,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>749.0</v>
+        <v>498.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.6287201006552636</v>
+        <v>-35.92403552753848</v>
       </c>
     </row>
     <row r="11">
@@ -1197,10 +1197,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>186.0</v>
+        <v>502.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-76.0680132693216</v>
+        <v>-35.409369146233566</v>
       </c>
     </row>
     <row r="12">
@@ -1219,16 +1219,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1523.0</v>
+        <v>186.0</v>
       </c>
       <c r="D13" t="n">
-        <v>95.95922468184517</v>
+        <v>-76.0680132693216</v>
       </c>
     </row>
     <row r="14">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>502.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-35.409369146233566</v>
+        <v>95.95922468184517</v>
       </c>
     </row>
   </sheetData>
@@ -1359,16 +1359,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.003203828933049</v>
+        <v>9.806781221830859</v>
       </c>
     </row>
     <row r="12">
@@ -1379,10 +1379,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>705.0</v>
+        <v>687.0</v>
       </c>
       <c r="D12" t="n">
-        <v>9.806781221830859</v>
+        <v>7.003203828933049</v>
       </c>
     </row>
     <row r="13">
@@ -1431,16 +1431,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D18" t="n">
-        <v>7.003203828933049</v>
+        <v>9.806781221830859</v>
       </c>
     </row>
     <row r="19">
@@ -1451,10 +1451,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>705.0</v>
+        <v>687.0</v>
       </c>
       <c r="D19" t="n">
-        <v>9.806781221830859</v>
+        <v>7.003203828933049</v>
       </c>
     </row>
     <row r="20">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,28 +115,28 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
     <t>SADRAEY</t>
   </si>
   <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>KROO</t>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>ROSKAM</t>
   </si>
   <si>
     <t>JENKINSON</t>
   </si>
   <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
     <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6396.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.360572473746293</v>
+        <v>16.760431927715448</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>7891.0</v>
+        <v>6850.0</v>
       </c>
       <c r="D9" t="n">
-        <v>16.760431927715448</v>
+        <v>1.3571104682360684</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6850.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.3571104682360684</v>
+        <v>-5.360572473746293</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>21030.0</v>
+        <v>6652.0</v>
       </c>
       <c r="D11" t="n">
-        <v>211.173727466716</v>
+        <v>-1.572627907342142</v>
       </c>
     </row>
     <row r="12">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>10430.0</v>
+        <v>15195.0</v>
       </c>
       <c r="D13" t="n">
-        <v>54.329147764044116</v>
+        <v>124.83522533793388</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>15195.0</v>
+        <v>21030.0</v>
       </c>
       <c r="D14" t="n">
-        <v>124.83522533793388</v>
+        <v>211.173727466716</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>6652.0</v>
+        <v>10430.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.572627907342142</v>
+        <v>54.329147764044116</v>
       </c>
     </row>
   </sheetData>
@@ -805,16 +805,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6272.0</v>
+        <v>6097.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-12.448451059526697</v>
+        <v>-14.891295617017581</v>
       </c>
     </row>
     <row r="9">
@@ -825,38 +825,38 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6097.0</v>
+        <v>7503.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-14.891295617017581</v>
+        <v>4.73521551345204</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7503.0</v>
+        <v>8551.0</v>
       </c>
       <c r="D10" t="n">
-        <v>4.73521551345204</v>
+        <v>19.364364634883167</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>8551.0</v>
+        <v>6272.0</v>
       </c>
       <c r="D11" t="n">
-        <v>19.364364634883167</v>
+        <v>-12.448451059526697</v>
       </c>
     </row>
   </sheetData>
@@ -949,35 +949,35 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1040.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D8" t="n">
-        <v>33.81325913927707</v>
+        <v>82.06323238661255</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1415.0</v>
+        <v>416.0</v>
       </c>
       <c r="D9" t="n">
-        <v>82.06323238661255</v>
+        <v>-46.47469634428917</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -991,30 +991,30 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>700.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.933383271640434</v>
+        <v>33.81325913927707</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>416.0</v>
+        <v>526.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-46.47469634428917</v>
+        <v>-32.321370858404094</v>
       </c>
     </row>
     <row r="13">
@@ -1033,16 +1033,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>526.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-32.321370858404094</v>
+        <v>95.95922468184517</v>
       </c>
     </row>
     <row r="15">
@@ -1053,10 +1053,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>1523.0</v>
+        <v>700.0</v>
       </c>
       <c r="D15" t="n">
-        <v>95.95922468184517</v>
+        <v>-9.933383271640434</v>
       </c>
     </row>
   </sheetData>
@@ -1149,30 +1149,30 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>749.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.6287201006552636</v>
+        <v>47.323251648531006</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1145.0</v>
+        <v>498.0</v>
       </c>
       <c r="D9" t="n">
-        <v>47.323251648531006</v>
+        <v>-35.92403552753848</v>
       </c>
     </row>
     <row r="10">
@@ -1183,10 +1183,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>498.0</v>
+        <v>749.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-35.92403552753848</v>
+        <v>-3.6287201006552636</v>
       </c>
     </row>
     <row r="11">
@@ -1197,10 +1197,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>502.0</v>
+        <v>186.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-35.409369146233566</v>
+        <v>-76.0680132693216</v>
       </c>
     </row>
     <row r="12">
@@ -1219,16 +1219,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>186.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-76.0680132693216</v>
+        <v>95.95922468184517</v>
       </c>
     </row>
     <row r="14">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1523.0</v>
+        <v>502.0</v>
       </c>
       <c r="D14" t="n">
-        <v>95.95922468184517</v>
+        <v>-35.409369146233566</v>
       </c>
     </row>
   </sheetData>
@@ -1359,16 +1359,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>705.0</v>
+        <v>687.0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.806781221830859</v>
+        <v>7.003203828933049</v>
       </c>
     </row>
     <row r="12">
@@ -1379,10 +1379,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D12" t="n">
-        <v>7.003203828933049</v>
+        <v>9.806781221830859</v>
       </c>
     </row>
     <row r="13">
@@ -1431,16 +1431,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>705.0</v>
+        <v>687.0</v>
       </c>
       <c r="D18" t="n">
-        <v>9.806781221830859</v>
+        <v>7.003203828933049</v>
       </c>
     </row>
     <row r="19">
@@ -1451,10 +1451,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D19" t="n">
-        <v>7.003203828933049</v>
+        <v>9.806781221830859</v>
       </c>
     </row>
     <row r="20">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,37 +115,37 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
     <t>TORENBEEK_2013</t>
   </si>
   <si>
     <t>KROO</t>
   </si>
   <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
     <t>SADRAEY</t>
   </si>
   <si>
-    <t>RAYMER</t>
-  </si>
-  <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>NICOLAI_2013</t>
+  </si>
+  <si>
     <t>HOWE</t>
-  </si>
-  <si>
-    <t>NICOLAI_2013</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -347,7 +347,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>67587.10955402197</v>
+        <v>67587.29747397729</v>
       </c>
     </row>
     <row r="6">
@@ -358,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>67587.10955402197</v>
+        <v>67587.29747397729</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>60828.39859861978</v>
+        <v>60828.56772657956</v>
       </c>
     </row>
     <row r="8">
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>51387.10955402198</v>
+        <v>51387.2974739773</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>51387.10955402198</v>
+        <v>51387.2974739773</v>
       </c>
     </row>
     <row r="12">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>37737.10955402198</v>
+        <v>37737.297473977305</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>37016.62267958021</v>
+        <v>37016.80965179895</v>
       </c>
     </row>
     <row r="16">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>337.91413194176926</v>
+        <v>337.91507967834195</v>
       </c>
     </row>
     <row r="17">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>35408.436811522</v>
+        <v>35408.624731477306</v>
       </c>
     </row>
     <row r="20">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>20826.579885606916</v>
+        <v>20826.75399601625</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6758.282638835385</v>
+        <v>6758.301593566839</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8170.0</v>
+        <v>8170.166666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>20.88869963875744</v>
+        <v>20.890826690004012</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>8169.999999999999</v>
+        <v>8170.166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7891.0</v>
+        <v>6652.0</v>
       </c>
       <c r="D8" t="n">
-        <v>16.760431927715448</v>
+        <v>-1.5729039625580858</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6850.0</v>
+        <v>10430.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.3571104682360684</v>
+        <v>54.32871492340938</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6396.0</v>
+        <v>21031.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.360572473746293</v>
+        <v>211.1876513474806</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6652.0</v>
+        <v>15196.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.572627907342142</v>
+        <v>124.84939136875636</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>10801.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D12" t="n">
-        <v>59.81870805363763</v>
+        <v>16.760104454518064</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>15195.0</v>
+        <v>6850.0</v>
       </c>
       <c r="D13" t="n">
-        <v>124.83522533793388</v>
+        <v>1.3568261961029933</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>21030.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D14" t="n">
-        <v>211.173727466716</v>
+        <v>59.8330564336211</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>10430.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D15" t="n">
-        <v>54.329147764044116</v>
+        <v>-5.36083790506938</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>7163.779597165508</v>
+        <v>7163.799689180849</v>
       </c>
     </row>
     <row r="3">
@@ -768,7 +768,7 @@
         <v>7105.75</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8100416320522867</v>
+        <v>-0.810319826062677</v>
       </c>
     </row>
     <row r="4">
@@ -811,52 +811,52 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6097.0</v>
+        <v>8551.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-14.891295617017581</v>
+        <v>19.364029858542455</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>7503.0</v>
+        <v>6272.0</v>
       </c>
       <c r="D9" t="n">
-        <v>4.73521551345204</v>
+        <v>-12.448696611767248</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>8551.0</v>
+        <v>6097.0</v>
       </c>
       <c r="D10" t="n">
-        <v>19.364364634883167</v>
+        <v>-14.891534317912134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6272.0</v>
+        <v>7503.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-12.448451059526697</v>
+        <v>4.734921766886217</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>777.2025034660692</v>
+        <v>777.2046832601864</v>
       </c>
     </row>
     <row r="3">
@@ -912,7 +912,7 @@
         <v>801.375</v>
       </c>
       <c r="D3" t="n">
-        <v>3.11019282955591</v>
+        <v>3.1099036406246126</v>
       </c>
     </row>
     <row r="4">
@@ -949,114 +949,114 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1415.0</v>
+        <v>526.0</v>
       </c>
       <c r="D8" t="n">
-        <v>82.06323238661255</v>
+        <v>-32.32156067388107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>416.0</v>
+        <v>700.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-46.47469634428917</v>
+        <v>-9.933635877788502</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>739.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.915386053917543</v>
+        <v>95.95867508304016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1040.0</v>
+        <v>52.0</v>
       </c>
       <c r="D11" t="n">
-        <v>33.81325913927707</v>
+        <v>-93.30935580806428</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>526.0</v>
+        <v>416.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-32.321370858404094</v>
+        <v>-46.47484646451431</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>52.0</v>
+        <v>739.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-93.30933704303615</v>
+        <v>-4.915652733836718</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1523.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D14" t="n">
-        <v>95.95922468184517</v>
+        <v>33.81288383871423</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>700.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-9.933383271640434</v>
+        <v>82.06272176132752</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>777.2025034660692</v>
+        <v>777.2046832601864</v>
       </c>
     </row>
     <row r="3">
@@ -1112,7 +1112,7 @@
         <v>675.2857142857142</v>
       </c>
       <c r="D3" t="n">
-        <v>-13.113286270417213</v>
+        <v>-13.113529958021687</v>
       </c>
     </row>
     <row r="4">
@@ -1149,100 +1149,100 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1145.0</v>
+        <v>186.0</v>
       </c>
       <c r="D8" t="n">
-        <v>47.323251648531006</v>
+        <v>-76.0680803903838</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0</v>
+        <v>502.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-35.92403552753848</v>
+        <v>-35.40955030092832</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>749.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.6287201006552636</v>
+        <v>95.95867508304016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>186.0</v>
+        <v>124.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-76.0680132693216</v>
+        <v>-84.04538692692253</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>124.0</v>
+        <v>498.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-84.04534217954773</v>
+        <v>-35.924215238769534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1523.0</v>
+        <v>749.0</v>
       </c>
       <c r="D13" t="n">
-        <v>95.95922468184517</v>
+        <v>-3.6289903892336968</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>502.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-35.409369146233566</v>
+        <v>47.322838457045954</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1284.073701378723</v>
+        <v>1284.077302777699</v>
       </c>
     </row>
     <row r="3">
@@ -1298,7 +1298,7 @@
         <v>1390.6666666666665</v>
       </c>
       <c r="D3" t="n">
-        <v>8.301156325644985</v>
+        <v>8.30085257783116</v>
       </c>
     </row>
     <row r="4">
@@ -1345,44 +1345,44 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>694.0</v>
+        <v>705.0</v>
       </c>
       <c r="D10" t="n">
-        <v>8.093483926171086</v>
+        <v>9.806473251252601</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>687.0</v>
+        <v>694.0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.003203828933049</v>
+        <v>8.093180760807526</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>705.0</v>
+        <v>687.0</v>
       </c>
       <c r="D12" t="n">
-        <v>9.806781221830859</v>
+        <v>7.002903721433387</v>
       </c>
     </row>
     <row r="13">
@@ -1417,44 +1417,44 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>694.0</v>
+        <v>705.0</v>
       </c>
       <c r="D17" t="n">
-        <v>8.093483926171086</v>
+        <v>9.806473251252601</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>687.0</v>
+        <v>694.0</v>
       </c>
       <c r="D18" t="n">
-        <v>7.003203828933049</v>
+        <v>8.093180760807526</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>705.0</v>
+        <v>687.0</v>
       </c>
       <c r="D19" t="n">
-        <v>9.806781221830859</v>
+        <v>7.002903721433387</v>
       </c>
     </row>
     <row r="20">
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5609.374590233369</v>
+        <v>5609.390322660476</v>
       </c>
     </row>
     <row r="3">
@@ -1535,7 +1535,7 @@
         <v>6451.333333333332</v>
       </c>
       <c r="D3" t="n">
-        <v>15.009850555638064</v>
+        <v>15.009527992224491</v>
       </c>
     </row>
     <row r="4">
@@ -1591,35 +1591,35 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3458.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D11" t="n">
-        <v>23.293602321400176</v>
+        <v>16.411938274655277</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3265.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D12" t="n">
-        <v>16.412264771362512</v>
+        <v>23.293256524887582</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1628,7 +1628,7 @@
         <v>2954.0</v>
       </c>
       <c r="D13" t="n">
-        <v>5.323684574151566</v>
+        <v>5.323389177130686</v>
       </c>
     </row>
     <row r="14">
@@ -1663,35 +1663,35 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3458.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D18" t="n">
-        <v>23.293602321400176</v>
+        <v>16.411938274655277</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>3265.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D19" t="n">
-        <v>16.412264771362512</v>
+        <v>23.293256524887582</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1700,7 +1700,7 @@
         <v>2954.0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.323684574151566</v>
+        <v>5.323389177130686</v>
       </c>
     </row>
     <row r="21">
@@ -1758,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2770.895881922508</v>
+        <v>2770.903653362404</v>
       </c>
     </row>
     <row r="3">
@@ -1769,10 +1769,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2683.502504654547</v>
+        <v>2683.5099483972144</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.153975500780118</v>
+        <v>-3.1539784813210665</v>
       </c>
     </row>
     <row r="4">
@@ -1794,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2683.5025046545466</v>
+        <v>2683.509948397214</v>
       </c>
     </row>
     <row r="6">
@@ -1814,16 +1814,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2683.502504654547</v>
+        <v>2683.5099483972144</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.1539755007801187</v>
+        <v>-3.1539784813210665</v>
       </c>
     </row>
     <row r="10">
@@ -1833,13 +1833,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>410.49095837460493</v>
+        <v>410.49191368324796</v>
       </c>
     </row>
     <row r="12">
@@ -1849,13 +1849,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2273.011546279942</v>
+        <v>2273.0180347139667</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>9191.264388816124</v>
+        <v>9191.2901672509</v>
       </c>
     </row>
     <row r="3">
@@ -1908,10 +1908,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8130.52359258176</v>
+        <v>8130.537402127744</v>
       </c>
       <c r="D3" t="n">
-        <v>-11.540749469953965</v>
+        <v>-11.540847321986204</v>
       </c>
     </row>
     <row r="4">
@@ -1922,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>8130.523592581758</v>
+        <v>8130.537402127742</v>
       </c>
     </row>
     <row r="5">
@@ -1948,10 +1948,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8130.52359258176</v>
+        <v>8130.537402127744</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.540749469953946</v>
+        <v>-11.540847321986194</v>
       </c>
     </row>
     <row r="9">
@@ -2058,7 +2058,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1033.0962046242134</v>
+        <v>1033.0992774266433</v>
       </c>
     </row>
     <row r="22">
@@ -2080,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>1033.0962046242132</v>
+        <v>1033.099277426643</v>
       </c>
     </row>
     <row r="24">
@@ -2101,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>531.0623046878081</v>
+        <v>531.065147897526</v>
       </c>
     </row>
     <row r="27">
@@ -2123,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>531.062304687808</v>
+        <v>531.0651478975259</v>
       </c>
     </row>
     <row r="29">
@@ -2187,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>815.7844391917095</v>
+        <v>815.7859646029929</v>
       </c>
     </row>
     <row r="37">
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>815.7844391917093</v>
+        <v>815.7859646029927</v>
       </c>
     </row>
     <row r="39">
@@ -2230,7 +2230,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>3179.3234690215795</v>
+        <v>3179.3298371441324</v>
       </c>
     </row>
     <row r="42">
@@ -2252,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>3179.323469021579</v>
+        <v>3179.329837144132</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,37 +115,37 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
     <t>RAYMER</t>
   </si>
   <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>KROO</t>
-  </si>
-  <si>
     <t>TORENBEEK_1976</t>
   </si>
   <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>HOWE</t>
+  </si>
+  <si>
     <t>NICOLAI_2013</t>
-  </si>
-  <si>
-    <t>HOWE</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6652.0</v>
+        <v>21031.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.5729039625580858</v>
+        <v>211.1876513474806</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>10430.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D9" t="n">
-        <v>54.32871492340938</v>
+        <v>-5.36083790506938</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>21031.0</v>
+        <v>6850.0</v>
       </c>
       <c r="D10" t="n">
-        <v>211.1876513474806</v>
+        <v>1.3568261961029933</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>15196.0</v>
+        <v>10430.0</v>
       </c>
       <c r="D11" t="n">
-        <v>124.84939136875636</v>
+        <v>54.32871492340938</v>
       </c>
     </row>
     <row r="12">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>6850.0</v>
+        <v>15196.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.3568261961029933</v>
+        <v>124.84939136875636</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>10802.0</v>
+        <v>6652.0</v>
       </c>
       <c r="D14" t="n">
-        <v>59.8330564336211</v>
+        <v>-1.5729039625580858</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>6396.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.36083790506938</v>
+        <v>59.8330564336211</v>
       </c>
     </row>
   </sheetData>
@@ -805,58 +805,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8551.0</v>
+        <v>7503.0</v>
       </c>
       <c r="D8" t="n">
-        <v>19.364029858542455</v>
+        <v>4.734921766886217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6272.0</v>
+        <v>6097.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-12.448696611767248</v>
+        <v>-14.891534317912134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6097.0</v>
+        <v>6272.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-14.891534317912134</v>
+        <v>-12.448696611767248</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>7503.0</v>
+        <v>8551.0</v>
       </c>
       <c r="D11" t="n">
-        <v>4.734921766886217</v>
+        <v>19.364029858542455</v>
       </c>
     </row>
   </sheetData>
@@ -949,21 +949,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>526.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-32.32156067388107</v>
+        <v>82.06272176132752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -977,35 +977,35 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1523.0</v>
+        <v>739.0</v>
       </c>
       <c r="D10" t="n">
-        <v>95.95867508304016</v>
+        <v>-4.915652733836718</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>52.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-93.30935580806428</v>
+        <v>33.81288383871423</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1019,44 +1019,44 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>739.0</v>
+        <v>52.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.915652733836718</v>
+        <v>-93.30935580806428</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1040.0</v>
+        <v>526.0</v>
       </c>
       <c r="D14" t="n">
-        <v>33.81288383871423</v>
+        <v>-32.32156067388107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>1415.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D15" t="n">
-        <v>82.06272176132752</v>
+        <v>95.95867508304016</v>
       </c>
     </row>
   </sheetData>
@@ -1149,21 +1149,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>186.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-76.0680803903838</v>
+        <v>47.322838457045954</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1177,72 +1177,72 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1523.0</v>
+        <v>498.0</v>
       </c>
       <c r="D10" t="n">
-        <v>95.95867508304016</v>
+        <v>-35.924215238769534</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>124.0</v>
+        <v>749.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-84.04538692692253</v>
+        <v>-3.6289903892336968</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>498.0</v>
+        <v>124.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-35.924215238769534</v>
+        <v>-84.04538692692253</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>749.0</v>
+        <v>186.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.6289903892336968</v>
+        <v>-76.0680803903838</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1145.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D14" t="n">
-        <v>47.322838457045954</v>
+        <v>95.95867508304016</v>
       </c>
     </row>
   </sheetData>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -43,15 +43,18 @@
     <t>kg</t>
   </si>
   <si>
+    <t>Max Zero Fuel Mass Calibration Factor</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Maximum Take-Off Mass</t>
   </si>
   <si>
-    <t>Take-Off Mass</t>
-  </si>
-  <si>
     <t>Maximum Landing Mass</t>
   </si>
   <si>
@@ -67,10 +70,10 @@
     <t>Zero Fuel Mass</t>
   </si>
   <si>
-    <t>Maximum Passengers Mass</t>
-  </si>
-  <si>
-    <t>Actual Passengers Mass</t>
+    <t>Max Payload</t>
+  </si>
+  <si>
+    <t>Design Payload</t>
   </si>
   <si>
     <t>Operating Empty Mass</t>
@@ -106,37 +109,34 @@
     <t>Calibration Factor</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Estimated Mass (calibrated)</t>
   </si>
   <si>
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
     <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>KROO</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
-  </si>
-  <si>
-    <t>TORENBEEK_1976</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
@@ -331,50 +331,50 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>67587.29747397729</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>67587.29747397729</v>
+        <v>68382.34054798943</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>60828.56772657956</v>
+        <v>61544.106493190484</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -385,134 +385,134 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>16200.0</v>
+        <v>12650.234781626386</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>51387.2974739773</v>
+        <v>59897.10576636304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>51387.2974739773</v>
+        <v>55732.10576636305</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>13650.0</v>
+        <v>20665.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>13650.0</v>
+        <v>16500.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>37737.297473977305</v>
+        <v>39232.10576636305</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>37016.80965179895</v>
+        <v>38431.1247950739</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>337.91507967834195</v>
+        <v>341.8936802891409</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>382.5727425</v>
+        <v>459.08729100000005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1946.1</v>
+        <v>2470.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>35408.624731477306</v>
+        <v>36302.96847536305</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>20826.75399601625</v>
+        <v>21353.2763454847</v>
       </c>
     </row>
   </sheetData>
@@ -543,40 +543,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6758.301593566839</v>
+        <v>6837.873605782817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8170.166666666666</v>
+        <v>8282.0</v>
       </c>
       <c r="D3" t="n">
-        <v>20.890826690004012</v>
+        <v>21.119524540434284</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -590,12 +590,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>8170.166666666666</v>
+        <v>8281.999999999998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>21031.0</v>
+        <v>6691.0</v>
       </c>
       <c r="D8" t="n">
-        <v>211.1876513474806</v>
+        <v>-2.1479426829212773</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6396.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.36083790506938</v>
+        <v>57.973086704391626</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6850.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.3568261961029933</v>
+        <v>15.401372633248872</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>10430.0</v>
+        <v>10469.0</v>
       </c>
       <c r="D11" t="n">
-        <v>54.32871492340938</v>
+        <v>53.103151704154406</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>7891.0</v>
+        <v>15366.0</v>
       </c>
       <c r="D12" t="n">
-        <v>16.760104454518064</v>
+        <v>124.71898262355876</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>15196.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D13" t="n">
-        <v>124.84939136875636</v>
+        <v>-6.462149364813105</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>6652.0</v>
+        <v>7443.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.5729039625580858</v>
+        <v>8.849628248545349</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>10802.0</v>
+        <v>21031.0</v>
       </c>
       <c r="D15" t="n">
-        <v>59.8330564336211</v>
+        <v>207.566375345312</v>
       </c>
     </row>
   </sheetData>
@@ -743,40 +743,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>7163.799689180849</v>
+        <v>7248.146022129787</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>7105.75</v>
+        <v>7487.75</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.810319826062677</v>
+        <v>3.3057277976831916</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -790,12 +790,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>7105.749999999999</v>
+        <v>7487.749999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -805,30 +805,30 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7503.0</v>
+        <v>8607.0</v>
       </c>
       <c r="D8" t="n">
-        <v>4.734921766886217</v>
+        <v>18.747607646443775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6097.0</v>
+        <v>6413.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-14.891534317912134</v>
+        <v>-11.522201947642158</v>
       </c>
     </row>
     <row r="10">
@@ -839,10 +839,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6272.0</v>
+        <v>6982.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-12.448696611767248</v>
+        <v>-3.671918602594346</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>8551.0</v>
+        <v>7949.0</v>
       </c>
       <c r="D11" t="n">
-        <v>19.364029858542455</v>
+        <v>9.669424094525572</v>
       </c>
     </row>
   </sheetData>
@@ -887,40 +887,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>777.2046832601864</v>
+        <v>786.355464665024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>801.375</v>
+        <v>802.375</v>
       </c>
       <c r="D3" t="n">
-        <v>3.1099036406246126</v>
+        <v>2.037187513130597</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -934,12 +934,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>801.3749999999999</v>
+        <v>802.3749999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -949,16 +949,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1415.0</v>
+        <v>52.0</v>
       </c>
       <c r="D8" t="n">
-        <v>82.06272176132752</v>
+        <v>-93.38721451854458</v>
       </c>
     </row>
     <row r="9">
@@ -969,94 +969,94 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>700.0</v>
+        <v>530.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.933635877788502</v>
+        <v>-32.6004556697813</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>739.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.915652733836718</v>
+        <v>79.94406646652727</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1040.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D11" t="n">
-        <v>33.81288383871423</v>
+        <v>93.67831323570391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>416.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-46.47484646451431</v>
+        <v>32.25570962910839</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>52.0</v>
+        <v>739.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-93.30935580806428</v>
+        <v>-6.022144792393173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>526.0</v>
+        <v>420.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-32.32156067388107</v>
+        <v>-46.58904034209085</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>1523.0</v>
+        <v>700.0</v>
       </c>
       <c r="D15" t="n">
-        <v>95.95867508304016</v>
+        <v>-10.981733903484736</v>
       </c>
     </row>
   </sheetData>
@@ -1087,40 +1087,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>777.2046832601864</v>
+        <v>786.355464665024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>675.2857142857142</v>
+        <v>675.7142857142856</v>
       </c>
       <c r="D3" t="n">
-        <v>-13.113529958021687</v>
+        <v>-14.070122727241413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1134,12 +1134,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>675.2857142857142</v>
+        <v>675.7142857142856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1149,16 +1149,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1145.0</v>
+        <v>124.0</v>
       </c>
       <c r="D8" t="n">
-        <v>47.322838457045954</v>
+        <v>-84.23105000576015</v>
       </c>
     </row>
     <row r="9">
@@ -1169,52 +1169,52 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>502.0</v>
+        <v>187.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-35.40955030092832</v>
+        <v>-76.21940605707378</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>498.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-35.924215238769534</v>
+        <v>45.60844954358568</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>749.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.6289903892336968</v>
+        <v>93.67831323570391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>124.0</v>
+        <v>749.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-84.04538692692253</v>
+        <v>-4.750455276728669</v>
       </c>
     </row>
     <row r="13">
@@ -1225,24 +1225,24 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>186.0</v>
+        <v>500.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-76.0680803903838</v>
+        <v>-36.41552421677481</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1523.0</v>
+        <v>502.0</v>
       </c>
       <c r="D14" t="n">
-        <v>95.95867508304016</v>
+        <v>-36.16118631364191</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1284.077302777699</v>
+        <v>1299.1959850987355</v>
       </c>
     </row>
     <row r="3">
@@ -1298,15 +1298,15 @@
         <v>1390.6666666666665</v>
       </c>
       <c r="D3" t="n">
-        <v>8.30085257783116</v>
+        <v>7.040560671143044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1335,7 +1335,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1345,16 +1345,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>705.0</v>
+        <v>687.0</v>
       </c>
       <c r="D10" t="n">
-        <v>9.806473251252601</v>
+        <v>5.75771598428855</v>
       </c>
     </row>
     <row r="11">
@@ -1368,26 +1368,26 @@
         <v>694.0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.093180760807526</v>
+        <v>6.835305521246367</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D12" t="n">
-        <v>7.002903721433387</v>
+        <v>8.528660507894363</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1417,16 +1417,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>705.0</v>
+        <v>687.0</v>
       </c>
       <c r="D17" t="n">
-        <v>9.806473251252601</v>
+        <v>5.75771598428855</v>
       </c>
     </row>
     <row r="18">
@@ -1440,26 +1440,26 @@
         <v>694.0</v>
       </c>
       <c r="D18" t="n">
-        <v>8.093180760807526</v>
+        <v>6.835305521246367</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D19" t="n">
-        <v>7.002903721433387</v>
+        <v>8.528660507894363</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5609.390322660476</v>
+        <v>5675.435092799738</v>
       </c>
     </row>
     <row r="3">
@@ -1535,15 +1535,15 @@
         <v>6451.333333333332</v>
       </c>
       <c r="D3" t="n">
-        <v>15.009527992224491</v>
+        <v>13.671167546571953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1572,7 +1572,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1582,7 +1582,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1591,21 +1591,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D11" t="n">
-        <v>16.411938274655277</v>
+        <v>4.097745871418915</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1614,26 +1614,26 @@
         <v>3458.0</v>
       </c>
       <c r="D12" t="n">
-        <v>23.293256524887582</v>
+        <v>21.858498721518828</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D13" t="n">
-        <v>5.323389177130686</v>
+        <v>15.057258046778188</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1654,7 +1654,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1663,21 +1663,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D18" t="n">
-        <v>16.411938274655277</v>
+        <v>4.097745871418915</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1686,26 +1686,26 @@
         <v>3458.0</v>
       </c>
       <c r="D19" t="n">
-        <v>23.293256524887582</v>
+        <v>21.858498721518828</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.323389177130686</v>
+        <v>15.057258046778188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1747,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -1758,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2770.903653362404</v>
+        <v>2803.528178370955</v>
       </c>
     </row>
     <row r="3">
@@ -1769,18 +1769,18 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2683.5099483972144</v>
+        <v>2714.7703931037613</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.1539784813210665</v>
+        <v>-3.165931626867703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1794,12 +1794,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2683.509948397214</v>
+        <v>2714.770393103761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1814,16 +1814,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2683.5099483972144</v>
+        <v>2714.7703931037613</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.1539784813210665</v>
+        <v>-3.165931626867696</v>
       </c>
     </row>
     <row r="10">
@@ -1833,13 +1833,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>410.49191368324796</v>
+        <v>414.5005370316868</v>
       </c>
     </row>
     <row r="12">
@@ -1849,13 +1849,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2273.0180347139667</v>
+        <v>2300.2698560720746</v>
       </c>
     </row>
   </sheetData>
@@ -1886,18 +1886,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>9191.2901672509</v>
+        <v>9299.508103864633</v>
       </c>
     </row>
     <row r="3">
@@ -1908,10 +1908,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8130.537402127744</v>
+        <v>8498.358796545028</v>
       </c>
       <c r="D3" t="n">
-        <v>-11.540847321986204</v>
+        <v>-8.614964344045974</v>
       </c>
     </row>
     <row r="4">
@@ -1922,12 +1922,12 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>8130.537402127742</v>
+        <v>8498.35879654503</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1948,15 +1948,15 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8130.537402127744</v>
+        <v>8498.35879654503</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.540847321986194</v>
+        <v>-8.614964344045951</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1972,15 +1972,15 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>322.1932175083158</v>
+        <v>371.7412449014323</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1994,12 +1994,12 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>322.19321750831574</v>
+        <v>371.74124490143225</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2020,10 +2020,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2058,15 +2058,15 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1033.0992774266433</v>
+        <v>1047.557780002779</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>1.0</v>
@@ -2080,12 +2080,12 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>1033.099277426643</v>
+        <v>1047.5577800027788</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2101,15 +2101,15 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>531.065147897526</v>
+        <v>544.5181821560468</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
@@ -2123,12 +2123,12 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>531.0651478975259</v>
+        <v>544.5181821560467</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -2149,10 +2149,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
         <v>1.0</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -2187,15 +2187,15 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>815.7859646029929</v>
+        <v>822.177142610655</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
         <v>1.0</v>
@@ -2209,12 +2209,12 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>815.7859646029927</v>
+        <v>822.1771426106549</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -2230,15 +2230,15 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>3179.3298371441324</v>
+        <v>3463.300489325984</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
         <v>1.0</v>
@@ -2252,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>3179.329837144132</v>
+        <v>3463.300489325984</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,37 +115,37 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
     <t>RAYMER</t>
   </si>
   <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
     <t>TORENBEEK_1976</t>
   </si>
   <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
     <t>TORENBEEK_2013</t>
   </si>
   <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>KROO</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>NICOLAI_2013</t>
+  </si>
+  <si>
     <t>HOWE</t>
-  </si>
-  <si>
-    <t>NICOLAI_2013</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -358,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>68382.34054798943</v>
+        <v>62876.30628779709</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>61544.106493190484</v>
+        <v>56588.675659017375</v>
       </c>
     </row>
     <row r="8">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>12650.234781626386</v>
+        <v>11633.190117226004</v>
       </c>
     </row>
     <row r="10">
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>59897.10576636304</v>
+        <v>54778.116170571084</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>55732.10576636305</v>
+        <v>51243.116170571084</v>
       </c>
     </row>
     <row r="12">
@@ -424,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>20665.0</v>
+        <v>17035.0</v>
       </c>
     </row>
     <row r="13">
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>16500.0</v>
+        <v>13500.0</v>
       </c>
     </row>
     <row r="14">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>39232.10576636305</v>
+        <v>37743.11617057109</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>38431.1247950739</v>
+        <v>36969.622526539715</v>
       </c>
     </row>
     <row r="16">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>341.8936802891409</v>
+        <v>314.40635303136366</v>
       </c>
     </row>
     <row r="17">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>2470.05</v>
+        <v>2020.9499999999998</v>
       </c>
     </row>
     <row r="19">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>36302.96847536305</v>
+        <v>35263.0788795711</v>
       </c>
     </row>
     <row r="20">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>21353.2763454847</v>
+        <v>20602.655422083808</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6837.873605782817</v>
+        <v>6288.127060627273</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8282.0</v>
+        <v>8132.166666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>21.119524540434284</v>
+        <v>29.325737032028755</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>8281.999999999998</v>
+        <v>8132.166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6691.0</v>
+        <v>14190.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.1479426829212773</v>
+        <v>125.66337898688195</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>10802.0</v>
+        <v>10196.0</v>
       </c>
       <c r="D9" t="n">
-        <v>57.973086704391626</v>
+        <v>62.14685075054604</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7891.0</v>
+        <v>6416.0</v>
       </c>
       <c r="D10" t="n">
-        <v>15.401372633248872</v>
+        <v>2.0335616335330875</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>10469.0</v>
+        <v>21031.0</v>
       </c>
       <c r="D11" t="n">
-        <v>53.103151704154406</v>
+        <v>234.45570989944426</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>15366.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D12" t="n">
-        <v>124.71898262355876</v>
+        <v>71.78406059311477</v>
       </c>
     </row>
     <row r="13">
@@ -684,7 +684,7 @@
         <v>6396.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.462149364813105</v>
+        <v>1.7155019027552412</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>7443.0</v>
+        <v>7092.0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.849628248545349</v>
+        <v>12.783980533824291</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>21031.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D15" t="n">
-        <v>207.566375345312</v>
+        <v>25.49046677839925</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>7248.146022129787</v>
+        <v>6665.414684264909</v>
       </c>
     </row>
     <row r="3">
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>7487.75</v>
+        <v>7112.75</v>
       </c>
       <c r="D3" t="n">
-        <v>3.3057277976831916</v>
+        <v>6.711290098590839</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>7487.749999999999</v>
+        <v>7112.749999999999</v>
       </c>
     </row>
     <row r="6">
@@ -805,58 +805,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8607.0</v>
+        <v>8327.0</v>
       </c>
       <c r="D8" t="n">
-        <v>18.747607646443775</v>
+        <v>24.928461235241798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6413.0</v>
+        <v>6559.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-11.522201947642158</v>
+        <v>-1.5965200862314213</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6982.0</v>
+        <v>7483.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.671918602594346</v>
+        <v>12.266083274086032</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>7949.0</v>
+        <v>6082.0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.669424094525572</v>
+        <v>-8.752864028732963</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>786.355464665024</v>
+        <v>723.1346119721363</v>
       </c>
     </row>
     <row r="3">
@@ -909,10 +909,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>802.375</v>
+        <v>795.375</v>
       </c>
       <c r="D3" t="n">
-        <v>2.037187513130597</v>
+        <v>9.989894942360628</v>
       </c>
     </row>
     <row r="4">
@@ -934,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>802.3749999999999</v>
+        <v>795.3749999999999</v>
       </c>
     </row>
     <row r="6">
@@ -949,16 +949,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>52.0</v>
+        <v>394.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-93.38721451854458</v>
+        <v>-45.51498524936025</v>
       </c>
     </row>
     <row r="9">
@@ -969,94 +969,94 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>530.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-32.6004556697813</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1415.0</v>
+        <v>502.0</v>
       </c>
       <c r="D10" t="n">
-        <v>79.94406646652727</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1523.0</v>
+        <v>700.0</v>
       </c>
       <c r="D11" t="n">
-        <v>93.67831323570391</v>
+        <v>-3.199212371959834</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1040.0</v>
+        <v>52.0</v>
       </c>
       <c r="D12" t="n">
-        <v>32.25570962910839</v>
+        <v>-92.8090843476313</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>739.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.022144792393173</v>
+        <v>95.67587784810976</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>420.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-46.58904034209085</v>
+        <v>43.81831304737396</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>700.0</v>
+        <v>737.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-10.981733903484736</v>
+        <v>1.9174006883794317</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>786.355464665024</v>
+        <v>723.1346119721363</v>
       </c>
     </row>
     <row r="3">
@@ -1109,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>675.7142857142856</v>
+        <v>672.4285714285713</v>
       </c>
       <c r="D3" t="n">
-        <v>-14.070122727241413</v>
+        <v>-7.011978088737747</v>
       </c>
     </row>
     <row r="4">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>675.7142857142856</v>
+        <v>672.4285714285713</v>
       </c>
     </row>
     <row r="6">
@@ -1149,44 +1149,44 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>124.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-84.23105000576015</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>187.0</v>
+        <v>179.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-76.21940605707378</v>
+        <v>-75.24665573511544</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1145.0</v>
+        <v>502.0</v>
       </c>
       <c r="D10" t="n">
-        <v>45.60844954358568</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
     <row r="11">
@@ -1197,52 +1197,52 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1523.0</v>
+        <v>124.0</v>
       </c>
       <c r="D11" t="n">
-        <v>93.67831323570391</v>
+        <v>-82.85243190589003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>749.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.750455276728669</v>
+        <v>58.338431191579986</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>500.0</v>
+        <v>749.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-36.41552421677481</v>
+        <v>3.5768427620029772</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>502.0</v>
+        <v>485.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-36.16118631364191</v>
+        <v>-32.93088285771503</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.1959850987355</v>
+        <v>1194.7441415191815</v>
       </c>
     </row>
     <row r="3">
@@ -1298,7 +1298,7 @@
         <v>1390.6666666666665</v>
       </c>
       <c r="D3" t="n">
-        <v>7.040560671143044</v>
+        <v>16.398701474138132</v>
       </c>
     </row>
     <row r="4">
@@ -1345,7 +1345,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1354,7 +1354,7 @@
         <v>687.0</v>
       </c>
       <c r="D10" t="n">
-        <v>5.75771598428855</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="11">
@@ -1368,12 +1368,12 @@
         <v>694.0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.835305521246367</v>
+        <v>16.17550166306597</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1382,7 +1382,7 @@
         <v>705.0</v>
       </c>
       <c r="D12" t="n">
-        <v>8.528660507894363</v>
+        <v>18.016900104411395</v>
       </c>
     </row>
     <row r="13">
@@ -1417,7 +1417,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1426,7 +1426,7 @@
         <v>687.0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.75771598428855</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="18">
@@ -1440,12 +1440,12 @@
         <v>694.0</v>
       </c>
       <c r="D18" t="n">
-        <v>6.835305521246367</v>
+        <v>16.17550166306597</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1454,7 +1454,7 @@
         <v>705.0</v>
       </c>
       <c r="D19" t="n">
-        <v>8.528660507894363</v>
+        <v>18.016900104411395</v>
       </c>
     </row>
     <row r="20">
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5675.435092799738</v>
+        <v>5219.145460320637</v>
       </c>
     </row>
     <row r="3">
@@ -1535,7 +1535,7 @@
         <v>6451.333333333332</v>
       </c>
       <c r="D3" t="n">
-        <v>13.671167546571953</v>
+        <v>23.60899657579186</v>
       </c>
     </row>
     <row r="4">
@@ -1591,44 +1591,44 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D11" t="n">
-        <v>4.097745871418915</v>
+        <v>25.116267589116617</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3458.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D12" t="n">
-        <v>21.858498721518828</v>
+        <v>13.19860779732021</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3265.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D13" t="n">
-        <v>15.057258046778188</v>
+        <v>32.51211434093882</v>
       </c>
     </row>
     <row r="14">
@@ -1663,44 +1663,44 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D18" t="n">
-        <v>4.097745871418915</v>
+        <v>25.116267589116617</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>3458.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D19" t="n">
-        <v>21.858498721518828</v>
+        <v>13.19860779732021</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>3265.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D20" t="n">
-        <v>15.057258046778188</v>
+        <v>32.51211434093882</v>
       </c>
     </row>
     <row r="21">
@@ -1758,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2803.528178370955</v>
+        <v>2578.132094857182</v>
       </c>
     </row>
     <row r="3">
@@ -1769,10 +1769,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2714.7703931037613</v>
+        <v>2499.2685173219097</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.165931626867703</v>
+        <v>-3.0589424681764017</v>
       </c>
     </row>
     <row r="4">
@@ -1794,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2714.770393103761</v>
+        <v>2499.2685173219093</v>
       </c>
     </row>
     <row r="6">
@@ -1814,16 +1814,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2714.7703931037613</v>
+        <v>2499.2685173219097</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.165931626867696</v>
+        <v>-3.0589424681764026</v>
       </c>
     </row>
     <row r="10">
@@ -1833,13 +1833,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>414.5005370316868</v>
+        <v>386.729549170154</v>
       </c>
     </row>
     <row r="12">
@@ -1849,13 +1849,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2300.2698560720746</v>
+        <v>2112.5389681517563</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>9299.508103864633</v>
+        <v>8551.852802453091</v>
       </c>
     </row>
     <row r="3">
@@ -1908,10 +1908,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8498.358796545028</v>
+        <v>8209.090124153976</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.614964344045974</v>
+        <v>-4.00805166104818</v>
       </c>
     </row>
     <row r="4">
@@ -1922,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>8498.35879654503</v>
+        <v>8209.090124153974</v>
       </c>
     </row>
     <row r="5">
@@ -1948,10 +1948,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8498.35879654503</v>
+        <v>8209.090124153976</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.614964344045951</v>
+        <v>-4.00805166104815</v>
       </c>
     </row>
     <row r="9">
@@ -1972,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>371.7412449014323</v>
+        <v>329.5722550152342</v>
       </c>
     </row>
     <row r="12">
@@ -1994,7 +1994,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>371.74124490143225</v>
+        <v>329.57225501523413</v>
       </c>
     </row>
     <row r="14">
@@ -2058,7 +2058,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1047.557780002779</v>
+        <v>1030.8432141307385</v>
       </c>
     </row>
     <row r="22">
@@ -2080,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>1047.5577800027788</v>
+        <v>1030.8432141307383</v>
       </c>
     </row>
     <row r="24">
@@ -2101,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>544.5181821560468</v>
+        <v>528.9794736539732</v>
       </c>
     </row>
     <row r="27">
@@ -2123,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>544.5181821560467</v>
+        <v>528.9794736539731</v>
       </c>
     </row>
     <row r="29">
@@ -2187,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>822.177142610655</v>
+        <v>777.495132217799</v>
       </c>
     </row>
     <row r="37">
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>822.1771426106549</v>
+        <v>777.4951322177989</v>
       </c>
     </row>
     <row r="39">
@@ -2230,7 +2230,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>3463.300489325984</v>
+        <v>3293.1360915880978</v>
       </c>
     </row>
     <row r="42">
@@ -2252,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>3463.300489325984</v>
+        <v>3293.1360915880973</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,28 +115,28 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
     <t>ROSKAM</t>
   </si>
   <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
     <t>KROO</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>14190.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D8" t="n">
-        <v>125.66337898688195</v>
+        <v>25.49046677839925</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>7891.0</v>
+        <v>6416.0</v>
       </c>
       <c r="D9" t="n">
-        <v>25.49046677839925</v>
+        <v>2.0335616335330875</v>
       </c>
     </row>
     <row r="10">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6396.0</v>
+        <v>21031.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.7155019027552412</v>
+        <v>234.45570989944426</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>6416.0</v>
+        <v>10196.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2.0335616335330875</v>
+        <v>62.14685075054604</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>21031.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D13" t="n">
-        <v>234.45570989944426</v>
+        <v>1.7155019027552412</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>7092.0</v>
+        <v>14190.0</v>
       </c>
       <c r="D14" t="n">
-        <v>12.783980533824291</v>
+        <v>125.66337898688195</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>10196.0</v>
+        <v>7092.0</v>
       </c>
       <c r="D15" t="n">
-        <v>62.14685075054604</v>
+        <v>12.783980533824291</v>
       </c>
     </row>
   </sheetData>
@@ -805,16 +805,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6559.0</v>
+        <v>6082.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.5965200862314213</v>
+        <v>-8.752864028732963</v>
       </c>
     </row>
     <row r="9">
@@ -825,29 +825,29 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6082.0</v>
+        <v>8327.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.752864028732963</v>
+        <v>24.928461235241798</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>8327.0</v>
+        <v>6559.0</v>
       </c>
       <c r="D10" t="n">
-        <v>24.928461235241798</v>
+        <v>-1.5965200862314213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -949,58 +949,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>394.0</v>
+        <v>52.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-45.51498524936025</v>
+        <v>-92.8090843476313</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1415.0</v>
+        <v>502.0</v>
       </c>
       <c r="D9" t="n">
-        <v>95.67587784810976</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1523.0</v>
+        <v>394.0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.61085651072167</v>
+        <v>-45.51498524936025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>52.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-92.8090843476313</v>
+        <v>95.67587784810976</v>
       </c>
     </row>
     <row r="12">
@@ -1011,43 +1011,43 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1040.0</v>
+        <v>700.0</v>
       </c>
       <c r="D12" t="n">
-        <v>43.81831304737396</v>
+        <v>-3.199212371959834</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>502.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.58000658674834</v>
+        <v>43.81831304737396</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>700.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.199212371959834</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1149,44 +1149,44 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1145.0</v>
+        <v>124.0</v>
       </c>
       <c r="D8" t="n">
-        <v>58.338431191579986</v>
+        <v>-82.85243190589003</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1523.0</v>
+        <v>179.0</v>
       </c>
       <c r="D9" t="n">
-        <v>110.61085651072167</v>
+        <v>-75.24665573511544</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>124.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-82.85243190589003</v>
+        <v>58.338431191579986</v>
       </c>
     </row>
     <row r="11">
@@ -1197,43 +1197,43 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>749.0</v>
+        <v>502.0</v>
       </c>
       <c r="D11" t="n">
-        <v>3.5768427620029772</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>179.0</v>
+        <v>749.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-75.24665573511544</v>
+        <v>3.5768427620029772</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>502.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.58000658674834</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1345,21 +1345,21 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>687.0</v>
+        <v>694.0</v>
       </c>
       <c r="D10" t="n">
-        <v>15.003702654937063</v>
+        <v>16.17550166306597</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1373,16 +1373,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>694.0</v>
+        <v>687.0</v>
       </c>
       <c r="D12" t="n">
-        <v>16.17550166306597</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="13">
@@ -1417,21 +1417,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>687.0</v>
+        <v>694.0</v>
       </c>
       <c r="D17" t="n">
-        <v>15.003702654937063</v>
+        <v>16.17550166306597</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1445,16 +1445,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>694.0</v>
+        <v>687.0</v>
       </c>
       <c r="D19" t="n">
-        <v>16.17550166306597</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="20">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,37 +115,37 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
     <t>TORENBEEK_2013</t>
   </si>
   <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
     <t>RAYMER</t>
   </si>
   <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>KROO</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>HOWE</t>
+  </si>
+  <si>
     <t>NICOLAI_2013</t>
-  </si>
-  <si>
-    <t>HOWE</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7891.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D8" t="n">
-        <v>25.49046677839925</v>
+        <v>71.78406059311477</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6416.0</v>
+        <v>14190.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.0335616335330875</v>
+        <v>125.66337898688195</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>10802.0</v>
+        <v>7092.0</v>
       </c>
       <c r="D10" t="n">
-        <v>71.78406059311477</v>
+        <v>12.783980533824291</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>21031.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D11" t="n">
-        <v>234.45570989944426</v>
+        <v>25.49046677839925</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>10196.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D12" t="n">
-        <v>62.14685075054604</v>
+        <v>1.7155019027552412</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>6396.0</v>
+        <v>10196.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.7155019027552412</v>
+        <v>62.14685075054604</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>14190.0</v>
+        <v>21031.0</v>
       </c>
       <c r="D14" t="n">
-        <v>125.66337898688195</v>
+        <v>234.45570989944426</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>7092.0</v>
+        <v>6416.0</v>
       </c>
       <c r="D15" t="n">
-        <v>12.783980533824291</v>
+        <v>2.0335616335330875</v>
       </c>
     </row>
   </sheetData>
@@ -805,44 +805,44 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6082.0</v>
+        <v>7483.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.752864028732963</v>
+        <v>12.266083274086032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>8327.0</v>
+        <v>6559.0</v>
       </c>
       <c r="D9" t="n">
-        <v>24.928461235241798</v>
+        <v>-1.5965200862314213</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6559.0</v>
+        <v>6082.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.5965200862314213</v>
+        <v>-8.752864028732963</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>7483.0</v>
+        <v>8327.0</v>
       </c>
       <c r="D11" t="n">
-        <v>12.266083274086032</v>
+        <v>24.928461235241798</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +949,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -969,29 +969,29 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>502.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.58000658674834</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>394.0</v>
+        <v>737.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-45.51498524936025</v>
+        <v>1.9174006883794317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1005,44 +1005,44 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>700.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.199212371959834</v>
+        <v>43.81831304737396</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1040.0</v>
+        <v>700.0</v>
       </c>
       <c r="D13" t="n">
-        <v>43.81831304737396</v>
+        <v>-3.199212371959834</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1523.0</v>
+        <v>394.0</v>
       </c>
       <c r="D14" t="n">
-        <v>110.61085651072167</v>
+        <v>-45.51498524936025</v>
       </c>
     </row>
     <row r="15">
@@ -1053,10 +1053,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>737.0</v>
+        <v>502.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.9174006883794317</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1169,43 +1169,43 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>179.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-75.24665573511544</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1145.0</v>
+        <v>485.0</v>
       </c>
       <c r="D10" t="n">
-        <v>58.338431191579986</v>
+        <v>-32.93088285771503</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>502.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-30.58000658674834</v>
+        <v>58.338431191579986</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1225,10 +1225,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1523.0</v>
+        <v>502.0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.61085651072167</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
     <row r="14">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>485.0</v>
+        <v>179.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-32.93088285771503</v>
+        <v>-75.24665573511544</v>
       </c>
     </row>
   </sheetData>
@@ -1345,30 +1345,30 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>694.0</v>
+        <v>687.0</v>
       </c>
       <c r="D10" t="n">
-        <v>16.17550166306597</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>705.0</v>
+        <v>694.0</v>
       </c>
       <c r="D11" t="n">
-        <v>18.016900104411395</v>
+        <v>16.17550166306597</v>
       </c>
     </row>
     <row r="12">
@@ -1379,10 +1379,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D12" t="n">
-        <v>15.003702654937063</v>
+        <v>18.016900104411395</v>
       </c>
     </row>
     <row r="13">
@@ -1417,30 +1417,30 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>694.0</v>
+        <v>687.0</v>
       </c>
       <c r="D17" t="n">
-        <v>16.17550166306597</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>705.0</v>
+        <v>694.0</v>
       </c>
       <c r="D18" t="n">
-        <v>18.016900104411395</v>
+        <v>16.17550166306597</v>
       </c>
     </row>
     <row r="19">
@@ -1451,10 +1451,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D19" t="n">
-        <v>15.003702654937063</v>
+        <v>18.016900104411395</v>
       </c>
     </row>
     <row r="20">
@@ -1597,24 +1597,24 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3458.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D11" t="n">
-        <v>32.51211434093882</v>
+        <v>13.19860779732021</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2954.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D12" t="n">
-        <v>13.19860779732021</v>
+        <v>32.51211434093882</v>
       </c>
     </row>
     <row r="13">
@@ -1669,24 +1669,24 @@
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3458.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D18" t="n">
-        <v>32.51211434093882</v>
+        <v>13.19860779732021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>2954.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D19" t="n">
-        <v>13.19860779732021</v>
+        <v>32.51211434093882</v>
       </c>
     </row>
     <row r="20">
@@ -1814,7 +1814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,28 +115,28 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
     <t>TORENBEEK_1976</t>
   </si>
   <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
     <t>ROSKAM</t>
   </si>
   <si>
-    <t>KROO</t>
+    <t>RAYMER</t>
   </si>
   <si>
     <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>10802.0</v>
+        <v>21031.0</v>
       </c>
       <c r="D8" t="n">
-        <v>71.78406059311477</v>
+        <v>234.45570989944426</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>14190.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D9" t="n">
-        <v>125.66337898688195</v>
+        <v>1.7155019027552412</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7092.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D10" t="n">
-        <v>12.783980533824291</v>
+        <v>71.78406059311477</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>7891.0</v>
+        <v>10196.0</v>
       </c>
       <c r="D11" t="n">
-        <v>25.49046677839925</v>
+        <v>62.14685075054604</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>6396.0</v>
+        <v>7092.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.7155019027552412</v>
+        <v>12.783980533824291</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>10196.0</v>
+        <v>14190.0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.14685075054604</v>
+        <v>125.66337898688195</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>21031.0</v>
+        <v>6416.0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.45570989944426</v>
+        <v>2.0335616335330875</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>6416.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.0335616335330875</v>
+        <v>25.49046677839925</v>
       </c>
     </row>
   </sheetData>
@@ -805,44 +805,44 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7483.0</v>
+        <v>6559.0</v>
       </c>
       <c r="D8" t="n">
-        <v>12.266083274086032</v>
+        <v>-1.5965200862314213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6559.0</v>
+        <v>7483.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.5965200862314213</v>
+        <v>12.266083274086032</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6082.0</v>
+        <v>8327.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.752864028732963</v>
+        <v>24.928461235241798</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>8327.0</v>
+        <v>6082.0</v>
       </c>
       <c r="D11" t="n">
-        <v>24.928461235241798</v>
+        <v>-8.752864028732963</v>
       </c>
     </row>
   </sheetData>
@@ -949,58 +949,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>52.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-92.8090843476313</v>
+        <v>95.67587784810976</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1523.0</v>
+        <v>52.0</v>
       </c>
       <c r="D9" t="n">
-        <v>110.61085651072167</v>
+        <v>-92.8090843476313</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>737.0</v>
+        <v>700.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.9174006883794317</v>
+        <v>-3.199212371959834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1415.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D11" t="n">
-        <v>95.67587784810976</v>
+        <v>43.81831304737396</v>
       </c>
     </row>
     <row r="12">
@@ -1011,52 +1011,52 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1040.0</v>
+        <v>737.0</v>
       </c>
       <c r="D12" t="n">
-        <v>43.81831304737396</v>
+        <v>1.9174006883794317</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>700.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.199212371959834</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>394.0</v>
+        <v>502.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-45.51498524936025</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>502.0</v>
+        <v>394.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-30.58000658674834</v>
+        <v>-45.51498524936025</v>
       </c>
     </row>
   </sheetData>
@@ -1149,30 +1149,30 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>124.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-82.85243190589003</v>
+        <v>58.338431191579986</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1523.0</v>
+        <v>502.0</v>
       </c>
       <c r="D9" t="n">
-        <v>110.61085651072167</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
     <row r="10">
@@ -1183,24 +1183,24 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>485.0</v>
+        <v>124.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-32.93088285771503</v>
+        <v>-82.85243190589003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1145.0</v>
+        <v>749.0</v>
       </c>
       <c r="D11" t="n">
-        <v>58.338431191579986</v>
+        <v>3.5768427620029772</v>
       </c>
     </row>
     <row r="12">
@@ -1211,29 +1211,29 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>749.0</v>
+        <v>485.0</v>
       </c>
       <c r="D12" t="n">
-        <v>3.5768427620029772</v>
+        <v>-32.93088285771503</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>502.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.58000658674834</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1345,16 +1345,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D10" t="n">
-        <v>15.003702654937063</v>
+        <v>18.016900104411395</v>
       </c>
     </row>
     <row r="11">
@@ -1373,16 +1373,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>705.0</v>
+        <v>687.0</v>
       </c>
       <c r="D12" t="n">
-        <v>18.016900104411395</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="13">
@@ -1417,16 +1417,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D17" t="n">
-        <v>15.003702654937063</v>
+        <v>18.016900104411395</v>
       </c>
     </row>
     <row r="18">
@@ -1445,16 +1445,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>705.0</v>
+        <v>687.0</v>
       </c>
       <c r="D19" t="n">
-        <v>18.016900104411395</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="20">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1605,30 +1605,30 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3458.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D12" t="n">
-        <v>32.51211434093882</v>
+        <v>25.116267589116617</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3265.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D13" t="n">
-        <v>25.116267589116617</v>
+        <v>32.51211434093882</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1677,30 +1677,30 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>3458.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D19" t="n">
-        <v>32.51211434093882</v>
+        <v>25.116267589116617</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>3265.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D20" t="n">
-        <v>25.116267589116617</v>
+        <v>32.51211434093882</v>
       </c>
     </row>
     <row r="21">
@@ -1814,7 +1814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,37 +115,37 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
     <t>JENKINSON</t>
   </si>
   <si>
-    <t>SADRAEY</t>
+    <t>TORENBEEK_2013</t>
   </si>
   <si>
     <t>TORENBEEK_1976</t>
   </si>
   <si>
-    <t>NICOLAI_1984</t>
+    <t>RAYMER</t>
   </si>
   <si>
     <t>KROO</t>
   </si>
   <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>NICOLAI_2013</t>
+  </si>
+  <si>
     <t>HOWE</t>
-  </si>
-  <si>
-    <t>NICOLAI_2013</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>21031.0</v>
+        <v>14190.0</v>
       </c>
       <c r="D8" t="n">
-        <v>234.45570989944426</v>
+        <v>125.66337898688195</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6396.0</v>
+        <v>10196.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.7155019027552412</v>
+        <v>62.14685075054604</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>10802.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D10" t="n">
-        <v>71.78406059311477</v>
+        <v>1.7155019027552412</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>10196.0</v>
+        <v>21031.0</v>
       </c>
       <c r="D11" t="n">
-        <v>62.14685075054604</v>
+        <v>234.45570989944426</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>7092.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D12" t="n">
-        <v>12.783980533824291</v>
+        <v>25.49046677839925</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>14190.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D13" t="n">
-        <v>125.66337898688195</v>
+        <v>71.78406059311477</v>
       </c>
     </row>
     <row r="14">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>7891.0</v>
+        <v>7092.0</v>
       </c>
       <c r="D15" t="n">
-        <v>25.49046677839925</v>
+        <v>12.783980533824291</v>
       </c>
     </row>
   </sheetData>
@@ -805,58 +805,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6559.0</v>
+        <v>6082.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.5965200862314213</v>
+        <v>-8.752864028732963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>7483.0</v>
+        <v>8327.0</v>
       </c>
       <c r="D9" t="n">
-        <v>12.266083274086032</v>
+        <v>24.928461235241798</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>8327.0</v>
+        <v>7483.0</v>
       </c>
       <c r="D10" t="n">
-        <v>24.928461235241798</v>
+        <v>12.266083274086032</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6082.0</v>
+        <v>6559.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.752864028732963</v>
+        <v>-1.5965200862314213</v>
       </c>
     </row>
   </sheetData>
@@ -949,16 +949,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1415.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D8" t="n">
-        <v>95.67587784810976</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
     <row r="9">
@@ -969,94 +969,94 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>52.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-92.8090843476313</v>
+        <v>43.81831304737396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>700.0</v>
+        <v>394.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.199212371959834</v>
+        <v>-45.51498524936025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1040.0</v>
+        <v>700.0</v>
       </c>
       <c r="D11" t="n">
-        <v>43.81831304737396</v>
+        <v>-3.199212371959834</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>737.0</v>
+        <v>52.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.9174006883794317</v>
+        <v>-92.8090843476313</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1523.0</v>
+        <v>502.0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.61085651072167</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>502.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.58000658674834</v>
+        <v>95.67587784810976</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>394.0</v>
+        <v>737.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-45.51498524936025</v>
+        <v>1.9174006883794317</v>
       </c>
     </row>
   </sheetData>
@@ -1149,100 +1149,100 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1145.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D8" t="n">
-        <v>58.338431191579986</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>502.0</v>
+        <v>749.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.58000658674834</v>
+        <v>3.5768427620029772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>124.0</v>
+        <v>502.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-82.85243190589003</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>749.0</v>
+        <v>124.0</v>
       </c>
       <c r="D11" t="n">
-        <v>3.5768427620029772</v>
+        <v>-82.85243190589003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>485.0</v>
+        <v>179.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-32.93088285771503</v>
+        <v>-75.24665573511544</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1523.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.61085651072167</v>
+        <v>58.338431191579986</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>179.0</v>
+        <v>485.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-75.24665573511544</v>
+        <v>-32.93088285771503</v>
       </c>
     </row>
   </sheetData>
@@ -1345,44 +1345,44 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>705.0</v>
+        <v>694.0</v>
       </c>
       <c r="D10" t="n">
-        <v>18.016900104411395</v>
+        <v>16.17550166306597</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>694.0</v>
+        <v>687.0</v>
       </c>
       <c r="D11" t="n">
-        <v>16.17550166306597</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D12" t="n">
-        <v>15.003702654937063</v>
+        <v>18.016900104411395</v>
       </c>
     </row>
     <row r="13">
@@ -1417,44 +1417,44 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>705.0</v>
+        <v>694.0</v>
       </c>
       <c r="D17" t="n">
-        <v>18.016900104411395</v>
+        <v>16.17550166306597</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>694.0</v>
+        <v>687.0</v>
       </c>
       <c r="D18" t="n">
-        <v>16.17550166306597</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D19" t="n">
-        <v>15.003702654937063</v>
+        <v>18.016900104411395</v>
       </c>
     </row>
     <row r="20">
@@ -1591,44 +1591,44 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D11" t="n">
-        <v>13.19860779732021</v>
+        <v>25.116267589116617</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3265.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D12" t="n">
-        <v>25.116267589116617</v>
+        <v>32.51211434093882</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3458.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.51211434093882</v>
+        <v>13.19860779732021</v>
       </c>
     </row>
     <row r="14">
@@ -1663,44 +1663,44 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D18" t="n">
-        <v>13.19860779732021</v>
+        <v>25.116267589116617</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>3265.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D19" t="n">
-        <v>25.116267589116617</v>
+        <v>32.51211434093882</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>3458.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D20" t="n">
-        <v>32.51211434093882</v>
+        <v>13.19860779732021</v>
       </c>
     </row>
     <row r="21">
@@ -1814,7 +1814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -358,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>62876.30628779709</v>
+        <v>63803.75951503964</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>56588.675659017375</v>
+        <v>57423.38356353567</v>
       </c>
     </row>
     <row r="8">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>11633.190117226004</v>
+        <v>11804.618883255589</v>
       </c>
     </row>
     <row r="10">
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>54778.116170571084</v>
+        <v>55639.14063178405</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>51243.116170571084</v>
+        <v>51999.14063178406</v>
       </c>
     </row>
     <row r="12">
@@ -424,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>17035.0</v>
+        <v>17640.0</v>
       </c>
     </row>
     <row r="13">
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>13500.0</v>
+        <v>14000.0</v>
       </c>
     </row>
     <row r="14">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>37743.11617057109</v>
+        <v>37999.14063178406</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>36969.622526539715</v>
+        <v>37221.01383961456</v>
       </c>
     </row>
     <row r="16">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>314.40635303136366</v>
+        <v>319.0395011694843</v>
       </c>
     </row>
     <row r="17">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>2020.9499999999998</v>
+        <v>2095.8</v>
       </c>
     </row>
     <row r="19">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>35263.0788795711</v>
+        <v>35444.25334078406</v>
       </c>
     </row>
     <row r="20">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>20602.655422083808</v>
+        <v>20734.557685951215</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6288.127060627273</v>
+        <v>6380.790023389685</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8132.166666666666</v>
+        <v>8157.5</v>
       </c>
       <c r="D3" t="n">
-        <v>29.325737032028755</v>
+        <v>27.84467080247952</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>8132.166666666666</v>
+        <v>8157.499999999999</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
         <v>21031.0</v>
       </c>
       <c r="D8" t="n">
-        <v>234.45570989944426</v>
+        <v>229.5986848479249</v>
       </c>
     </row>
     <row r="9">
@@ -628,7 +628,7 @@
         <v>6396.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.7155019027552412</v>
+        <v>0.23837137023096489</v>
       </c>
     </row>
     <row r="10">
@@ -642,7 +642,7 @@
         <v>10802.0</v>
       </c>
       <c r="D10" t="n">
-        <v>71.78406059311477</v>
+        <v>69.28938204209426</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>10196.0</v>
+        <v>10244.0</v>
       </c>
       <c r="D11" t="n">
-        <v>62.14685075054604</v>
+        <v>60.54438341410976</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>7092.0</v>
+        <v>7149.0</v>
       </c>
       <c r="D12" t="n">
-        <v>12.783980533824291</v>
+        <v>12.03941790584446</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>14190.0</v>
+        <v>14388.0</v>
       </c>
       <c r="D13" t="n">
-        <v>125.66337898688195</v>
+        <v>125.48931946136383</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>6416.0</v>
+        <v>6463.0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.0335616335330875</v>
+        <v>1.2883980872111829</v>
       </c>
     </row>
     <row r="15">
@@ -712,7 +712,7 @@
         <v>7891.0</v>
       </c>
       <c r="D15" t="n">
-        <v>25.49046677839925</v>
+        <v>23.668071995386576</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6665.414684264909</v>
+        <v>6763.637424793066</v>
       </c>
     </row>
     <row r="3">
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>7112.75</v>
+        <v>7181.25</v>
       </c>
       <c r="D3" t="n">
-        <v>6.711290098590839</v>
+        <v>6.174378503438334</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>7112.749999999999</v>
+        <v>7181.249999999999</v>
       </c>
     </row>
     <row r="6">
@@ -811,10 +811,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6559.0</v>
+        <v>6631.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.5965200862314213</v>
+        <v>-1.9610368868512102</v>
       </c>
     </row>
     <row r="9">
@@ -825,10 +825,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>7483.0</v>
+        <v>7561.0</v>
       </c>
       <c r="D9" t="n">
-        <v>12.266083274086032</v>
+        <v>11.78896095589172</v>
       </c>
     </row>
     <row r="10">
@@ -839,10 +839,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>8327.0</v>
+        <v>8395.0</v>
       </c>
       <c r="D10" t="n">
-        <v>24.928461235241798</v>
+        <v>24.119604182609574</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6082.0</v>
+        <v>6138.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.752864028732963</v>
+        <v>-9.250014237896657</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>723.1346119721363</v>
+        <v>733.7908526898138</v>
       </c>
     </row>
     <row r="3">
@@ -909,10 +909,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>795.375</v>
+        <v>796.625</v>
       </c>
       <c r="D3" t="n">
-        <v>9.989894942360628</v>
+        <v>8.562950475582888</v>
       </c>
     </row>
     <row r="4">
@@ -934,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>795.3749999999999</v>
+        <v>796.6249999999999</v>
       </c>
     </row>
     <row r="6">
@@ -958,7 +958,7 @@
         <v>1415.0</v>
       </c>
       <c r="D8" t="n">
-        <v>95.67587784810976</v>
+        <v>92.83423809565326</v>
       </c>
     </row>
     <row r="9">
@@ -972,7 +972,7 @@
         <v>52.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-92.8090843476313</v>
+        <v>-92.91351209825162</v>
       </c>
     </row>
     <row r="10">
@@ -986,7 +986,7 @@
         <v>700.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.199212371959834</v>
+        <v>-4.604970553387074</v>
       </c>
     </row>
     <row r="11">
@@ -1000,7 +1000,7 @@
         <v>1040.0</v>
       </c>
       <c r="D11" t="n">
-        <v>43.81831304737396</v>
+        <v>41.72975803496778</v>
       </c>
     </row>
     <row r="12">
@@ -1014,7 +1014,7 @@
         <v>737.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.9174006883794317</v>
+        <v>0.4373381459338955</v>
       </c>
     </row>
     <row r="13">
@@ -1028,7 +1028,7 @@
         <v>1523.0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.61085651072167</v>
+        <v>107.55232835313069</v>
       </c>
     </row>
     <row r="14">
@@ -1039,10 +1039,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>502.0</v>
+        <v>507.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.58000658674834</v>
+        <v>-30.906742957953206</v>
       </c>
     </row>
     <row r="15">
@@ -1053,10 +1053,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>394.0</v>
+        <v>399.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-45.51498524936025</v>
+        <v>-45.624833215430634</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>723.1346119721363</v>
+        <v>733.7908526898138</v>
       </c>
     </row>
     <row r="3">
@@ -1109,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>672.4285714285713</v>
+        <v>673.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.011978088737747</v>
+        <v>-8.284493117756428</v>
       </c>
     </row>
     <row r="4">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>672.4285714285713</v>
+        <v>672.9999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1158,7 +1158,7 @@
         <v>1145.0</v>
       </c>
       <c r="D8" t="n">
-        <v>58.338431191579986</v>
+        <v>56.039012451959714</v>
       </c>
     </row>
     <row r="9">
@@ -1172,7 +1172,7 @@
         <v>502.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.58000658674834</v>
+        <v>-31.588136025429016</v>
       </c>
     </row>
     <row r="10">
@@ -1186,7 +1186,7 @@
         <v>124.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-82.85243190589003</v>
+        <v>-83.10145192659999</v>
       </c>
     </row>
     <row r="11">
@@ -1200,7 +1200,7 @@
         <v>749.0</v>
       </c>
       <c r="D11" t="n">
-        <v>3.5768427620029772</v>
+        <v>2.0726815078758314</v>
       </c>
     </row>
     <row r="12">
@@ -1211,10 +1211,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>485.0</v>
+        <v>488.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-32.93088285771503</v>
+        <v>-33.49603661436127</v>
       </c>
     </row>
     <row r="13">
@@ -1228,7 +1228,7 @@
         <v>1523.0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.61085651072167</v>
+        <v>107.55232835313069</v>
       </c>
     </row>
     <row r="14">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>179.0</v>
+        <v>180.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-75.24665573511544</v>
+        <v>-75.46984957087096</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1194.7441415191815</v>
+        <v>1212.35010444404</v>
       </c>
     </row>
     <row r="3">
@@ -1298,7 +1298,7 @@
         <v>1390.6666666666665</v>
       </c>
       <c r="D3" t="n">
-        <v>16.398701474138132</v>
+        <v>14.708338917032469</v>
       </c>
     </row>
     <row r="4">
@@ -1354,7 +1354,7 @@
         <v>705.0</v>
       </c>
       <c r="D10" t="n">
-        <v>18.016900104411395</v>
+        <v>16.303037780212705</v>
       </c>
     </row>
     <row r="11">
@@ -1368,7 +1368,7 @@
         <v>694.0</v>
       </c>
       <c r="D11" t="n">
-        <v>16.17550166306597</v>
+        <v>14.488380453145556</v>
       </c>
     </row>
     <row r="12">
@@ -1382,7 +1382,7 @@
         <v>687.0</v>
       </c>
       <c r="D12" t="n">
-        <v>15.003702654937063</v>
+        <v>13.333598517739189</v>
       </c>
     </row>
     <row r="13">
@@ -1426,7 +1426,7 @@
         <v>705.0</v>
       </c>
       <c r="D17" t="n">
-        <v>18.016900104411395</v>
+        <v>16.303037780212705</v>
       </c>
     </row>
     <row r="18">
@@ -1440,7 +1440,7 @@
         <v>694.0</v>
       </c>
       <c r="D18" t="n">
-        <v>16.17550166306597</v>
+        <v>14.488380453145556</v>
       </c>
     </row>
     <row r="19">
@@ -1454,7 +1454,7 @@
         <v>687.0</v>
       </c>
       <c r="D19" t="n">
-        <v>15.003702654937063</v>
+        <v>13.333598517739189</v>
       </c>
     </row>
     <row r="20">
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5219.145460320637</v>
+        <v>5296.055719413439</v>
       </c>
     </row>
     <row r="3">
@@ -1535,7 +1535,7 @@
         <v>6451.333333333332</v>
       </c>
       <c r="D3" t="n">
-        <v>23.60899657579186</v>
+        <v>21.81392483627129</v>
       </c>
     </row>
     <row r="4">
@@ -1600,7 +1600,7 @@
         <v>2954.0</v>
       </c>
       <c r="D11" t="n">
-        <v>13.19860779732021</v>
+        <v>11.554717567328343</v>
       </c>
     </row>
     <row r="12">
@@ -1614,7 +1614,7 @@
         <v>3265.0</v>
       </c>
       <c r="D12" t="n">
-        <v>25.116267589116617</v>
+        <v>23.299306993001704</v>
       </c>
     </row>
     <row r="13">
@@ -1628,7 +1628,7 @@
         <v>3458.0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.51211434093882</v>
+        <v>30.58774994848389</v>
       </c>
     </row>
     <row r="14">
@@ -1672,7 +1672,7 @@
         <v>2954.0</v>
       </c>
       <c r="D18" t="n">
-        <v>13.19860779732021</v>
+        <v>11.554717567328343</v>
       </c>
     </row>
     <row r="19">
@@ -1686,7 +1686,7 @@
         <v>3265.0</v>
       </c>
       <c r="D19" t="n">
-        <v>25.116267589116617</v>
+        <v>23.299306993001704</v>
       </c>
     </row>
     <row r="20">
@@ -1700,7 +1700,7 @@
         <v>3458.0</v>
       </c>
       <c r="D20" t="n">
-        <v>32.51211434093882</v>
+        <v>30.58774994848389</v>
       </c>
     </row>
     <row r="21">
@@ -1758,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2578.132094857182</v>
+        <v>2616.123909589771</v>
       </c>
     </row>
     <row r="3">
@@ -1769,10 +1769,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2499.2685173219097</v>
+        <v>2535.5160192845633</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.0589424681764017</v>
+        <v>-3.081195428463017</v>
       </c>
     </row>
     <row r="4">
@@ -1794,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2499.2685173219093</v>
+        <v>2535.516019284563</v>
       </c>
     </row>
     <row r="6">
@@ -1820,10 +1820,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2499.2685173219097</v>
+        <v>2535.5160192845633</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.0589424681764026</v>
+        <v>-3.0811954284630008</v>
       </c>
     </row>
     <row r="10">
@@ -1839,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>386.729549170154</v>
+        <v>391.42357705513115</v>
       </c>
     </row>
     <row r="12">
@@ -1855,7 +1855,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2112.5389681517563</v>
+        <v>2144.092442229433</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>8551.852802453091</v>
+        <v>8677.874431809973</v>
       </c>
     </row>
     <row r="3">
@@ -1908,10 +1908,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8209.090124153976</v>
+        <v>8258.362321499524</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.00805166104818</v>
+        <v>-4.834272650600571</v>
       </c>
     </row>
     <row r="4">
@@ -1922,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>8209.090124153974</v>
+        <v>8258.362321499524</v>
       </c>
     </row>
     <row r="5">
@@ -1948,10 +1948,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8209.090124153976</v>
+        <v>8258.362321499524</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.00805166104815</v>
+        <v>-4.834272650600542</v>
       </c>
     </row>
     <row r="9">
@@ -1972,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>329.5722550152342</v>
+        <v>336.84274966573867</v>
       </c>
     </row>
     <row r="12">
@@ -1994,7 +1994,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>329.57225501523413</v>
+        <v>336.8427496657386</v>
       </c>
     </row>
     <row r="14">
@@ -2058,7 +2058,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1030.8432141307385</v>
+        <v>1033.7781352913976</v>
       </c>
     </row>
     <row r="22">
@@ -2080,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>1030.8432141307383</v>
+        <v>1033.7781352913973</v>
       </c>
     </row>
     <row r="24">
@@ -2101,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>528.9794736539732</v>
+        <v>531.6934489063985</v>
       </c>
     </row>
     <row r="27">
@@ -2123,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>528.9794736539731</v>
+        <v>531.6934489063984</v>
       </c>
     </row>
     <row r="29">
@@ -2187,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>777.495132217799</v>
+        <v>785.1150819159232</v>
       </c>
     </row>
     <row r="37">
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>777.4951322177989</v>
+        <v>785.115081915923</v>
       </c>
     </row>
     <row r="39">
@@ -2230,7 +2230,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>3293.1360915880978</v>
+        <v>3321.868948171935</v>
       </c>
     </row>
     <row r="42">
@@ -2252,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>3293.1360915880973</v>
+        <v>3321.8689481719343</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -118,25 +118,25 @@
     <t>JENKINSON</t>
   </si>
   <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
     <t>SADRAEY</t>
   </si>
   <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
     <t>NICOLAI_1984</t>
   </si>
   <si>
-    <t>KROO</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
     <t>RAYMER</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6396.0</v>
+        <v>7149.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.24176597168341904</v>
+        <v>12.043212153152714</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>10802.0</v>
+        <v>14388.0</v>
       </c>
       <c r="D10" t="n">
-        <v>69.29511507600442</v>
+        <v>125.4969557224173</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>10243.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D11" t="n">
-        <v>60.534147724820706</v>
+        <v>69.29511507600442</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>7149.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D12" t="n">
-        <v>12.043212153152714</v>
+        <v>23.67226005043056</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>14388.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D13" t="n">
-        <v>125.4969557224173</v>
+        <v>0.24176597168341904</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>6463.0</v>
+        <v>10243.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.291828248122254</v>
+        <v>60.534147724820706</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>7891.0</v>
+        <v>6463.0</v>
       </c>
       <c r="D15" t="n">
-        <v>23.67226005043056</v>
+        <v>1.291828248122254</v>
       </c>
     </row>
   </sheetData>
@@ -805,16 +805,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6631.0</v>
+        <v>7561.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.9577167689958312</v>
+        <v>11.792746721402883</v>
       </c>
     </row>
     <row r="9">
@@ -825,15 +825,15 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>7561.0</v>
+        <v>6138.0</v>
       </c>
       <c r="D9" t="n">
-        <v>11.792746721402883</v>
+        <v>-9.246940963368484</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -847,16 +847,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6138.0</v>
+        <v>6631.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.246940963368484</v>
+        <v>-1.9577167689958312</v>
       </c>
     </row>
   </sheetData>
@@ -949,44 +949,44 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1415.0</v>
+        <v>700.0</v>
       </c>
       <c r="D8" t="n">
-        <v>92.84076848292686</v>
+        <v>-4.601739973110383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>52.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-92.91327211228821</v>
+        <v>92.84076848292686</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>700.0</v>
+        <v>399.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.601739973110383</v>
+        <v>-45.62299178467292</v>
       </c>
     </row>
     <row r="11">
@@ -997,29 +997,29 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1040.0</v>
+        <v>737.0</v>
       </c>
       <c r="D11" t="n">
-        <v>41.734557754236</v>
+        <v>0.4407394854537826</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>737.0</v>
+        <v>52.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4407394854537826</v>
+        <v>-92.91327211228821</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1033,30 +1033,30 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>507.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.904403094809947</v>
+        <v>41.734557754236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>399.0</v>
+        <v>507.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-45.62299178467292</v>
+        <v>-30.904403094809947</v>
       </c>
     </row>
   </sheetData>
@@ -1149,72 +1149,72 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1145.0</v>
+        <v>502.0</v>
       </c>
       <c r="D8" t="n">
-        <v>56.04429675826945</v>
+        <v>-31.58581923785916</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>502.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-31.58581923785916</v>
+        <v>56.04429675826945</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>124.0</v>
+        <v>488.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-83.10087965237955</v>
+        <v>-33.49378443839695</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>749.0</v>
+        <v>124.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.07613822877189</v>
+        <v>-83.10087965237955</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>488.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-33.49378443839695</v>
+        <v>107.55935717278983</v>
       </c>
     </row>
     <row r="13">
@@ -1225,15 +1225,15 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1523.0</v>
+        <v>749.0</v>
       </c>
       <c r="D13" t="n">
-        <v>107.55935717278983</v>
+        <v>2.07613822877189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1591,35 +1591,35 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D11" t="n">
-        <v>11.558495400119368</v>
+        <v>23.303482559712165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D12" t="n">
-        <v>23.303482559712165</v>
+        <v>11.558495400119368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1663,35 +1663,35 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D18" t="n">
-        <v>11.558495400119368</v>
+        <v>23.303482559712165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D19" t="n">
-        <v>23.303482559712165</v>
+        <v>11.558495400119368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,28 +115,28 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
     <t>JENKINSON</t>
   </si>
   <si>
-    <t>NICOLAI_1984</t>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
   </si>
   <si>
     <t>TORENBEEK_2013</t>
   </si>
   <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
     <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
-  </si>
-  <si>
-    <t>KROO</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>21031.0</v>
+        <v>10243.0</v>
       </c>
       <c r="D8" t="n">
-        <v>229.6098468027633</v>
+        <v>60.534147724820706</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>10243.0</v>
+        <v>6463.0</v>
       </c>
       <c r="D9" t="n">
-        <v>60.534147724820706</v>
+        <v>1.291828248122254</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7891.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D10" t="n">
-        <v>23.67226005043056</v>
+        <v>0.24176597168341904</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>10802.0</v>
+        <v>21031.0</v>
       </c>
       <c r="D11" t="n">
-        <v>69.29511507600442</v>
+        <v>229.6098468027633</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>14388.0</v>
+        <v>7149.0</v>
       </c>
       <c r="D12" t="n">
-        <v>125.4969557224173</v>
+        <v>12.043212153152714</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>6396.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.24176597168341904</v>
+        <v>69.29511507600442</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>6463.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.291828248122254</v>
+        <v>23.67226005043056</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>7149.0</v>
+        <v>14388.0</v>
       </c>
       <c r="D15" t="n">
-        <v>12.043212153152714</v>
+        <v>125.4969557224173</v>
       </c>
     </row>
   </sheetData>
@@ -805,58 +805,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6138.0</v>
+        <v>6631.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.246940963368484</v>
+        <v>-1.9577167689958312</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6631.0</v>
+        <v>8394.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.9577167689958312</v>
+        <v>24.1090220843084</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>8394.0</v>
+        <v>7561.0</v>
       </c>
       <c r="D10" t="n">
-        <v>24.1090220843084</v>
+        <v>11.792746721402883</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>7561.0</v>
+        <v>6138.0</v>
       </c>
       <c r="D11" t="n">
-        <v>11.792746721402883</v>
+        <v>-9.246940963368484</v>
       </c>
     </row>
   </sheetData>
@@ -949,30 +949,30 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>700.0</v>
+        <v>507.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.601739973110383</v>
+        <v>-30.904403094809947</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1415.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D9" t="n">
-        <v>92.84076848292686</v>
+        <v>41.734557754236</v>
       </c>
     </row>
     <row r="10">
@@ -983,80 +983,80 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>52.0</v>
+        <v>700.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-92.91327211228821</v>
+        <v>-4.601739973110383</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1523.0</v>
+        <v>52.0</v>
       </c>
       <c r="D11" t="n">
-        <v>107.55935717278983</v>
+        <v>-92.91327211228821</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>399.0</v>
+        <v>737.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-45.62299178467292</v>
+        <v>0.4407394854537826</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1040.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D13" t="n">
-        <v>41.734557754236</v>
+        <v>92.84076848292686</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>507.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.904403094809947</v>
+        <v>107.55935717278983</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>737.0</v>
+        <v>399.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4407394854537826</v>
+        <v>-45.62299178467292</v>
       </c>
     </row>
   </sheetData>
@@ -1149,30 +1149,30 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>502.0</v>
+        <v>180.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-31.58581923785916</v>
+        <v>-75.46901885022838</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1145.0</v>
+        <v>749.0</v>
       </c>
       <c r="D9" t="n">
-        <v>56.04429675826945</v>
+        <v>2.07613822877189</v>
       </c>
     </row>
     <row r="10">
@@ -1183,52 +1183,52 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>124.0</v>
+        <v>502.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-83.10087965237955</v>
+        <v>-31.58581923785916</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1523.0</v>
+        <v>124.0</v>
       </c>
       <c r="D11" t="n">
-        <v>107.55935717278983</v>
+        <v>-83.10087965237955</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>749.0</v>
+        <v>488.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2.07613822877189</v>
+        <v>-33.49378443839695</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>180.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-75.46901885022838</v>
+        <v>56.04429675826945</v>
       </c>
     </row>
     <row r="14">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>488.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-33.49378443839695</v>
+        <v>107.55935717278983</v>
       </c>
     </row>
   </sheetData>
@@ -1345,44 +1345,44 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>704.0</v>
+        <v>694.0</v>
       </c>
       <c r="D10" t="n">
-        <v>16.142001981608797</v>
+        <v>14.492257635279127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>687.0</v>
+        <v>704.0</v>
       </c>
       <c r="D11" t="n">
-        <v>13.337436592848357</v>
+        <v>16.142001981608797</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>694.0</v>
+        <v>687.0</v>
       </c>
       <c r="D12" t="n">
-        <v>14.492257635279127</v>
+        <v>13.337436592848357</v>
       </c>
     </row>
     <row r="13">
@@ -1417,44 +1417,44 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>704.0</v>
+        <v>694.0</v>
       </c>
       <c r="D17" t="n">
-        <v>16.142001981608797</v>
+        <v>14.492257635279127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>687.0</v>
+        <v>704.0</v>
       </c>
       <c r="D18" t="n">
-        <v>13.337436592848357</v>
+        <v>16.142001981608797</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>694.0</v>
+        <v>687.0</v>
       </c>
       <c r="D19" t="n">
-        <v>14.492257635279127</v>
+        <v>13.337436592848357</v>
       </c>
     </row>
     <row r="20">
@@ -1591,21 +1591,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3457.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D11" t="n">
-        <v>30.55440710839968</v>
+        <v>23.303482559712165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1619,16 +1619,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3265.0</v>
+        <v>3457.0</v>
       </c>
       <c r="D13" t="n">
-        <v>23.303482559712165</v>
+        <v>30.55440710839968</v>
       </c>
     </row>
     <row r="14">
@@ -1663,21 +1663,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3457.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D18" t="n">
-        <v>30.55440710839968</v>
+        <v>23.303482559712165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1691,16 +1691,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>3265.0</v>
+        <v>3457.0</v>
       </c>
       <c r="D20" t="n">
-        <v>23.303482559712165</v>
+        <v>30.55440710839968</v>
       </c>
     </row>
     <row r="21">
@@ -1814,7 +1814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,37 +115,37 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
     <t>NICOLAI_1984</t>
   </si>
   <si>
-    <t>RAYMER</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
+    <t>TORENBEEK_2013</t>
   </si>
   <si>
     <t>KROO</t>
   </si>
   <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
     <t>ROSKAM</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>NICOLAI_2013</t>
+  </si>
+  <si>
     <t>HOWE</t>
-  </si>
-  <si>
-    <t>NICOLAI_2013</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>10243.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D8" t="n">
-        <v>60.534147724820706</v>
+        <v>0.24176597168341904</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6463.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.291828248122254</v>
+        <v>69.29511507600442</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6396.0</v>
+        <v>6463.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.24176597168341904</v>
+        <v>1.291828248122254</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>7149.0</v>
+        <v>10243.0</v>
       </c>
       <c r="D12" t="n">
-        <v>12.043212153152714</v>
+        <v>60.534147724820706</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>10802.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D13" t="n">
-        <v>69.29511507600442</v>
+        <v>23.67226005043056</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>7891.0</v>
+        <v>7149.0</v>
       </c>
       <c r="D14" t="n">
-        <v>23.67226005043056</v>
+        <v>12.043212153152714</v>
       </c>
     </row>
     <row r="15">
@@ -805,44 +805,44 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6631.0</v>
+        <v>8394.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.9577167689958312</v>
+        <v>24.1090220843084</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>8394.0</v>
+        <v>6631.0</v>
       </c>
       <c r="D9" t="n">
-        <v>24.1090220843084</v>
+        <v>-1.9577167689958312</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7561.0</v>
+        <v>6138.0</v>
       </c>
       <c r="D10" t="n">
-        <v>11.792746721402883</v>
+        <v>-9.246940963368484</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6138.0</v>
+        <v>7561.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.246940963368484</v>
+        <v>11.792746721402883</v>
       </c>
     </row>
   </sheetData>
@@ -955,15 +955,15 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>507.0</v>
+        <v>52.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-30.904403094809947</v>
+        <v>-92.91327211228821</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -977,49 +977,49 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>700.0</v>
+        <v>507.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.601739973110383</v>
+        <v>-30.904403094809947</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>52.0</v>
+        <v>700.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-92.91327211228821</v>
+        <v>-4.601739973110383</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>737.0</v>
+        <v>399.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4407394854537826</v>
+        <v>-45.62299178467292</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1033,30 +1033,30 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1523.0</v>
+        <v>737.0</v>
       </c>
       <c r="D14" t="n">
-        <v>107.55935717278983</v>
+        <v>0.4407394854537826</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>399.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-45.62299178467292</v>
+        <v>107.55935717278983</v>
       </c>
     </row>
   </sheetData>
@@ -1155,15 +1155,15 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>180.0</v>
+        <v>124.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-75.46901885022838</v>
+        <v>-83.10087965237955</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1177,58 +1177,58 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>502.0</v>
+        <v>180.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-31.58581923785916</v>
+        <v>-75.46901885022838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>124.0</v>
+        <v>502.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-83.10087965237955</v>
+        <v>-31.58581923785916</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>488.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-33.49378443839695</v>
+        <v>56.04429675826945</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1145.0</v>
+        <v>488.0</v>
       </c>
       <c r="D13" t="n">
-        <v>56.04429675826945</v>
+        <v>-33.49378443839695</v>
       </c>
     </row>
     <row r="14">
@@ -1591,35 +1591,35 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D11" t="n">
-        <v>23.303482559712165</v>
+        <v>11.558495400119368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D12" t="n">
-        <v>11.558495400119368</v>
+        <v>23.303482559712165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1663,35 +1663,35 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D18" t="n">
-        <v>23.303482559712165</v>
+        <v>11.558495400119368</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D19" t="n">
-        <v>11.558495400119368</v>
+        <v>23.303482559712165</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -115,37 +115,37 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
     <t>SADRAEY</t>
   </si>
   <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
     <t>TORENBEEK_1976</t>
   </si>
   <si>
     <t>RAYMER</t>
   </si>
   <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
+    <t>ROSKAM</t>
   </si>
   <si>
     <t>KROO</t>
   </si>
   <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>HOWE</t>
+  </si>
+  <si>
     <t>NICOLAI_2013</t>
-  </si>
-  <si>
-    <t>HOWE</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6396.0</v>
+        <v>21031.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.24176597168341904</v>
+        <v>229.6098468027633</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>10802.0</v>
+        <v>10243.0</v>
       </c>
       <c r="D9" t="n">
-        <v>69.29511507600442</v>
+        <v>60.534147724820706</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6463.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.291828248122254</v>
+        <v>0.24176597168341904</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>21031.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D11" t="n">
-        <v>229.6098468027633</v>
+        <v>23.67226005043056</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>10243.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D12" t="n">
-        <v>60.534147724820706</v>
+        <v>69.29511507600442</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>7891.0</v>
+        <v>6463.0</v>
       </c>
       <c r="D13" t="n">
-        <v>23.67226005043056</v>
+        <v>1.291828248122254</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>7149.0</v>
+        <v>14388.0</v>
       </c>
       <c r="D14" t="n">
-        <v>12.043212153152714</v>
+        <v>125.4969557224173</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>14388.0</v>
+        <v>7149.0</v>
       </c>
       <c r="D15" t="n">
-        <v>125.4969557224173</v>
+        <v>12.043212153152714</v>
       </c>
     </row>
   </sheetData>
@@ -805,30 +805,30 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8394.0</v>
+        <v>6631.0</v>
       </c>
       <c r="D8" t="n">
-        <v>24.1090220843084</v>
+        <v>-1.9577167689958312</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6631.0</v>
+        <v>6138.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.9577167689958312</v>
+        <v>-9.246940963368484</v>
       </c>
     </row>
     <row r="10">
@@ -839,15 +839,15 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6138.0</v>
+        <v>8394.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-9.246940963368484</v>
+        <v>24.1090220843084</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -949,91 +949,91 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>52.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-92.91327211228821</v>
+        <v>92.84076848292686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1040.0</v>
+        <v>399.0</v>
       </c>
       <c r="D9" t="n">
-        <v>41.734557754236</v>
+        <v>-45.62299178467292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>507.0</v>
+        <v>700.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-30.904403094809947</v>
+        <v>-4.601739973110383</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>700.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.601739973110383</v>
+        <v>41.734557754236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>399.0</v>
+        <v>52.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-45.62299178467292</v>
+        <v>-92.91327211228821</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1415.0</v>
+        <v>507.0</v>
       </c>
       <c r="D13" t="n">
-        <v>92.84076848292686</v>
+        <v>-30.904403094809947</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1149,16 +1149,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>124.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-83.10087965237955</v>
+        <v>56.04429675826945</v>
       </c>
     </row>
     <row r="9">
@@ -1169,10 +1169,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>749.0</v>
+        <v>502.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.07613822877189</v>
+        <v>-31.58581923785916</v>
       </c>
     </row>
     <row r="10">
@@ -1183,38 +1183,38 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>180.0</v>
+        <v>749.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-75.46901885022838</v>
+        <v>2.07613822877189</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>502.0</v>
+        <v>124.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-31.58581923785916</v>
+        <v>-83.10087965237955</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1145.0</v>
+        <v>180.0</v>
       </c>
       <c r="D12" t="n">
-        <v>56.04429675826945</v>
+        <v>-75.46901885022838</v>
       </c>
     </row>
     <row r="13">
@@ -1225,10 +1225,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>488.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-33.49378443839695</v>
+        <v>107.55935717278983</v>
       </c>
     </row>
     <row r="14">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1523.0</v>
+        <v>488.0</v>
       </c>
       <c r="D14" t="n">
-        <v>107.55935717278983</v>
+        <v>-33.49378443839695</v>
       </c>
     </row>
   </sheetData>
@@ -1345,44 +1345,44 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>694.0</v>
+        <v>704.0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.492257635279127</v>
+        <v>16.142001981608797</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>704.0</v>
+        <v>687.0</v>
       </c>
       <c r="D11" t="n">
-        <v>16.142001981608797</v>
+        <v>13.337436592848357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>687.0</v>
+        <v>694.0</v>
       </c>
       <c r="D12" t="n">
-        <v>13.337436592848357</v>
+        <v>14.492257635279127</v>
       </c>
     </row>
     <row r="13">
@@ -1417,44 +1417,44 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>694.0</v>
+        <v>704.0</v>
       </c>
       <c r="D17" t="n">
-        <v>14.492257635279127</v>
+        <v>16.142001981608797</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>704.0</v>
+        <v>687.0</v>
       </c>
       <c r="D18" t="n">
-        <v>16.142001981608797</v>
+        <v>13.337436592848357</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>687.0</v>
+        <v>694.0</v>
       </c>
       <c r="D19" t="n">
-        <v>13.337436592848357</v>
+        <v>14.492257635279127</v>
       </c>
     </row>
     <row r="20">
@@ -1591,44 +1591,44 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2954.0</v>
+        <v>3457.0</v>
       </c>
       <c r="D11" t="n">
-        <v>11.558495400119368</v>
+        <v>30.55440710839968</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D12" t="n">
-        <v>23.303482559712165</v>
+        <v>11.558495400119368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3457.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D13" t="n">
-        <v>30.55440710839968</v>
+        <v>23.303482559712165</v>
       </c>
     </row>
     <row r="14">
@@ -1663,44 +1663,44 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>2954.0</v>
+        <v>3457.0</v>
       </c>
       <c r="D18" t="n">
-        <v>11.558495400119368</v>
+        <v>30.55440710839968</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D19" t="n">
-        <v>23.303482559712165</v>
+        <v>11.558495400119368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>3457.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D20" t="n">
-        <v>30.55440710839968</v>
+        <v>23.303482559712165</v>
       </c>
     </row>
     <row r="21">
@@ -1814,7 +1814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300/WEIGHTS/Weights.xlsx
@@ -358,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>63801.39240103823</v>
+        <v>63840.73013384652</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>57421.25316093441</v>
+        <v>57456.65712046187</v>
       </c>
     </row>
     <row r="8">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>11804.219129958965</v>
+        <v>11811.504388009664</v>
       </c>
     </row>
     <row r="10">
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>55637.17327107927</v>
+        <v>55669.22574583686</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>51997.17327107927</v>
+        <v>52029.22574583687</v>
       </c>
     </row>
     <row r="12">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>37997.17327107927</v>
+        <v>38029.22574583687</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>37219.05728290892</v>
+        <v>37250.91286142469</v>
       </c>
     </row>
     <row r="16">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>319.0286971703372</v>
+        <v>319.2255934121704</v>
       </c>
     </row>
     <row r="17">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>35442.28598007928</v>
+        <v>35474.33845483687</v>
       </c>
     </row>
     <row r="20">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>20733.38979152061</v>
+        <v>20763.048824670594</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6380.573943406745</v>
+        <v>6384.511868243408</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8157.333333333332</v>
+        <v>8158.333333333332</v>
       </c>
       <c r="D3" t="n">
-        <v>27.846388204035645</v>
+        <v>27.78319629904552</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>8157.333333333332</v>
+        <v>8158.333333333332</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
         <v>21031.0</v>
       </c>
       <c r="D8" t="n">
-        <v>229.6098468027633</v>
+        <v>229.40654562188683</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>10243.0</v>
+        <v>10245.0</v>
       </c>
       <c r="D9" t="n">
-        <v>60.534147724820706</v>
+        <v>60.46645712977179</v>
       </c>
     </row>
     <row r="10">
@@ -642,7 +642,7 @@
         <v>6396.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.24176597168341904</v>
+        <v>0.17993751117817416</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         <v>7891.0</v>
       </c>
       <c r="D11" t="n">
-        <v>23.67226005043056</v>
+        <v>23.595979815620225</v>
       </c>
     </row>
     <row r="12">
@@ -670,7 +670,7 @@
         <v>10802.0</v>
       </c>
       <c r="D12" t="n">
-        <v>69.29511507600442</v>
+        <v>69.1906949649385</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>6463.0</v>
+        <v>6465.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.291828248122254</v>
+        <v>1.2606779252293459</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>14388.0</v>
+        <v>14396.0</v>
       </c>
       <c r="D14" t="n">
-        <v>125.4969557224173</v>
+        <v>125.48317392290824</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>7149.0</v>
+        <v>7151.0</v>
       </c>
       <c r="D15" t="n">
-        <v>12.043212153152714</v>
+        <v>12.005430447535197</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6763.408380011148</v>
+        <v>6767.582580338012</v>
       </c>
     </row>
     <row r="3">
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>7181.0</v>
+        <v>7183.75</v>
       </c>
       <c r="D3" t="n">
-        <v>6.17427776833672</v>
+        <v>6.149425067543128</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>7180.999999999999</v>
+        <v>7183.749999999999</v>
       </c>
     </row>
     <row r="6">
@@ -811,10 +811,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6631.0</v>
+        <v>6634.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.9577167689958312</v>
+        <v>-1.9738596278989216</v>
       </c>
     </row>
     <row r="9">
@@ -825,10 +825,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6138.0</v>
+        <v>6140.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.246940963368484</v>
+        <v>-9.273364201884139</v>
       </c>
     </row>
     <row r="10">
@@ -839,10 +839,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>8394.0</v>
+        <v>8397.0</v>
       </c>
       <c r="D10" t="n">
-        <v>24.1090220843084</v>
+        <v>24.076801432700144</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>7561.0</v>
+        <v>7564.0</v>
       </c>
       <c r="D11" t="n">
-        <v>11.792746721402883</v>
+        <v>11.768122667255435</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>733.7660034917756</v>
+        <v>734.2188648479919</v>
       </c>
     </row>
     <row r="3">
@@ -912,7 +912,7 @@
         <v>796.625</v>
       </c>
       <c r="D3" t="n">
-        <v>8.56662699131563</v>
+        <v>8.49966381140701</v>
       </c>
     </row>
     <row r="4">
@@ -958,7 +958,7 @@
         <v>1415.0</v>
       </c>
       <c r="D8" t="n">
-        <v>92.84076848292686</v>
+        <v>92.72182556804131</v>
       </c>
     </row>
     <row r="9">
@@ -972,7 +972,7 @@
         <v>399.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-45.62299178467292</v>
+        <v>-45.65653116491273</v>
       </c>
     </row>
     <row r="10">
@@ -986,7 +986,7 @@
         <v>700.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.601739973110383</v>
+        <v>-4.660580991074963</v>
       </c>
     </row>
     <row r="11">
@@ -1000,7 +1000,7 @@
         <v>1040.0</v>
       </c>
       <c r="D11" t="n">
-        <v>41.734557754236</v>
+        <v>41.647136813260055</v>
       </c>
     </row>
     <row r="12">
@@ -1014,7 +1014,7 @@
         <v>52.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-92.91327211228821</v>
+        <v>-92.917643159337</v>
       </c>
     </row>
     <row r="13">
@@ -1028,7 +1028,7 @@
         <v>507.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.904403094809947</v>
+        <v>-30.94702080353572</v>
       </c>
     </row>
     <row r="14">
@@ -1042,7 +1042,7 @@
         <v>737.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4407394854537826</v>
+        <v>0.37878829939678926</v>
       </c>
     </row>
     <row r="15">
@@ -1056,7 +1056,7 @@
         <v>1523.0</v>
       </c>
       <c r="D15" t="n">
-        <v>107.55935717278983</v>
+        <v>107.43133592941832</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>733.7660034917756</v>
+        <v>734.2188648479919</v>
       </c>
     </row>
     <row r="3">
@@ -1112,7 +1112,7 @@
         <v>673.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.281387145576124</v>
+        <v>-8.337958581419214</v>
       </c>
     </row>
     <row r="4">
@@ -1158,7 +1158,7 @@
         <v>1145.0</v>
       </c>
       <c r="D8" t="n">
-        <v>56.04429675826945</v>
+        <v>55.94804966459881</v>
       </c>
     </row>
     <row r="9">
@@ -1172,7 +1172,7 @@
         <v>502.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-31.58581923785916</v>
+        <v>-31.62801665359947</v>
       </c>
     </row>
     <row r="10">
@@ -1186,7 +1186,7 @@
         <v>749.0</v>
       </c>
       <c r="D10" t="n">
-        <v>2.07613822877189</v>
+        <v>2.01317833954979</v>
       </c>
     </row>
     <row r="11">
@@ -1200,7 +1200,7 @@
         <v>124.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-83.10087965237955</v>
+        <v>-83.11130291841899</v>
       </c>
     </row>
     <row r="12">
@@ -1214,7 +1214,7 @@
         <v>180.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-75.46901885022838</v>
+        <v>-75.48414939770498</v>
       </c>
     </row>
     <row r="13">
@@ -1228,7 +1228,7 @@
         <v>1523.0</v>
       </c>
       <c r="D13" t="n">
-        <v>107.55935717278983</v>
+        <v>107.43133592941832</v>
       </c>
     </row>
     <row r="14">
@@ -1242,7 +1242,7 @@
         <v>488.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-33.49378443839695</v>
+        <v>-33.53480503377797</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1212.309049247281</v>
+        <v>1213.0572549662475</v>
       </c>
     </row>
     <row r="3">
@@ -1298,7 +1298,7 @@
         <v>1390.0</v>
       </c>
       <c r="D3" t="n">
-        <v>14.657232069912094</v>
+        <v>14.586512244937348</v>
       </c>
     </row>
     <row r="4">
@@ -1354,7 +1354,7 @@
         <v>704.0</v>
       </c>
       <c r="D10" t="n">
-        <v>16.142001981608797</v>
+        <v>16.07036636033946</v>
       </c>
     </row>
     <row r="11">
@@ -1368,7 +1368,7 @@
         <v>687.0</v>
       </c>
       <c r="D11" t="n">
-        <v>13.337436592848357</v>
+        <v>13.267530809024443</v>
       </c>
     </row>
     <row r="12">
@@ -1382,7 +1382,7 @@
         <v>694.0</v>
       </c>
       <c r="D12" t="n">
-        <v>14.492257635279127</v>
+        <v>14.421639565448274</v>
       </c>
     </row>
     <row r="13">
@@ -1426,7 +1426,7 @@
         <v>704.0</v>
       </c>
       <c r="D17" t="n">
-        <v>16.142001981608797</v>
+        <v>16.07036636033946</v>
       </c>
     </row>
     <row r="18">
@@ -1440,7 +1440,7 @@
         <v>687.0</v>
       </c>
       <c r="D18" t="n">
-        <v>13.337436592848357</v>
+        <v>13.267530809024443</v>
       </c>
     </row>
     <row r="19">
@@ -1454,7 +1454,7 @@
         <v>694.0</v>
       </c>
       <c r="D19" t="n">
-        <v>14.492257635279127</v>
+        <v>14.421639565448274</v>
       </c>
     </row>
     <row r="20">
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5295.876373027598</v>
+        <v>5299.144850642028</v>
       </c>
     </row>
     <row r="3">
@@ -1535,7 +1535,7 @@
         <v>6450.666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>21.80546168941039</v>
+        <v>21.7303328835241</v>
       </c>
     </row>
     <row r="4">
@@ -1600,7 +1600,7 @@
         <v>3457.0</v>
       </c>
       <c r="D11" t="n">
-        <v>30.55440710839968</v>
+        <v>30.47388201064785</v>
       </c>
     </row>
     <row r="12">
@@ -1614,7 +1614,7 @@
         <v>2954.0</v>
       </c>
       <c r="D12" t="n">
-        <v>11.558495400119368</v>
+        <v>11.489686855497178</v>
       </c>
     </row>
     <row r="13">
@@ -1628,7 +1628,7 @@
         <v>3265.0</v>
       </c>
       <c r="D13" t="n">
-        <v>23.303482559712165</v>
+        <v>23.227429784427315</v>
       </c>
     </row>
     <row r="14">
@@ -1672,7 +1672,7 @@
         <v>3457.0</v>
       </c>
       <c r="D18" t="n">
-        <v>30.55440710839968</v>
+        <v>30.47388201064785</v>
       </c>
     </row>
     <row r="19">
@@ -1686,7 +1686,7 @@
         <v>2954.0</v>
       </c>
       <c r="D19" t="n">
-        <v>11.558495400119368</v>
+        <v>11.489686855497178</v>
       </c>
     </row>
     <row r="20">
@@ -1700,7 +1700,7 @@
         <v>3265.0</v>
       </c>
       <c r="D20" t="n">
-        <v>23.303482559712165</v>
+        <v>23.227429784427315</v>
       </c>
     </row>
     <row r="21">
@@ -1758,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2616.035316796765</v>
+        <v>2617.649865979797</v>
       </c>
     </row>
     <row r="3">
@@ -1769,10 +1769,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2535.4314581872886</v>
+        <v>2561.3404913372715</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.0811456593090853</v>
+        <v>-2.1511423423869114</v>
       </c>
     </row>
     <row r="4">
@@ -1794,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2535.4314581872886</v>
+        <v>2561.340491337271</v>
       </c>
     </row>
     <row r="6">
@@ -1820,10 +1820,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2535.431458187289</v>
+        <v>2561.3404913372715</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.0811456593090774</v>
+        <v>-2.1511423423869114</v>
       </c>
     </row>
     <row r="10">
@@ -1839,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>391.4126375939395</v>
+        <v>395.373479134483</v>
       </c>
     </row>
     <row r="12">
@@ -1855,7 +1855,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2144.01882059335</v>
+        <v>2165.967012202789</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>8677.580563033172</v>
+        <v>8682.936140811034</v>
       </c>
     </row>
     <row r="3">
@@ -1908,10 +1908,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8258.229521892012</v>
+        <v>8260.622963499623</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.832580211673437</v>
+        <v>-4.8637139610699185</v>
       </c>
     </row>
     <row r="4">
@@ -1922,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>8258.22952189201</v>
+        <v>8260.622963499623</v>
       </c>
     </row>
     <row r="5">
@@ -1948,10 +1948,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8258.229521892012</v>
+        <v>8260.622963499623</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.832580211673409</v>
+        <v>-4.863713961069908</v>
       </c>
     </row>
     <row r="9">
@@ -2058,7 +2058,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1033.7492545113123</v>
+        <v>1034.2688160330767</v>
       </c>
     </row>
     <row r="22">
@@ -2080,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>1033.749254511312</v>
+        <v>1034.2688160330765</v>
       </c>
     </row>
     <row r="24">
@@ -2101,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>531.6667122518941</v>
+        <v>532.1477925468873</v>
       </c>
     </row>
     <row r="27">
@@ -2123,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>531.666712251894</v>
+        <v>532.1477925468872</v>
       </c>
     </row>
     <row r="29">
@@ -2187,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>785.0973560969437</v>
+        <v>785.4203668559742</v>
       </c>
     </row>
     <row r="37">
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>785.0973560969436</v>
+        <v>785.4203668559741</v>
       </c>
     </row>
     <row r="39">
@@ -2230,7 +2230,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>3321.8094918179895</v>
+        <v>3322.8792808498156</v>
       </c>
     </row>
     <row r="42">
@@ -2252,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>3321.8094918179895</v>
+        <v>3322.879280849815</v>
       </c>
     </row>
   </sheetData>
